--- a/inst/items_conc.xlsx
+++ b/inst/items_conc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\str\Desktop\WWF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2780D-35B6-4DE8-A281-D594CB10FE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD0A401-62E8-49AC-95BE-C667A8CC545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concordance" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="676">
   <si>
     <t>comm_code</t>
   </si>
@@ -1892,9 +1892,6 @@
     <t>&lt;= 3/week</t>
   </si>
   <si>
-    <t>300 – 450</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -1907,9 +1904,6 @@
     <t>100 - 200</t>
   </si>
   <si>
-    <t>&lt;=3-4</t>
-  </si>
-  <si>
     <t>0 - 300</t>
   </si>
   <si>
@@ -2061,6 +2055,24 @@
   </si>
   <si>
     <t>portion size/subgroup</t>
+  </si>
+  <si>
+    <t>assumed same as fruits</t>
+  </si>
+  <si>
+    <t>1 - average edible flesh share from https://www.fao.org/3/T0219E/T0219E01.htm</t>
+  </si>
+  <si>
+    <t>Spirituosen</t>
+  </si>
+  <si>
+    <t>Spirits</t>
+  </si>
+  <si>
+    <t>Bier und Most</t>
+  </si>
+  <si>
+    <t>Beer and cider</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2081,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2748,7 +2760,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2829,18 +2841,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2848,7 +2848,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2866,7 +2866,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2886,6 +2886,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3245,31 +3259,31 @@
   <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="O91" sqref="O91:P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" customWidth="1"/>
-    <col min="3" max="3" width="34.3046875" customWidth="1"/>
-    <col min="4" max="4" width="16.84375" customWidth="1"/>
-    <col min="5" max="5" width="16.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.07421875" customWidth="1"/>
-    <col min="7" max="7" width="11.4609375" customWidth="1"/>
-    <col min="8" max="8" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.23046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.84375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.3046875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.3046875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="31.3046875" style="33" customWidth="1"/>
-    <col min="17" max="17" width="31.15234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3319,7 +3333,7 @@
         <v>602</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>365</v>
@@ -4212,7 +4226,7 @@
         <v>611</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>383</v>
@@ -4265,7 +4279,7 @@
         <v>611</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>383</v>
@@ -4318,7 +4332,7 @@
         <v>611</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q20" s="14" t="s">
         <v>383</v>
@@ -4424,7 +4438,7 @@
         <v>611</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q22" s="14" t="s">
         <v>382</v>
@@ -4473,7 +4487,7 @@
       <c r="N23" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O23" s="61" t="s">
+      <c r="O23" s="57" t="s">
         <v>609</v>
       </c>
       <c r="P23" s="33" t="s">
@@ -5754,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Q48" s="14" t="s">
         <v>106</v>
@@ -7619,10 +7633,10 @@
       <c r="N91" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O91" s="68" t="s">
+      <c r="O91" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="P91" s="7" t="s">
+      <c r="P91" s="64" t="s">
         <v>205</v>
       </c>
       <c r="Q91" s="14" t="s">
@@ -7672,11 +7686,11 @@
       <c r="N92" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O92" s="68" t="s">
+      <c r="O92" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="P92" s="7" t="s">
-        <v>208</v>
+      <c r="P92" s="64" t="s">
+        <v>675</v>
       </c>
       <c r="Q92" s="14" t="s">
         <v>206</v>
@@ -7725,11 +7739,11 @@
       <c r="N93" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O93" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="P93" s="68" t="s">
-        <v>300</v>
+      <c r="O93" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="P93" s="64" t="s">
+        <v>675</v>
       </c>
       <c r="Q93" s="14" t="s">
         <v>206</v>
@@ -7778,11 +7792,11 @@
       <c r="N94" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O94" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="P94" s="68" t="s">
-        <v>300</v>
+      <c r="O94" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="P94" s="64" t="s">
+        <v>673</v>
       </c>
       <c r="Q94" s="14" t="s">
         <v>206</v>
@@ -8980,16 +8994,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD37EB09-49C2-4CB6-B43E-99A45A5F8157}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123:F123"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126:F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9006,10 +9020,10 @@
         <v>602</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9283,7 +9297,7 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -9303,7 +9317,7 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -9322,7 +9336,7 @@
       </c>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -9341,7 +9355,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -9360,7 +9374,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -9378,10 +9392,10 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -9400,7 +9414,7 @@
       </c>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -9418,7 +9432,7 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -9436,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -9454,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -9469,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -9487,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -9520,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -9538,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -9556,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -9571,10 +9585,16 @@
         <v>Vegetables and legumes</v>
       </c>
       <c r="E32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -9589,10 +9609,16 @@
         <v>Vegetables and legumes</v>
       </c>
       <c r="E33" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -9607,10 +9633,16 @@
         <v>Vegetables and legumes</v>
       </c>
       <c r="E34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -9625,10 +9657,14 @@
         <v>Fruits</v>
       </c>
       <c r="E35" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -9643,10 +9679,14 @@
         <v>Fruits</v>
       </c>
       <c r="E36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -9661,10 +9701,14 @@
         <v>Fruits</v>
       </c>
       <c r="E37" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -9679,10 +9723,14 @@
         <v>Fruits</v>
       </c>
       <c r="E38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -9697,10 +9745,14 @@
         <v>Fruits</v>
       </c>
       <c r="E39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -9715,10 +9767,14 @@
         <v>Fruits</v>
       </c>
       <c r="E40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -9733,10 +9789,14 @@
         <v>Fruits</v>
       </c>
       <c r="E41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -9751,10 +9811,14 @@
         <v>Fruits</v>
       </c>
       <c r="E42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -9769,10 +9833,14 @@
         <v>Fruits</v>
       </c>
       <c r="E43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -9787,10 +9855,14 @@
         <v>Fruits</v>
       </c>
       <c r="E44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -9805,10 +9877,14 @@
         <v>Fruits</v>
       </c>
       <c r="E45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -9826,10 +9902,10 @@
         <v>0.3</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -9847,10 +9923,10 @@
         <v>0.2</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -10628,7 +10704,7 @@
       </c>
       <c r="D94" s="14" t="str">
         <f>VLOOKUP(B94,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Others</v>
+        <v>Alcohol</v>
       </c>
       <c r="E94" s="14">
         <v>0</v>
@@ -10646,7 +10722,7 @@
       </c>
       <c r="D95" s="14" t="str">
         <f>VLOOKUP(B95,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Others</v>
+        <v>Alcohol</v>
       </c>
       <c r="E95" s="14">
         <v>0</v>
@@ -10963,7 +11039,7 @@
         <v>0.34</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -10983,7 +11059,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -11003,7 +11079,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -11023,7 +11099,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -11043,7 +11119,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -11063,7 +11139,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -11116,7 +11192,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11167,7 +11243,10 @@
         <v>Fish</v>
       </c>
       <c r="E126" s="14">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -11183,21 +11262,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.23046875" style="14"/>
-    <col min="3" max="3" width="28.23046875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="14"/>
+    <col min="1" max="2" width="9.28515625" style="14"/>
+    <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13729,24 +13808,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F075F6A-B0BD-48B2-B1E2-ACAB1CED68C4}">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="23.53515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.23046875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.15234375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.84375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="31.3046875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.53515625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="16.23046875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.3828125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="29.84375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="31.3046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18101,20 +18180,20 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.23046875" style="14"/>
-    <col min="3" max="3" width="28.23046875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.23046875" style="14"/>
-    <col min="5" max="5" width="16.53515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.4609375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.69140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="30.53515625" customWidth="1"/>
-    <col min="10" max="10" width="23.61328125" customWidth="1"/>
-    <col min="11" max="11" width="35.3046875" customWidth="1"/>
-    <col min="12" max="12" width="18.15234375" customWidth="1"/>
-    <col min="13" max="13" width="29.921875" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" style="14"/>
+    <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="14"/>
+    <col min="5" max="5" width="16.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -23533,10 +23612,10 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.23046875" style="8"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -23571,7 +23650,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.9">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" t="s">
         <v>463</v>
       </c>
@@ -23579,7 +23658,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.9">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" t="s">
         <v>551</v>
       </c>
@@ -23587,7 +23666,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.9">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -23595,7 +23674,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.9">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" t="s">
         <v>466</v>
       </c>
@@ -23603,7 +23682,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.9">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -23611,7 +23690,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.9">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -23619,7 +23698,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.9">
+    <row r="11" spans="1:2" ht="15.75">
       <c r="A11" t="s">
         <v>552</v>
       </c>
@@ -23627,7 +23706,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.9">
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" t="s">
         <v>469</v>
       </c>
@@ -23635,7 +23714,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.9">
+    <row r="13" spans="1:2" ht="15.75">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -23643,7 +23722,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.9">
+    <row r="14" spans="1:2" ht="15.75">
       <c r="A14" t="s">
         <v>471</v>
       </c>
@@ -23651,7 +23730,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.9">
+    <row r="15" spans="1:2" ht="15.75">
       <c r="A15" t="s">
         <v>553</v>
       </c>
@@ -23659,7 +23738,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.9">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" t="s">
         <v>447</v>
       </c>
@@ -23667,7 +23746,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.9">
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" t="s">
         <v>472</v>
       </c>
@@ -23675,7 +23754,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.9">
+    <row r="18" spans="1:2" ht="15.75">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -23683,7 +23762,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.9">
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" t="s">
         <v>549</v>
       </c>
@@ -23691,7 +23770,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.9">
+    <row r="20" spans="1:2" ht="15.75">
       <c r="A20" t="s">
         <v>464</v>
       </c>
@@ -23699,7 +23778,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.9">
+    <row r="21" spans="1:2" ht="15.75">
       <c r="A21" t="s">
         <v>470</v>
       </c>
@@ -23707,7 +23786,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.9">
+    <row r="22" spans="1:2" ht="15.75">
       <c r="A22" t="s">
         <v>571</v>
       </c>
@@ -23726,28 +23805,28 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H15" sqref="H15:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.23046875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" customWidth="1"/>
-    <col min="6" max="6" width="28.921875" customWidth="1"/>
-    <col min="7" max="7" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.921875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="18" t="s">
@@ -24358,7 +24437,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24.9">
+    <row r="23" spans="1:9" ht="25.5">
       <c r="A23" s="23" t="s">
         <v>300</v>
       </c>
@@ -24400,86 +24479,86 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H19" sqref="H19:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.3828125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="29.3828125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.07421875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3046875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="22.3046875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="17.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.61328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="8.921875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.53515625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34" style="14" customWidth="1"/>
-    <col min="16" max="16" width="16.84375" style="14" customWidth="1"/>
-    <col min="17" max="17" width="18.15234375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="74.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="74.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.23046875" style="14"/>
+    <col min="20" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="57" customFormat="1">
-      <c r="A1" s="57" t="s">
-        <v>665</v>
-      </c>
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="1:20" s="53" customFormat="1">
+      <c r="A1" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>666</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>662</v>
-      </c>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="53" t="s">
         <v>669</v>
       </c>
-      <c r="G1" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>659</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>625</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>637</v>
-      </c>
-      <c r="L1" s="57" t="s">
+      <c r="I1" s="53" t="s">
+        <v>657</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>582</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="53" t="s">
         <v>574</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" s="57" t="s">
-        <v>660</v>
-      </c>
-      <c r="R1" s="57" t="s">
+      <c r="Q1" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="R1" s="53" t="s">
         <v>595</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="53" t="s">
         <v>593</v>
       </c>
     </row>
@@ -24505,25 +24584,25 @@
       <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="51">
         <v>50</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="51">
         <v>50</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K2" s="14">
         <v>50</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48">
         <v>50</v>
       </c>
-      <c r="O2" s="67" t="s">
-        <v>634</v>
+      <c r="O2" s="63" t="s">
+        <v>632</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
@@ -24532,10 +24611,10 @@
       <c r="A3" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="47" t="s">
         <v>576</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -24550,38 +24629,38 @@
       <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>632</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="K3" s="62">
+      <c r="K3" s="58">
         <f>I3*P3</f>
         <v>20.25</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="48" t="s">
         <v>575</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="62">
         <f>I3*P3</f>
         <v>20.25</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P3" s="33">
         <v>13.5</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="33"/>
@@ -24590,10 +24669,10 @@
       <c r="A4" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="47" t="s">
         <v>577</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="47" t="s">
         <v>577</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -24608,27 +24687,27 @@
       <c r="G4" s="33">
         <v>1</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="56">
         <v>22.5</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="56">
         <v>22.5</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K4" s="33">
         <v>22.5</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="48" t="s">
         <v>578</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="48">
         <v>22.5</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -24647,31 +24726,31 @@
       <c r="E5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="49">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="56">
         <v>150</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="56">
         <v>150</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K5" s="36">
         <f>H5</f>
         <v>150</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="48">
         <v>300</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="54">
+      <c r="M5" s="48"/>
+      <c r="N5" s="50">
         <f>G5*K5</f>
         <v>42.857142857142854</v>
       </c>
@@ -24695,36 +24774,36 @@
       <c r="E6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="49">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="56">
         <v>1</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="56">
         <v>1</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K6" s="36">
         <v>58</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="48">
         <f>3*P6</f>
         <v>174</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="54">
+      <c r="M6" s="48"/>
+      <c r="N6" s="50">
         <f>K6*G6</f>
         <v>24.857142857142854</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P6" s="14">
         <v>58</v>
@@ -24755,37 +24834,37 @@
       <c r="E7" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="49">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H7" s="55" t="s">
-        <v>615</v>
-      </c>
-      <c r="I7" s="55">
-        <v>375</v>
+      <c r="H7" s="51">
+        <v>150</v>
+      </c>
+      <c r="I7" s="51">
+        <v>150</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K7" s="36">
         <f>I7</f>
-        <v>375</v>
-      </c>
-      <c r="L7" s="52">
+        <v>150</v>
+      </c>
+      <c r="L7" s="48">
         <f>I7*3</f>
-        <v>1125</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="54">
+        <v>450</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="50">
         <f>K7*G7</f>
-        <v>160.71428571428569</v>
+        <v>64.285714285714278</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -24804,37 +24883,37 @@
       <c r="E8" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="G8" s="63">
+      <c r="F8" s="56" t="s">
+        <v>637</v>
+      </c>
+      <c r="G8" s="59">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="60">
         <v>150</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="60">
         <v>150</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K8" s="36">
         <f>H8</f>
         <v>150</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="48">
         <f>1*K8</f>
         <v>150</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="54">
+      <c r="M8" s="48"/>
+      <c r="N8" s="50">
         <f>G8*K8</f>
         <v>21.428571428571427</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -24853,35 +24932,35 @@
       <c r="E9" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="51">
         <v>4</v>
       </c>
       <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="51">
         <v>200</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="51">
         <v>200</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K9" s="14">
         <f>I9*P9</f>
         <v>206</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="48">
         <f>K9*G9</f>
         <v>824</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P9" s="14">
         <v>1.03</v>
@@ -24909,29 +24988,29 @@
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="55">
         <v>4</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="46">
         <v>4</v>
       </c>
-      <c r="H10" s="55" t="s">
-        <v>629</v>
-      </c>
-      <c r="I10" s="55">
+      <c r="H10" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="I10" s="51">
         <v>55</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K10" s="14">
         <f>I10</f>
         <v>55</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52" t="s">
-        <v>622</v>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -24950,32 +25029,32 @@
       <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="55">
         <v>4</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="46">
         <v>4</v>
       </c>
-      <c r="H11" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="I11" s="55">
+      <c r="H11" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="I11" s="51">
         <v>225</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" ref="K11:K14" si="0">I11</f>
         <v>225</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52" t="s">
-        <v>623</v>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48" t="s">
+        <v>621</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -24987,7 +25066,7 @@
         <v>588</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>591</v>
@@ -24998,29 +25077,29 @@
       <c r="E12" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="55">
         <v>3</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="46">
         <v>3</v>
       </c>
-      <c r="H12" s="55" t="s">
-        <v>619</v>
-      </c>
-      <c r="I12" s="55">
+      <c r="H12" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="I12" s="51">
         <v>150</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="s">
-        <v>624</v>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48" t="s">
+        <v>622</v>
       </c>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -25032,7 +25111,7 @@
         <v>588</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>590</v>
@@ -25041,32 +25120,32 @@
         <v>611</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="F13" s="59">
+        <v>661</v>
+      </c>
+      <c r="F13" s="55">
         <v>3</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="46">
         <v>3</v>
       </c>
-      <c r="H13" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="H13" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="I13" s="51">
         <f>(70+100)/2</f>
         <v>85</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52" t="s">
-        <v>621</v>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48" t="s">
+        <v>619</v>
       </c>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
@@ -25089,34 +25168,34 @@
       <c r="E14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="51">
         <v>2</v>
       </c>
       <c r="G14" s="14">
         <v>2</v>
       </c>
-      <c r="H14" s="55" t="s">
-        <v>618</v>
-      </c>
-      <c r="I14" s="55">
+      <c r="H14" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="I14" s="51">
         <f>(125+150)/2</f>
         <v>137.5</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="0"/>
         <v>137.5</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48">
         <f>K14*F14</f>
         <v>275</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -25125,10 +25204,10 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>519</v>
@@ -25139,31 +25218,31 @@
       <c r="E15" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="F15" s="69" t="s">
-        <v>620</v>
-      </c>
-      <c r="G15" s="70">
-        <v>4</v>
+      <c r="F15" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>359</v>
       </c>
       <c r="H15" s="33">
         <v>1</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="60">
         <v>1</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K15" s="33">
         <v>7</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52" t="s">
-        <v>649</v>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
+        <v>647</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
@@ -25172,45 +25251,45 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>606</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>620</v>
-      </c>
-      <c r="G16" s="70">
-        <v>4</v>
+        <v>662</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>359</v>
       </c>
       <c r="H16" s="33">
         <v>1</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="60">
         <v>1</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K16" s="33">
         <v>3</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52" t="s">
-        <v>650</v>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
+        <v>648</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
@@ -25225,19 +25304,19 @@
         <v>470</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>432</v>
+        <v>674</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>206</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="70">
-        <v>1</v>
-      </c>
-      <c r="G17" s="70">
-        <v>1</v>
+        <v>675</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>359</v>
       </c>
       <c r="H17" s="33">
         <v>0.5</v>
@@ -25246,20 +25325,20 @@
         <v>500</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K17" s="33">
         <f>I17*P17</f>
         <v>505</v>
       </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52">
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48" t="e">
         <f>K17*G17</f>
-        <v>505</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="P17" s="14">
         <v>1.01</v>
@@ -25287,11 +25366,11 @@
       <c r="E18" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="70">
-        <v>1</v>
-      </c>
-      <c r="G18" s="70">
-        <v>1</v>
+      <c r="F18" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>359</v>
       </c>
       <c r="H18" s="33">
         <v>0.25</v>
@@ -25300,20 +25379,20 @@
         <v>250</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K18" s="33">
         <f>I18*P18</f>
         <v>247.5</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48" t="e">
         <f>K18*G17</f>
-        <v>247.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="P18" s="14">
         <v>0.99</v>
@@ -25326,22 +25405,60 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
+      <c r="A19" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="71">
+        <f>0.06</f>
+        <v>0.06</v>
+      </c>
+      <c r="I19" s="71">
+        <f>H19*1000</f>
+        <v>60</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="K19" s="33">
+        <f>I19*P19</f>
+        <v>57</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48" t="e">
+        <f>K19*G18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="33"/>
@@ -25349,10 +25466,10 @@
       <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25362,29 +25479,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D393925C-EE04-49D3-96F8-D624C850C48D}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.3828125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3046875" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="14"/>
+    <col min="1" max="1" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="57" customFormat="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:3" s="53" customFormat="1">
+      <c r="A1" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>638</v>
+      <c r="C1" s="53" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -25399,7 +25516,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>576</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -25410,7 +25527,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>577</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -25427,7 +25544,7 @@
       <c r="B5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="49">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
@@ -25439,7 +25556,7 @@
       <c r="B6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="49">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
@@ -25451,7 +25568,7 @@
       <c r="B7" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="49">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
@@ -25463,7 +25580,7 @@
       <c r="B8" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="59">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
@@ -25486,18 +25603,18 @@
       <c r="B10" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="46">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="46">
         <v>3</v>
       </c>
     </row>
@@ -25514,13 +25631,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="C13" s="70">
-        <v>4</v>
+      <c r="C13" s="66" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -25530,16 +25647,16 @@
       <c r="B14" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="70">
-        <v>1</v>
+      <c r="C14" s="66" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="33"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25551,50 +25668,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767F6C5C-EB59-4436-B536-E20742AF84D3}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.3828125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.3046875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.61328125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.84375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="18.15234375" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="14"/>
+    <col min="1" max="2" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="57" customFormat="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:12" s="53" customFormat="1">
+      <c r="A1" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>666</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>662</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>659</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>625</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>637</v>
-      </c>
-      <c r="I1" s="57" t="s">
+      <c r="D1" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>669</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="57" t="s">
-        <v>660</v>
+      <c r="J1" s="53" t="s">
+        <v>658</v>
       </c>
       <c r="L1" s="33"/>
     </row>
@@ -25611,14 +25730,14 @@
       <c r="D2" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="51">
         <v>50</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="51">
         <v>50</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H2" s="14">
         <v>50</v>
@@ -25627,10 +25746,10 @@
       <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="47" t="s">
         <v>576</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -25639,16 +25758,16 @@
       <c r="D3" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="F3" s="58" t="s">
-        <v>632</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="H3" s="62">
+      <c r="H3" s="58">
         <f>F3*I3</f>
         <v>20.25</v>
       </c>
@@ -25656,16 +25775,16 @@
         <v>13.5</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>577</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="47" t="s">
         <v>577</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -25674,14 +25793,14 @@
       <c r="D4" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="56">
         <v>22.5</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="56">
         <v>22.5</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H4" s="33">
         <v>22.5</v>
@@ -25701,14 +25820,14 @@
       <c r="D5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="56">
         <v>150</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="56">
         <v>150</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H5" s="36">
         <f>E5</f>
@@ -25729,14 +25848,14 @@
       <c r="D6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="56">
         <v>1</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="56">
         <v>1</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H6" s="36">
         <v>58</v>
@@ -25762,18 +25881,18 @@
       <c r="D7" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>615</v>
-      </c>
-      <c r="F7" s="55">
-        <v>375</v>
+      <c r="E7" s="51">
+        <v>150</v>
+      </c>
+      <c r="F7" s="51">
+        <v>150</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H7" s="36">
         <f>F7</f>
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="L7" s="33"/>
     </row>
@@ -25790,14 +25909,14 @@
       <c r="D8" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="60">
         <v>150</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="60">
         <v>150</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H8" s="36">
         <f>E8</f>
@@ -25818,14 +25937,14 @@
       <c r="D9" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="51">
         <v>200</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="51">
         <v>200</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H9" s="14">
         <f>F9*I9</f>
@@ -25852,14 +25971,14 @@
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>629</v>
-      </c>
-      <c r="F10" s="55">
+      <c r="E10" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="F10" s="51">
         <v>55</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H10" s="14">
         <f>F10</f>
@@ -25880,14 +25999,14 @@
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="F11" s="55">
+      <c r="E11" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" s="51">
         <v>225</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" ref="H11:H14" si="0">F11</f>
@@ -25899,7 +26018,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>591</v>
@@ -25910,14 +26029,14 @@
       <c r="D12" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>619</v>
-      </c>
-      <c r="F12" s="55">
+      <c r="E12" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="F12" s="51">
         <v>150</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
@@ -25929,7 +26048,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>590</v>
@@ -25938,17 +26057,17 @@
         <v>611</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="F13" s="55">
+        <v>661</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" s="51">
         <f>(70+100)/2</f>
         <v>85</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
@@ -25971,15 +26090,15 @@
       <c r="D14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>618</v>
-      </c>
-      <c r="F14" s="55">
+      <c r="E14" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="F14" s="51">
         <f>(125+150)/2</f>
         <v>137.5</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
@@ -25991,7 +26110,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>519</v>
@@ -26005,11 +26124,11 @@
       <c r="E15" s="33">
         <v>1</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="60">
         <v>1</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H15" s="33">
         <v>7</v>
@@ -26020,25 +26139,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>606</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="60">
         <v>1</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H16" s="33">
         <v>3</v>
@@ -26052,13 +26171,13 @@
         <v>470</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>432</v>
+        <v>674</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>206</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>208</v>
+        <v>675</v>
       </c>
       <c r="E17" s="33">
         <v>0.5</v>
@@ -26067,7 +26186,7 @@
         <v>500</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H17" s="33">
         <f>F17*I17</f>
@@ -26101,7 +26220,7 @@
         <v>250</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H18" s="33">
         <f>F18*I18</f>
@@ -26116,22 +26235,45 @@
       <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="A19" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="E19" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="F19" s="72">
+        <v>60</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="H19" s="59">
+        <v>57</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>594</v>
+      </c>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12">
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12">
@@ -26454,15 +26596,15 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.69140625" customWidth="1"/>
-    <col min="2" max="2" width="18.61328125" customWidth="1"/>
-    <col min="3" max="3" width="24.61328125" customWidth="1"/>
-    <col min="4" max="4" width="14.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.921875" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1">
@@ -27232,16 +27374,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF17F7E9-319B-4EE9-87FA-1B8B59FCFD55}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124:F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.23046875" customWidth="1"/>
-    <col min="3" max="3" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.4609375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="18.61328125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -27258,10 +27400,10 @@
         <v>602</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -27282,7 +27424,7 @@
         <v>0.30699999999999994</v>
       </c>
       <c r="F2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -27524,7 +27666,7 @@
         <v>0.89769999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -27542,7 +27684,7 @@
         <v>0.86980000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -27559,7 +27701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -27576,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -27593,7 +27735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -27610,10 +27752,10 @@
         <v>0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -27630,7 +27772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -27647,10 +27789,10 @@
         <v>0.3</v>
       </c>
       <c r="F23" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -27667,7 +27809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -27684,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -27699,7 +27841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -27716,7 +27858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -27733,7 +27875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -27748,7 +27890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -27765,7 +27907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -27782,7 +27924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -27796,10 +27938,16 @@
         <v>611</v>
       </c>
       <c r="E32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -27813,10 +27961,16 @@
         <v>611</v>
       </c>
       <c r="E33" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -27830,10 +27984,16 @@
         <v>611</v>
       </c>
       <c r="E34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -27847,10 +28007,13 @@
         <v>295</v>
       </c>
       <c r="E35" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -27864,10 +28027,13 @@
         <v>295</v>
       </c>
       <c r="E36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -27881,10 +28047,13 @@
         <v>295</v>
       </c>
       <c r="E37" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -27898,10 +28067,13 @@
         <v>295</v>
       </c>
       <c r="E38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -27915,10 +28087,13 @@
         <v>295</v>
       </c>
       <c r="E39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -27932,10 +28107,13 @@
         <v>295</v>
       </c>
       <c r="E40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -27949,10 +28127,13 @@
         <v>295</v>
       </c>
       <c r="E41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -27966,10 +28147,13 @@
         <v>295</v>
       </c>
       <c r="E42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -27983,10 +28167,13 @@
         <v>295</v>
       </c>
       <c r="E43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -28000,10 +28187,13 @@
         <v>295</v>
       </c>
       <c r="E44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -28017,10 +28207,13 @@
         <v>295</v>
       </c>
       <c r="E45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.27</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -28037,10 +28230,10 @@
         <v>0.3</v>
       </c>
       <c r="F46" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -28057,10 +28250,10 @@
         <v>0.2</v>
       </c>
       <c r="F47" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -29127,9 +29320,9 @@
         <v>0.34</v>
       </c>
       <c r="F114" t="s">
-        <v>657</v>
-      </c>
-      <c r="G114" s="56"/>
+        <v>655</v>
+      </c>
+      <c r="G114" s="52"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="14" t="s">
@@ -29148,7 +29341,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -29168,7 +29361,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -29188,7 +29381,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -29208,7 +29401,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -29228,7 +29421,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -29309,7 +29502,10 @@
         <v>283</v>
       </c>
       <c r="E124" s="14">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="F124" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -29325,20 +29521,20 @@
       <selection activeCell="D64" sqref="D64:F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.23046875" style="14"/>
-    <col min="3" max="3" width="28.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" style="14"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -31717,19 +31913,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="28.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" customWidth="1"/>
-    <col min="9" max="10" width="30.15234375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="16.15234375" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="10" width="30.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -31761,7 +31957,7 @@
         <v>602</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>365</v>
@@ -34937,7 +35133,7 @@
       </c>
       <c r="J93" s="14" t="str">
         <f>VLOOKUP(B93,concordance!$B$2:$Q$124,15,FALSE)</f>
-        <v>Beer</v>
+        <v>Beer and cider</v>
       </c>
       <c r="K93" s="14" t="s">
         <v>206</v>
@@ -34970,11 +35166,11 @@
       </c>
       <c r="I94" s="14" t="str">
         <f>VLOOKUP(B94,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Others</v>
+        <v>Alcohol</v>
       </c>
       <c r="J94" s="14" t="str">
         <f>VLOOKUP(B94,concordance!$B$2:$Q$124,15,FALSE)</f>
-        <v>Others</v>
+        <v>Beer and cider</v>
       </c>
       <c r="K94" s="14" t="s">
         <v>206</v>
@@ -35007,11 +35203,11 @@
       </c>
       <c r="I95" s="14" t="str">
         <f>VLOOKUP(B95,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Others</v>
+        <v>Alcohol</v>
       </c>
       <c r="J95" s="14" t="str">
         <f>VLOOKUP(B95,concordance!$B$2:$Q$124,15,FALSE)</f>
-        <v>Others</v>
+        <v>Spirits</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>206</v>

--- a/inst/items_conc.xlsx
+++ b/inst/items_conc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\str\Desktop\WWF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD0A401-62E8-49AC-95BE-C667A8CC545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB6B60E-465C-4625-8975-761612E3E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concordance" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <sheet name="fao_composition_1.1" sheetId="7" r:id="rId11"/>
     <sheet name="items_german" sheetId="8" r:id="rId12"/>
     <sheet name="items_german_1.1" sheetId="9" r:id="rId13"/>
-    <sheet name="colors" sheetId="10" r:id="rId14"/>
+    <sheet name="colors_old" sheetId="10" r:id="rId14"/>
+    <sheet name="colors" sheetId="19" r:id="rId15"/>
+    <sheet name="colors_alt" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6269" uniqueCount="688">
   <si>
     <t>comm_code</t>
   </si>
@@ -2073,6 +2075,42 @@
   </si>
   <si>
     <t>Beer and cider</t>
+  </si>
+  <si>
+    <t>comm_group_ger_old</t>
+  </si>
+  <si>
+    <t>Hülsenfrüchte</t>
+  </si>
+  <si>
+    <t>Ölpflanzen</t>
+  </si>
+  <si>
+    <t>Gewürze</t>
+  </si>
+  <si>
+    <t>#194d33</t>
+  </si>
+  <si>
+    <t>#ff6900</t>
+  </si>
+  <si>
+    <t>Nüsse und Samen</t>
+  </si>
+  <si>
+    <t>#e91e82</t>
+  </si>
+  <si>
+    <t>#abb8c3</t>
+  </si>
+  <si>
+    <t>#4caf50</t>
+  </si>
+  <si>
+    <t>#827717</t>
+  </si>
+  <si>
+    <t>#7bdcb5</t>
   </si>
 </sst>
 </file>
@@ -3259,10 +3297,10 @@
   <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O91" sqref="O91:P94"/>
+      <selection pane="bottomRight" activeCell="O82" sqref="O82:P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8996,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD37EB09-49C2-4CB6-B43E-99A45A5F8157}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126:F126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11259,7 +11297,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -13806,10 +13844,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F075F6A-B0BD-48B2-B1E2-ACAB1CED68C4}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13823,12 +13861,12 @@
     <col min="7" max="7" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="33" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="33.42578125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13857,16 +13895,19 @@
         <v>486</v>
       </c>
       <c r="J1" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -13897,14 +13938,17 @@
       <c r="J2" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -13935,14 +13979,17 @@
       <c r="J3" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -13973,14 +14020,17 @@
       <c r="J4" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L4" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -14011,14 +14061,17 @@
       <c r="J5" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L5" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -14049,14 +14102,17 @@
       <c r="J6" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -14087,14 +14143,17 @@
       <c r="J7" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -14125,14 +14184,17 @@
       <c r="J8" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -14163,14 +14225,17 @@
       <c r="J9" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -14201,14 +14266,17 @@
       <c r="J10" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -14239,14 +14307,17 @@
       <c r="J11" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="M11" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -14277,14 +14348,17 @@
       <c r="J12" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -14315,14 +14389,17 @@
       <c r="J13" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -14353,14 +14430,17 @@
       <c r="J14" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="L14" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -14391,14 +14471,17 @@
       <c r="J15" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="L15" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
@@ -14426,12 +14509,15 @@
       <c r="J16" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
+      <c r="K16" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -14459,12 +14545,15 @@
       <c r="J17" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14" t="s">
+      <c r="K17" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -14495,14 +14584,17 @@
       <c r="J18" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="L18" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -14533,14 +14625,17 @@
       <c r="J19" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="L19" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="M19" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -14571,14 +14666,17 @@
       <c r="J20" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="L20" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -14609,14 +14707,17 @@
       <c r="J21" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L21" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -14647,14 +14748,17 @@
       <c r="J22" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="L22" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -14685,14 +14789,17 @@
       <c r="J23" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L23" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="M23" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -14723,14 +14830,17 @@
       <c r="J24" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L24" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -14761,14 +14871,17 @@
       <c r="J25" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L25" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -14797,12 +14910,15 @@
       <c r="J26" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L26" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -14833,14 +14949,17 @@
       <c r="J27" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -14871,14 +14990,17 @@
       <c r="J28" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L28" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="M28" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -14907,12 +15029,15 @@
       <c r="J29" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L29" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -14943,14 +15068,17 @@
       <c r="J30" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="57" t="s">
+        <v>551</v>
+      </c>
+      <c r="L30" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="M30" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -14981,14 +15109,17 @@
       <c r="J31" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L31" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -15019,14 +15150,17 @@
       <c r="J32" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L32" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="M32" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -15057,14 +15191,17 @@
       <c r="J33" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L33" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="M33" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -15095,14 +15232,17 @@
       <c r="J34" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K34" s="14" t="s">
-        <v>476</v>
+      <c r="K34" s="17" t="s">
+        <v>551</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -15133,14 +15273,17 @@
       <c r="J35" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -15171,14 +15314,17 @@
       <c r="J36" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L36" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -15209,14 +15355,17 @@
       <c r="J37" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -15247,14 +15396,17 @@
       <c r="J38" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="M38" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -15285,14 +15437,17 @@
       <c r="J39" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="M39" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -15323,14 +15478,17 @@
       <c r="J40" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="M40" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -15361,14 +15519,17 @@
       <c r="J41" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="M41" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -15399,14 +15560,17 @@
       <c r="J42" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L42" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="M42" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -15437,14 +15601,17 @@
       <c r="J43" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="M43" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -15475,14 +15642,17 @@
       <c r="J44" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="M44" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -15513,14 +15683,17 @@
       <c r="J45" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L45" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="M45" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -15548,12 +15721,15 @@
       <c r="J46" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14" t="s">
+      <c r="K46" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -15581,12 +15757,15 @@
       <c r="J47" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14" t="s">
+      <c r="K47" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -15614,12 +15793,15 @@
       <c r="J48" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14" t="s">
+      <c r="K48" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
@@ -15650,14 +15832,17 @@
       <c r="J49" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K49" s="41" t="s">
+      <c r="K49" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="L49" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="M49" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>113</v>
       </c>
@@ -15688,14 +15873,17 @@
       <c r="J50" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K50" s="41" t="s">
+      <c r="K50" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="L50" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="M50" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" s="14" t="s">
         <v>115</v>
       </c>
@@ -15726,14 +15914,17 @@
       <c r="J51" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K51" s="41" t="s">
+      <c r="K51" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="L51" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="M51" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="14" t="s">
         <v>117</v>
       </c>
@@ -15764,14 +15955,17 @@
       <c r="J52" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="L52" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L52" s="14" t="s">
+      <c r="M52" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>119</v>
       </c>
@@ -15802,14 +15996,17 @@
       <c r="J53" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K53" s="41" t="s">
+      <c r="K53" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="L53" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L53" s="14" t="s">
+      <c r="M53" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="14" t="s">
         <v>121</v>
       </c>
@@ -15835,10 +16032,13 @@
       <c r="J54" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K54" s="14"/>
+      <c r="K54" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="14" t="s">
         <v>124</v>
       </c>
@@ -15864,10 +16064,13 @@
       <c r="J55" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="14" t="s">
         <v>126</v>
       </c>
@@ -15893,10 +16096,13 @@
       <c r="J56" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="14" t="s">
         <v>128</v>
       </c>
@@ -15922,10 +16128,13 @@
       <c r="J57" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K57" s="14"/>
+      <c r="K57" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="14" t="s">
         <v>130</v>
       </c>
@@ -15951,10 +16160,13 @@
       <c r="J58" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K58" s="14"/>
+      <c r="K58" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
@@ -15980,10 +16192,13 @@
       <c r="J59" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
@@ -16009,10 +16224,13 @@
       <c r="J60" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="K60" s="14"/>
+      <c r="K60" s="14" t="s">
+        <v>466</v>
+      </c>
       <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="14" t="s">
         <v>137</v>
       </c>
@@ -16038,10 +16256,13 @@
       <c r="J61" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="K61" s="14"/>
+      <c r="K61" s="14" t="s">
+        <v>466</v>
+      </c>
       <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="14" t="s">
         <v>139</v>
       </c>
@@ -16067,10 +16288,13 @@
       <c r="J62" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="K62" s="14"/>
+      <c r="K62" s="14" t="s">
+        <v>420</v>
+      </c>
       <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="14" t="s">
         <v>142</v>
       </c>
@@ -16096,10 +16320,13 @@
       <c r="J63" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="K63" s="14"/>
+      <c r="K63" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="14" t="s">
         <v>145</v>
       </c>
@@ -16126,10 +16353,13 @@
       <c r="J64" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K64" s="41"/>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="K64" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="L64" s="41"/>
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="14" t="s">
         <v>148</v>
       </c>
@@ -16160,14 +16390,17 @@
       <c r="J65" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="K65" s="41" t="s">
+      <c r="K65" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="L65" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="M65" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="14" t="s">
         <v>150</v>
       </c>
@@ -16198,14 +16431,17 @@
       <c r="J66" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="K66" s="41" t="s">
+      <c r="K66" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="L66" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L66" s="14" t="s">
+      <c r="M66" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="14" t="s">
         <v>154</v>
       </c>
@@ -16236,14 +16472,17 @@
       <c r="J67" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="K67" s="41" t="s">
+      <c r="K67" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="L67" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L67" s="14" t="s">
+      <c r="M67" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" s="14" t="s">
         <v>156</v>
       </c>
@@ -16274,14 +16513,17 @@
       <c r="J68" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="K68" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="L68" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L68" s="14" t="s">
+      <c r="M68" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="14" t="s">
         <v>158</v>
       </c>
@@ -16312,14 +16554,17 @@
       <c r="J69" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K69" s="41" t="s">
+      <c r="K69" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L69" s="35" t="s">
+      <c r="M69" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="14" t="s">
         <v>161</v>
       </c>
@@ -16350,14 +16595,17 @@
       <c r="J70" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K70" s="41" t="s">
+      <c r="K70" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L70" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L70" s="35" t="s">
+      <c r="M70" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="14" t="s">
         <v>163</v>
       </c>
@@ -16388,14 +16636,17 @@
       <c r="J71" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K71" s="41" t="s">
+      <c r="K71" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L71" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L71" s="35" t="s">
+      <c r="M71" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="14" t="s">
         <v>165</v>
       </c>
@@ -16426,14 +16677,17 @@
       <c r="J72" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K72" s="41" t="s">
+      <c r="K72" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L72" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L72" s="35" t="s">
+      <c r="M72" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="14" t="s">
         <v>167</v>
       </c>
@@ -16464,14 +16718,17 @@
       <c r="J73" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K73" s="41" t="s">
+      <c r="K73" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L73" s="35" t="s">
+      <c r="M73" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="14" t="s">
         <v>169</v>
       </c>
@@ -16502,14 +16759,17 @@
       <c r="J74" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K74" s="41" t="s">
+      <c r="K74" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L74" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L74" s="35" t="s">
+      <c r="M74" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="14" t="s">
         <v>171</v>
       </c>
@@ -16540,14 +16800,17 @@
       <c r="J75" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K75" s="41" t="s">
+      <c r="K75" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L75" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L75" s="35" t="s">
+      <c r="M75" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="14" t="s">
         <v>173</v>
       </c>
@@ -16578,14 +16841,17 @@
       <c r="J76" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K76" s="41" t="s">
+      <c r="K76" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L76" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L76" s="35" t="s">
+      <c r="M76" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="14" t="s">
         <v>175</v>
       </c>
@@ -16616,14 +16882,17 @@
       <c r="J77" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K77" s="41" t="s">
+      <c r="K77" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L77" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L77" s="35" t="s">
+      <c r="M77" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" s="14" t="s">
         <v>177</v>
       </c>
@@ -16654,14 +16923,17 @@
       <c r="J78" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K78" s="41" t="s">
+      <c r="K78" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L78" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L78" s="35" t="s">
+      <c r="M78" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" s="14" t="s">
         <v>179</v>
       </c>
@@ -16692,14 +16964,17 @@
       <c r="J79" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K79" s="41" t="s">
+      <c r="K79" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L79" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L79" s="35" t="s">
+      <c r="M79" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="14" t="s">
         <v>181</v>
       </c>
@@ -16730,14 +17005,17 @@
       <c r="J80" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K80" s="41" t="s">
+      <c r="K80" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L80" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L80" s="35" t="s">
+      <c r="M80" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" s="14" t="s">
         <v>183</v>
       </c>
@@ -16768,14 +17046,17 @@
       <c r="J81" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K81" s="41" t="s">
+      <c r="K81" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="L81" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L81" s="35" t="s">
+      <c r="M81" s="35" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" s="14" t="s">
         <v>185</v>
       </c>
@@ -16801,10 +17082,13 @@
       <c r="J82" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K82" s="14"/>
+      <c r="K82" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L82" s="14"/>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="14" t="s">
         <v>188</v>
       </c>
@@ -16830,10 +17114,13 @@
       <c r="J83" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K83" s="14"/>
+      <c r="K83" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L83" s="14"/>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="14"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="14" t="s">
         <v>190</v>
       </c>
@@ -16859,10 +17146,13 @@
       <c r="J84" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K84" s="14"/>
+      <c r="K84" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L84" s="14"/>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="14"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="14" t="s">
         <v>192</v>
       </c>
@@ -16888,10 +17178,13 @@
       <c r="J85" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L85" s="14"/>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="14"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="14" t="s">
         <v>194</v>
       </c>
@@ -16917,10 +17210,13 @@
       <c r="J86" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K86" s="14"/>
+      <c r="K86" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L86" s="14"/>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="14" t="s">
         <v>196</v>
       </c>
@@ -16946,10 +17242,13 @@
       <c r="J87" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K87" s="14"/>
+      <c r="K87" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L87" s="14"/>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="14" t="s">
         <v>198</v>
       </c>
@@ -16975,10 +17274,13 @@
       <c r="J88" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L88" s="14"/>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="14"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="14" t="s">
         <v>200</v>
       </c>
@@ -17004,10 +17306,13 @@
       <c r="J89" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K89" s="14"/>
+      <c r="K89" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L89" s="14"/>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="14"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="14" t="s">
         <v>202</v>
       </c>
@@ -17033,10 +17338,13 @@
       <c r="J90" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="K90" s="14"/>
+      <c r="K90" s="14" t="s">
+        <v>469</v>
+      </c>
       <c r="L90" s="14"/>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="14"/>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="14" t="s">
         <v>204</v>
       </c>
@@ -17067,14 +17375,17 @@
       <c r="J91" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="K91" s="41" t="s">
+      <c r="K91" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="L91" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L91" s="14" t="s">
+      <c r="M91" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" s="14" t="s">
         <v>207</v>
       </c>
@@ -17105,14 +17416,17 @@
       <c r="J92" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="K92" s="41" t="s">
+      <c r="K92" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="L92" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L92" s="14" t="s">
+      <c r="M92" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" s="14" t="s">
         <v>209</v>
       </c>
@@ -17143,14 +17457,17 @@
       <c r="J93" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="K93" s="41" t="s">
+      <c r="K93" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="L93" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L93" s="14" t="s">
+      <c r="M93" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" s="14" t="s">
         <v>211</v>
       </c>
@@ -17181,14 +17498,17 @@
       <c r="J94" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="K94" s="41" t="s">
+      <c r="K94" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="L94" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L94" s="14" t="s">
+      <c r="M94" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="14" t="s">
         <v>213</v>
       </c>
@@ -17214,10 +17534,13 @@
       <c r="J95" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K95" s="14"/>
+      <c r="K95" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="L95" s="14"/>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="14"/>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="14" t="s">
         <v>216</v>
       </c>
@@ -17243,10 +17566,13 @@
       <c r="J96" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="K96" s="14"/>
+      <c r="K96" s="14" t="s">
+        <v>465</v>
+      </c>
       <c r="L96" s="14"/>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="14"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="14" t="s">
         <v>218</v>
       </c>
@@ -17272,10 +17598,13 @@
       <c r="J97" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K97" s="14"/>
+      <c r="K97" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L97" s="14"/>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="14"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="14" t="s">
         <v>223</v>
       </c>
@@ -17301,10 +17630,13 @@
       <c r="J98" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K98" s="14"/>
+      <c r="K98" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L98" s="14"/>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="14"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="14" t="s">
         <v>225</v>
       </c>
@@ -17330,10 +17662,13 @@
       <c r="J99" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K99" s="14"/>
+      <c r="K99" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L99" s="14"/>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="14"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="14" t="s">
         <v>227</v>
       </c>
@@ -17359,10 +17694,13 @@
       <c r="J100" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K100" s="14"/>
+      <c r="K100" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L100" s="14"/>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="14"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="14" t="s">
         <v>229</v>
       </c>
@@ -17388,10 +17726,13 @@
       <c r="J101" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K101" s="14"/>
+      <c r="K101" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L101" s="14"/>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="14"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="14" t="s">
         <v>231</v>
       </c>
@@ -17417,10 +17758,13 @@
       <c r="J102" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K102" s="14"/>
+      <c r="K102" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L102" s="14"/>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="14"/>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="14" t="s">
         <v>233</v>
       </c>
@@ -17446,10 +17790,13 @@
       <c r="J103" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K103" s="14"/>
+      <c r="K103" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L103" s="14"/>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="14"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="14" t="s">
         <v>235</v>
       </c>
@@ -17475,10 +17822,13 @@
       <c r="J104" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K104" s="14"/>
+      <c r="K104" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L104" s="14"/>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="14"/>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="14" t="s">
         <v>237</v>
       </c>
@@ -17504,10 +17854,13 @@
       <c r="J105" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K105" s="14"/>
+      <c r="K105" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L105" s="14"/>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="14"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="14" t="s">
         <v>239</v>
       </c>
@@ -17533,10 +17886,13 @@
       <c r="J106" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K106" s="14"/>
+      <c r="K106" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L106" s="14"/>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="14"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="14" t="s">
         <v>241</v>
       </c>
@@ -17562,10 +17918,13 @@
       <c r="J107" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K107" s="14"/>
+      <c r="K107" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L107" s="14"/>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="14"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="14" t="s">
         <v>243</v>
       </c>
@@ -17591,10 +17950,13 @@
       <c r="J108" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K108" s="14"/>
+      <c r="K108" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L108" s="14"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="14"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="14" t="s">
         <v>245</v>
       </c>
@@ -17620,10 +17982,13 @@
       <c r="J109" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="K109" s="14"/>
+      <c r="K109" s="14" t="s">
+        <v>471</v>
+      </c>
       <c r="L109" s="14"/>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="14"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="14" t="s">
         <v>247</v>
       </c>
@@ -17654,14 +18019,17 @@
       <c r="J110" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="K110" s="41" t="s">
+      <c r="K110" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="L110" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="L110" s="39" t="s">
+      <c r="M110" s="39" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13">
       <c r="A111" s="14" t="s">
         <v>252</v>
       </c>
@@ -17692,14 +18060,17 @@
       <c r="J111" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="K111" s="41" t="s">
+      <c r="K111" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="L111" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="L111" s="39" t="s">
+      <c r="M111" s="39" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:13">
       <c r="A112" s="14" t="s">
         <v>254</v>
       </c>
@@ -17730,14 +18101,17 @@
       <c r="J112" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="K112" s="41" t="s">
+      <c r="K112" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="L112" s="14" t="s">
+      <c r="L112" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="M112" s="14" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:13">
       <c r="A113" s="14" t="s">
         <v>256</v>
       </c>
@@ -17764,10 +18138,13 @@
       <c r="J113" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="K113" s="41"/>
-      <c r="L113" s="14"/>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="K113" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L113" s="41"/>
+      <c r="M113" s="14"/>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="14" t="s">
         <v>259</v>
       </c>
@@ -17801,11 +18178,14 @@
       <c r="K114" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="L114" s="14" t="s">
+      <c r="L114" s="41" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="14" t="s">
         <v>262</v>
       </c>
@@ -17839,11 +18219,14 @@
       <c r="K115" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="L115" s="14" t="s">
+      <c r="L115" s="41" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="14" t="s">
         <v>264</v>
       </c>
@@ -17877,11 +18260,14 @@
       <c r="K116" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="L116" s="14" t="s">
+      <c r="L116" s="41" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="14" t="s">
         <v>266</v>
       </c>
@@ -17915,11 +18301,14 @@
       <c r="K117" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="L117" s="14" t="s">
+      <c r="L117" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="M117" s="14" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:13">
       <c r="A118" s="14" t="s">
         <v>268</v>
       </c>
@@ -17953,11 +18342,14 @@
       <c r="K118" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="L118" s="14" t="s">
+      <c r="L118" s="41" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="14" t="s">
         <v>270</v>
       </c>
@@ -17991,11 +18383,14 @@
       <c r="K119" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="L119" s="14" t="s">
+      <c r="L119" s="41" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="14" t="s">
         <v>272</v>
       </c>
@@ -18026,14 +18421,17 @@
       <c r="J120" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="K120" s="41" t="s">
+      <c r="K120" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L120" s="14" t="s">
+      <c r="L120" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="M120" s="14" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:13">
       <c r="A121" s="14" t="s">
         <v>275</v>
       </c>
@@ -18059,10 +18457,13 @@
       <c r="J121" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="K121" s="14"/>
+      <c r="K121" s="14" t="s">
+        <v>472</v>
+      </c>
       <c r="L121" s="14"/>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="14"/>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="14" t="s">
         <v>277</v>
       </c>
@@ -18093,14 +18494,17 @@
       <c r="J122" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="K122" s="41" t="s">
+      <c r="K122" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="L122" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="L122" s="14" t="s">
+      <c r="M122" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:13">
       <c r="A123" s="14" t="s">
         <v>279</v>
       </c>
@@ -18126,10 +18530,13 @@
       <c r="J123" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="K123" s="14"/>
+      <c r="K123" s="14" t="s">
+        <v>472</v>
+      </c>
       <c r="L123" s="14"/>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" s="14"/>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="14" t="s">
         <v>281</v>
       </c>
@@ -18160,10 +18567,13 @@
       <c r="J124" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K124" s="41" t="s">
+      <c r="K124" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="L124" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="L124" s="14" t="s">
+      <c r="M124" s="14" t="s">
         <v>483</v>
       </c>
     </row>
@@ -18174,10 +18584,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43536D7-477F-4B17-B235-780297313EF6}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18192,11 +18602,12 @@
     <col min="9" max="9" width="30.5703125" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
     <col min="11" max="11" width="35.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -18228,16 +18639,19 @@
         <v>486</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
@@ -18272,13 +18686,16 @@
         <v>460</v>
       </c>
       <c r="L2" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="M2" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="N2" s="42" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -18304,27 +18721,31 @@
         <v>284</v>
       </c>
       <c r="I3" s="14" t="str">
-        <f>VLOOKUP(B3,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B3,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Weizen</v>
       </c>
       <c r="J3" s="14" t="str">
-        <f>VLOOKUP($B3,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B3,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K3" s="14" t="str">
-        <f>VLOOKUP($B3,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B3,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L3" s="14" t="str">
-        <f>VLOOKUP($B3,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B3,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M3" s="14" t="str">
+        <f>VLOOKUP($B3,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M3" s="14" t="str">
-        <f>VLOOKUP($B3,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N3" s="14" t="str">
+        <f>VLOOKUP($B3,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -18350,27 +18771,31 @@
         <v>284</v>
       </c>
       <c r="I4" s="14" t="str">
-        <f>VLOOKUP(B4,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B4,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Gerste</v>
       </c>
       <c r="J4" s="14" t="str">
-        <f>VLOOKUP($B4,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B4,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f>VLOOKUP($B4,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B4,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L4" s="14" t="str">
-        <f>VLOOKUP($B4,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B4,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M4" s="14" t="str">
+        <f>VLOOKUP($B4,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M4" s="14" t="str">
-        <f>VLOOKUP($B4,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N4" s="14" t="str">
+        <f>VLOOKUP($B4,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -18396,27 +18821,31 @@
         <v>284</v>
       </c>
       <c r="I5" s="14" t="str">
-        <f>VLOOKUP(B5,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B5,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Mais</v>
       </c>
       <c r="J5" s="14" t="str">
-        <f>VLOOKUP($B5,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B5,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f>VLOOKUP($B5,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B5,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L5" s="14" t="str">
-        <f>VLOOKUP($B5,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B5,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M5" s="14" t="str">
+        <f>VLOOKUP($B5,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M5" s="14" t="str">
-        <f>VLOOKUP($B5,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N5" s="14" t="str">
+        <f>VLOOKUP($B5,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -18442,27 +18871,31 @@
         <v>284</v>
       </c>
       <c r="I6" s="14" t="str">
-        <f>VLOOKUP(B6,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B6,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Roggen</v>
       </c>
       <c r="J6" s="14" t="str">
-        <f>VLOOKUP($B6,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B6,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K6" s="14" t="str">
-        <f>VLOOKUP($B6,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B6,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L6" s="14" t="str">
-        <f>VLOOKUP($B6,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B6,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M6" s="14" t="str">
+        <f>VLOOKUP($B6,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M6" s="14" t="str">
-        <f>VLOOKUP($B6,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N6" s="14" t="str">
+        <f>VLOOKUP($B6,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -18488,27 +18921,31 @@
         <v>284</v>
       </c>
       <c r="I7" s="14" t="str">
-        <f>VLOOKUP(B7,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B7,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Hafer</v>
       </c>
       <c r="J7" s="14" t="str">
-        <f>VLOOKUP($B7,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B7,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K7" s="14" t="str">
-        <f>VLOOKUP($B7,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B7,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L7" s="14" t="str">
-        <f>VLOOKUP($B7,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B7,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M7" s="14" t="str">
+        <f>VLOOKUP($B7,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M7" s="14" t="str">
-        <f>VLOOKUP($B7,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N7" s="14" t="str">
+        <f>VLOOKUP($B7,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -18534,27 +18971,31 @@
         <v>284</v>
       </c>
       <c r="I8" s="14" t="str">
-        <f>VLOOKUP(B8,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B8,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Hirse</v>
       </c>
       <c r="J8" s="14" t="str">
-        <f>VLOOKUP($B8,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B8,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K8" s="14" t="str">
-        <f>VLOOKUP($B8,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B8,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L8" s="14" t="str">
-        <f>VLOOKUP($B8,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B8,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M8" s="14" t="str">
+        <f>VLOOKUP($B8,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M8" s="14" t="str">
-        <f>VLOOKUP($B8,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N8" s="14" t="str">
+        <f>VLOOKUP($B8,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -18580,27 +19021,31 @@
         <v>284</v>
       </c>
       <c r="I9" s="14" t="str">
-        <f>VLOOKUP(B9,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B9,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sorghum</v>
       </c>
       <c r="J9" s="14" t="str">
-        <f>VLOOKUP($B9,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B9,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K9" s="14" t="str">
-        <f>VLOOKUP($B9,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B9,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L9" s="14" t="str">
-        <f>VLOOKUP($B9,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B9,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M9" s="14" t="str">
+        <f>VLOOKUP($B9,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M9" s="14" t="str">
-        <f>VLOOKUP($B9,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N9" s="14" t="str">
+        <f>VLOOKUP($B9,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -18626,27 +19071,31 @@
         <v>284</v>
       </c>
       <c r="I10" s="14" t="str">
-        <f>VLOOKUP(B10,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B10,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Getreide, sonstige</v>
       </c>
       <c r="J10" s="14" t="str">
-        <f>VLOOKUP($B10,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B10,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K10" s="14" t="str">
-        <f>VLOOKUP($B10,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B10,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Getreide</v>
       </c>
       <c r="L10" s="14" t="str">
-        <f>VLOOKUP($B10,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B10,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Getreide</v>
+      </c>
+      <c r="M10" s="14" t="str">
+        <f>VLOOKUP($B10,items_german!$B$2:$M$124,11,FALSE)</f>
         <v xml:space="preserve">Getreide </v>
       </c>
-      <c r="M10" s="14" t="str">
-        <f>VLOOKUP($B10,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N10" s="14" t="str">
+        <f>VLOOKUP($B10,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -18672,27 +19121,31 @@
         <v>286</v>
       </c>
       <c r="I11" s="14" t="str">
-        <f>VLOOKUP(B11,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B11,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kartoffeln</v>
       </c>
       <c r="J11" s="14" t="str">
-        <f>VLOOKUP($B11,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B11,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K11" s="14" t="str">
-        <f>VLOOKUP($B11,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B11,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
       <c r="L11" s="14" t="str">
-        <f>VLOOKUP($B11,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B11,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Wurzeln und Knollen</v>
+      </c>
+      <c r="M11" s="14" t="str">
+        <f>VLOOKUP($B11,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Kartoffeln &amp; Wurzeln</v>
       </c>
-      <c r="M11" s="14" t="str">
-        <f>VLOOKUP($B11,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N11" s="14" t="str">
+        <f>VLOOKUP($B11,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -18718,27 +19171,31 @@
         <v>286</v>
       </c>
       <c r="I12" s="14" t="str">
-        <f>VLOOKUP(B12,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B12,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Maniok</v>
       </c>
       <c r="J12" s="14" t="str">
-        <f>VLOOKUP($B12,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B12,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K12" s="14" t="str">
-        <f>VLOOKUP($B12,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B12,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
       <c r="L12" s="14" t="str">
-        <f>VLOOKUP($B12,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B12,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Wurzeln und Knollen</v>
+      </c>
+      <c r="M12" s="14" t="str">
+        <f>VLOOKUP($B12,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Kartoffeln &amp; Wurzeln</v>
       </c>
-      <c r="M12" s="14" t="str">
-        <f>VLOOKUP($B12,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N12" s="14" t="str">
+        <f>VLOOKUP($B12,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -18764,27 +19221,31 @@
         <v>286</v>
       </c>
       <c r="I13" s="14" t="str">
-        <f>VLOOKUP(B13,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B13,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Süßkartoffeln</v>
       </c>
       <c r="J13" s="14" t="str">
-        <f>VLOOKUP($B13,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B13,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K13" s="14" t="str">
-        <f>VLOOKUP($B13,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B13,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
       <c r="L13" s="14" t="str">
-        <f>VLOOKUP($B13,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B13,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Wurzeln und Knollen</v>
+      </c>
+      <c r="M13" s="14" t="str">
+        <f>VLOOKUP($B13,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Kartoffeln &amp; Wurzeln</v>
       </c>
-      <c r="M13" s="14" t="str">
-        <f>VLOOKUP($B13,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N13" s="14" t="str">
+        <f>VLOOKUP($B13,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -18810,27 +19271,31 @@
         <v>286</v>
       </c>
       <c r="I14" s="14" t="str">
-        <f>VLOOKUP(B14,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B14,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Wurzeln, andere</v>
       </c>
       <c r="J14" s="14" t="str">
-        <f>VLOOKUP($B14,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B14,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K14" s="14" t="str">
-        <f>VLOOKUP($B14,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B14,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
       <c r="L14" s="14" t="str">
-        <f>VLOOKUP($B14,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B14,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Wurzeln und Knollen</v>
+      </c>
+      <c r="M14" s="14" t="str">
+        <f>VLOOKUP($B14,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Kartoffeln &amp; Wurzeln</v>
       </c>
-      <c r="M14" s="14" t="str">
-        <f>VLOOKUP($B14,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N14" s="14" t="str">
+        <f>VLOOKUP($B14,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -18856,27 +19321,31 @@
         <v>286</v>
       </c>
       <c r="I15" s="14" t="str">
-        <f>VLOOKUP(B15,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B15,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Yamswurzeln</v>
       </c>
       <c r="J15" s="14" t="str">
-        <f>VLOOKUP($B15,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B15,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K15" s="14" t="str">
-        <f>VLOOKUP($B15,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B15,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
       <c r="L15" s="14" t="str">
-        <f>VLOOKUP($B15,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B15,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Wurzeln und Knollen</v>
+      </c>
+      <c r="M15" s="14" t="str">
+        <f>VLOOKUP($B15,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Kartoffeln &amp; Wurzeln</v>
       </c>
-      <c r="M15" s="14" t="str">
-        <f>VLOOKUP($B15,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N15" s="14" t="str">
+        <f>VLOOKUP($B15,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
@@ -18902,24 +19371,28 @@
         <v>298</v>
       </c>
       <c r="I16" s="14" t="str">
-        <f>VLOOKUP(B16,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B16,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Zuckerrohr</v>
       </c>
       <c r="J16" s="14" t="str">
-        <f>VLOOKUP($B16,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B16,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K16" s="14" t="str">
-        <f>VLOOKUP($B16,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B16,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Zucker und Süßungsmittel</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14" t="str">
-        <f>VLOOKUP($B16,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="L16" s="14" t="str">
+        <f>VLOOKUP($B16,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Zucker und Süßungsmittel</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="str">
+        <f>VLOOKUP($B16,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -18945,24 +19418,28 @@
         <v>298</v>
       </c>
       <c r="I17" s="14" t="str">
-        <f>VLOOKUP(B17,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B17,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Zuckerrüben</v>
       </c>
       <c r="J17" s="14" t="str">
-        <f>VLOOKUP($B17,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B17,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K17" s="14" t="str">
-        <f>VLOOKUP($B17,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B17,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Zucker und Süßungsmittel</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14" t="str">
-        <f>VLOOKUP($B17,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="L17" s="14" t="str">
+        <f>VLOOKUP($B17,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Zucker und Süßungsmittel</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="str">
+        <f>VLOOKUP($B17,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -18988,27 +19465,31 @@
         <v>299</v>
       </c>
       <c r="I18" s="14" t="str">
-        <f>VLOOKUP(B18,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B18,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Bohnen</v>
       </c>
       <c r="J18" s="14" t="str">
-        <f>VLOOKUP($B18,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B18,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K18" s="14" t="str">
-        <f>VLOOKUP($B18,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B18,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L18" s="14" t="str">
-        <f>VLOOKUP($B18,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B18,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Hülsenfrüchte</v>
+      </c>
+      <c r="M18" s="14" t="str">
+        <f>VLOOKUP($B18,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M18" s="14" t="str">
-        <f>VLOOKUP($B18,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N18" s="14" t="str">
+        <f>VLOOKUP($B18,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -19034,27 +19515,31 @@
         <v>299</v>
       </c>
       <c r="I19" s="14" t="str">
-        <f>VLOOKUP(B19,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B19,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Erbsen</v>
       </c>
       <c r="J19" s="14" t="str">
-        <f>VLOOKUP($B19,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B19,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K19" s="14" t="str">
-        <f>VLOOKUP($B19,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B19,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L19" s="14" t="str">
-        <f>VLOOKUP($B19,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B19,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Hülsenfrüchte</v>
+      </c>
+      <c r="M19" s="14" t="str">
+        <f>VLOOKUP($B19,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M19" s="14" t="str">
-        <f>VLOOKUP($B19,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N19" s="14" t="str">
+        <f>VLOOKUP($B19,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -19080,27 +19565,31 @@
         <v>299</v>
       </c>
       <c r="I20" s="14" t="str">
-        <f>VLOOKUP(B20,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B20,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Hülsenfrüchte, sonstige</v>
       </c>
       <c r="J20" s="14" t="str">
-        <f>VLOOKUP($B20,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B20,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K20" s="14" t="str">
-        <f>VLOOKUP($B20,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B20,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L20" s="14" t="str">
-        <f>VLOOKUP($B20,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B20,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Hülsenfrüchte</v>
+      </c>
+      <c r="M20" s="14" t="str">
+        <f>VLOOKUP($B20,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M20" s="14" t="str">
-        <f>VLOOKUP($B20,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N20" s="14" t="str">
+        <f>VLOOKUP($B20,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -19126,27 +19615,31 @@
         <v>299</v>
       </c>
       <c r="I21" s="14" t="str">
-        <f>VLOOKUP(B21,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B21,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Nüsse</v>
       </c>
       <c r="J21" s="14" t="str">
-        <f>VLOOKUP($B21,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B21,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K21" s="14" t="str">
-        <f>VLOOKUP($B21,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B21,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L21" s="14" t="str">
-        <f>VLOOKUP($B21,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B21,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M21" s="14" t="str">
+        <f>VLOOKUP($B21,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M21" s="14" t="str">
-        <f>VLOOKUP($B21,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N21" s="14" t="str">
+        <f>VLOOKUP($B21,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -19172,27 +19665,31 @@
         <v>299</v>
       </c>
       <c r="I22" s="14" t="str">
-        <f>VLOOKUP(B22,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B22,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sojabohnen</v>
       </c>
       <c r="J22" s="14" t="str">
-        <f>VLOOKUP($B22,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B22,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K22" s="14" t="str">
-        <f>VLOOKUP($B22,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B22,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
-      <c r="L22" s="14" t="str">
-        <f>VLOOKUP($B22,items_german!$B$2:$L$124,10,FALSE)</f>
+      <c r="L22" s="57" t="str">
+        <f>VLOOKUP($B22,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Hülsenfrüchte</v>
+      </c>
+      <c r="M22" s="14" t="str">
+        <f>VLOOKUP($B22,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M22" s="14" t="str">
-        <f>VLOOKUP($B22,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N22" s="14" t="str">
+        <f>VLOOKUP($B22,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="42" t="s">
         <v>58</v>
       </c>
@@ -19226,14 +19723,17 @@
       <c r="K23" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="M23" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -19259,27 +19759,31 @@
         <v>299</v>
       </c>
       <c r="I24" s="14" t="str">
-        <f>VLOOKUP(B24,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B24,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sonnenblumenkerne</v>
       </c>
       <c r="J24" s="14" t="str">
-        <f>VLOOKUP($B24,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B24,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K24" s="14" t="str">
-        <f>VLOOKUP($B24,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B24,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L24" s="14" t="str">
-        <f>VLOOKUP($B24,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B24,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M24" s="14" t="str">
+        <f>VLOOKUP($B24,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M24" s="14" t="str">
-        <f>VLOOKUP($B24,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N24" s="14" t="str">
+        <f>VLOOKUP($B24,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -19305,27 +19809,31 @@
         <v>299</v>
       </c>
       <c r="I25" s="14" t="str">
-        <f>VLOOKUP(B25,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B25,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Raps und Senfsaat</v>
       </c>
       <c r="J25" s="14" t="str">
-        <f>VLOOKUP($B25,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B25,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K25" s="14" t="str">
-        <f>VLOOKUP($B25,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B25,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L25" s="14" t="str">
-        <f>VLOOKUP($B25,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B25,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M25" s="14" t="str">
+        <f>VLOOKUP($B25,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M25" s="14" t="str">
-        <f>VLOOKUP($B25,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N25" s="14" t="str">
+        <f>VLOOKUP($B25,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -19351,24 +19859,28 @@
         <v>299</v>
       </c>
       <c r="I26" s="14" t="str">
-        <f>VLOOKUP(B26,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B26,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Saatbaumwolle</v>
       </c>
       <c r="J26" s="14" t="str">
-        <f>VLOOKUP($B26,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B26,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K26" s="14" t="str">
-        <f>VLOOKUP($B26,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B26,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L26" s="14" t="str">
-        <f>VLOOKUP($B26,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B26,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M26" s="14" t="str">
+        <f>VLOOKUP($B26,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -19394,27 +19906,31 @@
         <v>299</v>
       </c>
       <c r="I27" s="14" t="str">
-        <f>VLOOKUP(B27,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B27,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kokosnüsse</v>
       </c>
       <c r="J27" s="14" t="str">
-        <f>VLOOKUP($B27,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B27,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K27" s="14" t="str">
-        <f>VLOOKUP($B27,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B27,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L27" s="14" t="str">
-        <f>VLOOKUP($B27,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B27,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M27" s="14" t="str">
+        <f>VLOOKUP($B27,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M27" s="14" t="str">
-        <f>VLOOKUP($B27,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N27" s="14" t="str">
+        <f>VLOOKUP($B27,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -19440,27 +19956,31 @@
         <v>299</v>
       </c>
       <c r="I28" s="14" t="str">
-        <f>VLOOKUP(B28,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B28,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sesamsamen</v>
       </c>
       <c r="J28" s="14" t="str">
-        <f>VLOOKUP($B28,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B28,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K28" s="14" t="str">
-        <f>VLOOKUP($B28,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B28,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L28" s="14" t="str">
-        <f>VLOOKUP($B28,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B28,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M28" s="14" t="str">
+        <f>VLOOKUP($B28,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
-      <c r="M28" s="14" t="str">
-        <f>VLOOKUP($B28,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N28" s="14" t="str">
+        <f>VLOOKUP($B28,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -19486,24 +20006,28 @@
         <v>299</v>
       </c>
       <c r="I29" s="14" t="str">
-        <f>VLOOKUP(B29,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B29,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Ölpalmfrucht</v>
       </c>
       <c r="J29" s="14" t="str">
-        <f>VLOOKUP($B29,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B29,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K29" s="14" t="str">
-        <f>VLOOKUP($B29,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B29,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L29" s="14" t="str">
-        <f>VLOOKUP($B29,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B29,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M29" s="14" t="str">
+        <f>VLOOKUP($B29,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -19529,27 +20053,31 @@
         <v>288</v>
       </c>
       <c r="I30" s="14" t="str">
-        <f>VLOOKUP(B30,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B30,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Oliven</v>
       </c>
       <c r="J30" s="14" t="str">
-        <f>VLOOKUP($B30,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B30,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K30" s="14" t="str">
-        <f>VLOOKUP($B30,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B30,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L30" s="14" t="str">
-        <f>VLOOKUP($B30,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B30,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M30" s="14" t="str">
+        <f>VLOOKUP($B30,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M30" s="14" t="str">
-        <f>VLOOKUP($B30,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N30" s="14" t="str">
+        <f>VLOOKUP($B30,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -19575,27 +20103,31 @@
         <v>299</v>
       </c>
       <c r="I31" s="14" t="str">
-        <f>VLOOKUP(B31,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B31,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Ölfrüchte, sonstige</v>
       </c>
       <c r="J31" s="14" t="str">
-        <f>VLOOKUP($B31,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B31,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K31" s="14" t="str">
-        <f>VLOOKUP($B31,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B31,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L31" s="14" t="str">
-        <f>VLOOKUP($B31,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B31,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M31" s="14" t="str">
+        <f>VLOOKUP($B31,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M31" s="14" t="str">
-        <f>VLOOKUP($B31,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N31" s="14" t="str">
+        <f>VLOOKUP($B31,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -19621,27 +20153,31 @@
         <v>288</v>
       </c>
       <c r="I32" s="14" t="str">
-        <f>VLOOKUP(B32,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B32,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Tomaten und Tomatenerzeugnisse</v>
       </c>
       <c r="J32" s="14" t="str">
-        <f>VLOOKUP($B32,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B32,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K32" s="14" t="str">
-        <f>VLOOKUP($B32,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B32,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L32" s="14" t="str">
-        <f>VLOOKUP($B32,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B32,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M32" s="14" t="str">
+        <f>VLOOKUP($B32,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M32" s="14" t="str">
-        <f>VLOOKUP($B32,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N32" s="14" t="str">
+        <f>VLOOKUP($B32,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -19667,27 +20203,31 @@
         <v>288</v>
       </c>
       <c r="I33" s="14" t="str">
-        <f>VLOOKUP(B33,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B33,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Zwiebeln</v>
       </c>
       <c r="J33" s="14" t="str">
-        <f>VLOOKUP($B33,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B33,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K33" s="14" t="str">
-        <f>VLOOKUP($B33,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B33,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L33" s="14" t="str">
-        <f>VLOOKUP($B33,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B33,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M33" s="14" t="str">
+        <f>VLOOKUP($B33,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M33" s="14" t="str">
-        <f>VLOOKUP($B33,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N33" s="14" t="str">
+        <f>VLOOKUP($B33,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -19713,27 +20253,31 @@
         <v>288</v>
       </c>
       <c r="I34" s="14" t="str">
-        <f>VLOOKUP(B34,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B34,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Gemüse, sonstige</v>
       </c>
       <c r="J34" s="14" t="str">
-        <f>VLOOKUP($B34,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B34,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K34" s="14" t="str">
-        <f>VLOOKUP($B34,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B34,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L34" s="14" t="str">
-        <f>VLOOKUP($B34,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B34,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M34" s="14" t="str">
+        <f>VLOOKUP($B34,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M34" s="14" t="str">
-        <f>VLOOKUP($B34,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N34" s="14" t="str">
+        <f>VLOOKUP($B34,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -19759,27 +20303,31 @@
         <v>295</v>
       </c>
       <c r="I35" s="14" t="str">
-        <f>VLOOKUP(B35,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B35,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Orangen, Mandarinen</v>
       </c>
       <c r="J35" s="14" t="str">
-        <f>VLOOKUP($B35,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B35,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K35" s="14" t="str">
-        <f>VLOOKUP($B35,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B35,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L35" s="14" t="str">
-        <f>VLOOKUP($B35,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B35,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M35" s="14" t="str">
+        <f>VLOOKUP($B35,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M35" s="14" t="str">
-        <f>VLOOKUP($B35,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N35" s="14" t="str">
+        <f>VLOOKUP($B35,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -19805,27 +20353,31 @@
         <v>295</v>
       </c>
       <c r="I36" s="14" t="str">
-        <f>VLOOKUP(B36,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B36,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Zitronen, Limetten</v>
       </c>
       <c r="J36" s="14" t="str">
-        <f>VLOOKUP($B36,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B36,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K36" s="14" t="str">
-        <f>VLOOKUP($B36,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B36,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L36" s="14" t="str">
-        <f>VLOOKUP($B36,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B36,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M36" s="14" t="str">
+        <f>VLOOKUP($B36,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M36" s="14" t="str">
-        <f>VLOOKUP($B36,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N36" s="14" t="str">
+        <f>VLOOKUP($B36,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -19851,27 +20403,31 @@
         <v>295</v>
       </c>
       <c r="I37" s="14" t="str">
-        <f>VLOOKUP(B37,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B37,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Grapefruits</v>
       </c>
       <c r="J37" s="14" t="str">
-        <f>VLOOKUP($B37,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B37,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K37" s="14" t="str">
-        <f>VLOOKUP($B37,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B37,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L37" s="14" t="str">
-        <f>VLOOKUP($B37,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B37,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M37" s="14" t="str">
+        <f>VLOOKUP($B37,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M37" s="14" t="str">
-        <f>VLOOKUP($B37,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N37" s="14" t="str">
+        <f>VLOOKUP($B37,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -19897,27 +20453,31 @@
         <v>295</v>
       </c>
       <c r="I38" s="14" t="str">
-        <f>VLOOKUP(B38,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B38,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Zitrusfrüchte, sonstige</v>
       </c>
       <c r="J38" s="14" t="str">
-        <f>VLOOKUP($B38,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B38,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K38" s="14" t="str">
-        <f>VLOOKUP($B38,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B38,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L38" s="14" t="str">
-        <f>VLOOKUP($B38,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B38,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M38" s="14" t="str">
+        <f>VLOOKUP($B38,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M38" s="14" t="str">
-        <f>VLOOKUP($B38,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N38" s="14" t="str">
+        <f>VLOOKUP($B38,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -19943,27 +20503,31 @@
         <v>295</v>
       </c>
       <c r="I39" s="14" t="str">
-        <f>VLOOKUP(B39,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B39,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Bananen</v>
       </c>
       <c r="J39" s="14" t="str">
-        <f>VLOOKUP($B39,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B39,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K39" s="14" t="str">
-        <f>VLOOKUP($B39,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B39,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L39" s="14" t="str">
-        <f>VLOOKUP($B39,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B39,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M39" s="14" t="str">
+        <f>VLOOKUP($B39,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M39" s="14" t="str">
-        <f>VLOOKUP($B39,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N39" s="14" t="str">
+        <f>VLOOKUP($B39,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -19989,27 +20553,31 @@
         <v>295</v>
       </c>
       <c r="I40" s="14" t="str">
-        <f>VLOOKUP(B40,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B40,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kochbananen</v>
       </c>
       <c r="J40" s="14" t="str">
-        <f>VLOOKUP($B40,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B40,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K40" s="14" t="str">
-        <f>VLOOKUP($B40,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B40,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L40" s="14" t="str">
-        <f>VLOOKUP($B40,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B40,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M40" s="14" t="str">
+        <f>VLOOKUP($B40,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M40" s="14" t="str">
-        <f>VLOOKUP($B40,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N40" s="14" t="str">
+        <f>VLOOKUP($B40,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -20035,27 +20603,31 @@
         <v>295</v>
       </c>
       <c r="I41" s="14" t="str">
-        <f>VLOOKUP(B41,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B41,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Äpfel</v>
       </c>
       <c r="J41" s="14" t="str">
-        <f>VLOOKUP($B41,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B41,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K41" s="14" t="str">
-        <f>VLOOKUP($B41,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B41,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L41" s="14" t="str">
-        <f>VLOOKUP($B41,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B41,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M41" s="14" t="str">
+        <f>VLOOKUP($B41,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M41" s="14" t="str">
-        <f>VLOOKUP($B41,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N41" s="14" t="str">
+        <f>VLOOKUP($B41,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -20081,27 +20653,31 @@
         <v>295</v>
       </c>
       <c r="I42" s="14" t="str">
-        <f>VLOOKUP(B42,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B42,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Ananas</v>
       </c>
       <c r="J42" s="14" t="str">
-        <f>VLOOKUP($B42,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B42,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K42" s="14" t="str">
-        <f>VLOOKUP($B42,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B42,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L42" s="14" t="str">
-        <f>VLOOKUP($B42,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B42,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M42" s="14" t="str">
+        <f>VLOOKUP($B42,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M42" s="14" t="str">
-        <f>VLOOKUP($B42,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N42" s="14" t="str">
+        <f>VLOOKUP($B42,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -20127,27 +20703,31 @@
         <v>295</v>
       </c>
       <c r="I43" s="14" t="str">
-        <f>VLOOKUP(B43,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B43,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Datteln</v>
       </c>
       <c r="J43" s="14" t="str">
-        <f>VLOOKUP($B43,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B43,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K43" s="14" t="str">
-        <f>VLOOKUP($B43,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B43,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L43" s="14" t="str">
-        <f>VLOOKUP($B43,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B43,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M43" s="14" t="str">
+        <f>VLOOKUP($B43,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M43" s="14" t="str">
-        <f>VLOOKUP($B43,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N43" s="14" t="str">
+        <f>VLOOKUP($B43,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -20173,27 +20753,31 @@
         <v>295</v>
       </c>
       <c r="I44" s="14" t="str">
-        <f>VLOOKUP(B44,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B44,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Weintrauben</v>
       </c>
       <c r="J44" s="14" t="str">
-        <f>VLOOKUP($B44,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B44,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K44" s="14" t="str">
-        <f>VLOOKUP($B44,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B44,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L44" s="14" t="str">
-        <f>VLOOKUP($B44,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B44,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M44" s="14" t="str">
+        <f>VLOOKUP($B44,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M44" s="14" t="str">
-        <f>VLOOKUP($B44,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N44" s="14" t="str">
+        <f>VLOOKUP($B44,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -20219,27 +20803,31 @@
         <v>295</v>
       </c>
       <c r="I45" s="14" t="str">
-        <f>VLOOKUP(B45,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B45,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Früchte, sonstige</v>
       </c>
       <c r="J45" s="14" t="str">
-        <f>VLOOKUP($B45,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B45,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K45" s="14" t="str">
-        <f>VLOOKUP($B45,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B45,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Obst und Gemüse</v>
       </c>
       <c r="L45" s="14" t="str">
-        <f>VLOOKUP($B45,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B45,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Obst und Gemüse</v>
+      </c>
+      <c r="M45" s="14" t="str">
+        <f>VLOOKUP($B45,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Früchte</v>
       </c>
-      <c r="M45" s="14" t="str">
-        <f>VLOOKUP($B45,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N45" s="14" t="str">
+        <f>VLOOKUP($B45,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -20265,24 +20853,28 @@
         <v>300</v>
       </c>
       <c r="I46" s="14" t="str">
-        <f>VLOOKUP(B46,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B46,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kaffee</v>
       </c>
       <c r="J46" s="14" t="str">
-        <f>VLOOKUP($B46,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B46,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K46" s="14" t="str">
-        <f>VLOOKUP($B46,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B46,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Kaffee, Tee, Kakao</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14" t="str">
-        <f>VLOOKUP($B46,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="L46" s="14" t="str">
+        <f>VLOOKUP($B46,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Kaffee, Tee, Kakao</v>
+      </c>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14" t="str">
+        <f>VLOOKUP($B46,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -20308,24 +20900,28 @@
         <v>300</v>
       </c>
       <c r="I47" s="14" t="str">
-        <f>VLOOKUP(B47,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B47,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kakaobohnen</v>
       </c>
       <c r="J47" s="14" t="str">
-        <f>VLOOKUP($B47,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B47,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K47" s="14" t="str">
-        <f>VLOOKUP($B47,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B47,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Kaffee, Tee, Kakao</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14" t="str">
-        <f>VLOOKUP($B47,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="L47" s="14" t="str">
+        <f>VLOOKUP($B47,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Kaffee, Tee, Kakao</v>
+      </c>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14" t="str">
+        <f>VLOOKUP($B47,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -20351,24 +20947,28 @@
         <v>300</v>
       </c>
       <c r="I48" s="14" t="str">
-        <f>VLOOKUP(B48,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B48,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Tee</v>
       </c>
       <c r="J48" s="14" t="str">
-        <f>VLOOKUP($B48,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B48,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K48" s="14" t="str">
-        <f>VLOOKUP($B48,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B48,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Kaffee, Tee, Kakao</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14" t="str">
-        <f>VLOOKUP($B48,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="L48" s="14" t="str">
+        <f>VLOOKUP($B48,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Kaffee, Tee, Kakao</v>
+      </c>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14" t="str">
+        <f>VLOOKUP($B48,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
@@ -20394,27 +20994,31 @@
         <v>288</v>
       </c>
       <c r="I49" s="14" t="str">
-        <f>VLOOKUP(B49,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B49,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Hopfen</v>
       </c>
       <c r="J49" s="14" t="str">
-        <f>VLOOKUP($B49,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B49,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K49" s="14" t="str">
-        <f>VLOOKUP($B49,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B49,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L49" s="14" t="str">
-        <f>VLOOKUP($B49,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B49,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Gewürze</v>
+      </c>
+      <c r="M49" s="14" t="str">
+        <f>VLOOKUP($B49,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M49" s="14" t="str">
-        <f>VLOOKUP($B49,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N49" s="14" t="str">
+        <f>VLOOKUP($B49,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="14" t="s">
         <v>113</v>
       </c>
@@ -20440,27 +21044,31 @@
         <v>288</v>
       </c>
       <c r="I50" s="14" t="str">
-        <f>VLOOKUP(B50,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B50,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Pfeffer</v>
       </c>
       <c r="J50" s="14" t="str">
-        <f>VLOOKUP($B50,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B50,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K50" s="14" t="str">
-        <f>VLOOKUP($B50,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B50,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L50" s="14" t="str">
-        <f>VLOOKUP($B50,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B50,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Gewürze</v>
+      </c>
+      <c r="M50" s="14" t="str">
+        <f>VLOOKUP($B50,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M50" s="14" t="str">
-        <f>VLOOKUP($B50,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N50" s="14" t="str">
+        <f>VLOOKUP($B50,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="14" t="s">
         <v>115</v>
       </c>
@@ -20486,27 +21094,31 @@
         <v>288</v>
       </c>
       <c r="I51" s="14" t="str">
-        <f>VLOOKUP(B51,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B51,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Piment</v>
       </c>
       <c r="J51" s="14" t="str">
-        <f>VLOOKUP($B51,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B51,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K51" s="14" t="str">
-        <f>VLOOKUP($B51,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B51,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L51" s="14" t="str">
-        <f>VLOOKUP($B51,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B51,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Gewürze</v>
+      </c>
+      <c r="M51" s="14" t="str">
+        <f>VLOOKUP($B51,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M51" s="14" t="str">
-        <f>VLOOKUP($B51,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N51" s="14" t="str">
+        <f>VLOOKUP($B51,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="14" t="s">
         <v>117</v>
       </c>
@@ -20532,27 +21144,31 @@
         <v>288</v>
       </c>
       <c r="I52" s="14" t="str">
-        <f>VLOOKUP(B52,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B52,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Nelken</v>
       </c>
       <c r="J52" s="14" t="str">
-        <f>VLOOKUP($B52,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B52,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K52" s="14" t="str">
-        <f>VLOOKUP($B52,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B52,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L52" s="14" t="str">
-        <f>VLOOKUP($B52,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B52,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Gewürze</v>
+      </c>
+      <c r="M52" s="14" t="str">
+        <f>VLOOKUP($B52,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M52" s="14" t="str">
-        <f>VLOOKUP($B52,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N52" s="14" t="str">
+        <f>VLOOKUP($B52,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="14" t="s">
         <v>119</v>
       </c>
@@ -20578,27 +21194,31 @@
         <v>288</v>
       </c>
       <c r="I53" s="14" t="str">
-        <f>VLOOKUP(B53,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B53,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Gewürze, sonstige</v>
       </c>
       <c r="J53" s="14" t="str">
-        <f>VLOOKUP($B53,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B53,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K53" s="14" t="str">
-        <f>VLOOKUP($B53,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B53,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Nüsse, Hülsenfrüchte, Gewürze</v>
       </c>
       <c r="L53" s="14" t="str">
-        <f>VLOOKUP($B53,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B53,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Gewürze</v>
+      </c>
+      <c r="M53" s="14" t="str">
+        <f>VLOOKUP($B53,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M53" s="14" t="str">
-        <f>VLOOKUP($B53,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N53" s="14" t="str">
+        <f>VLOOKUP($B53,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="14" t="s">
         <v>121</v>
       </c>
@@ -20621,21 +21241,25 @@
         <v>123</v>
       </c>
       <c r="I54" s="14" t="str">
-        <f>VLOOKUP(B54,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B54,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Jute</v>
       </c>
       <c r="J54" s="14" t="str">
-        <f>VLOOKUP($B54,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B54,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K54" s="14" t="str">
-        <f>VLOOKUP($B54,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B54,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L54" s="14"/>
+      <c r="L54" s="14" t="str">
+        <f>VLOOKUP($B54,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="14" t="s">
         <v>124</v>
       </c>
@@ -20658,21 +21282,25 @@
         <v>123</v>
       </c>
       <c r="I55" s="14" t="str">
-        <f>VLOOKUP(B55,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B55,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>juteähnliche Fasern</v>
       </c>
       <c r="J55" s="14" t="str">
-        <f>VLOOKUP($B55,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B55,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K55" s="14" t="str">
-        <f>VLOOKUP($B55,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B55,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L55" s="14"/>
+      <c r="L55" s="14" t="str">
+        <f>VLOOKUP($B55,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="14"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="14" t="s">
         <v>126</v>
       </c>
@@ -20695,21 +21323,25 @@
         <v>123</v>
       </c>
       <c r="I56" s="14" t="str">
-        <f>VLOOKUP(B56,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B56,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Weichfasern, sonstige</v>
       </c>
       <c r="J56" s="14" t="str">
-        <f>VLOOKUP($B56,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B56,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K56" s="14" t="str">
-        <f>VLOOKUP($B56,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B56,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L56" s="14"/>
+      <c r="L56" s="14" t="str">
+        <f>VLOOKUP($B56,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="14"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="14" t="s">
         <v>128</v>
       </c>
@@ -20732,21 +21364,25 @@
         <v>123</v>
       </c>
       <c r="I57" s="14" t="str">
-        <f>VLOOKUP(B57,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B57,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sisal</v>
       </c>
       <c r="J57" s="14" t="str">
-        <f>VLOOKUP($B57,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B57,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K57" s="14" t="str">
-        <f>VLOOKUP($B57,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B57,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L57" s="14"/>
+      <c r="L57" s="14" t="str">
+        <f>VLOOKUP($B57,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="14" t="s">
         <v>130</v>
       </c>
@@ -20769,21 +21405,25 @@
         <v>123</v>
       </c>
       <c r="I58" s="14" t="str">
-        <f>VLOOKUP(B58,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B58,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Abaca</v>
       </c>
       <c r="J58" s="14" t="str">
-        <f>VLOOKUP($B58,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B58,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K58" s="14" t="str">
-        <f>VLOOKUP($B58,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B58,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L58" s="14"/>
+      <c r="L58" s="14" t="str">
+        <f>VLOOKUP($B58,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
@@ -20806,21 +21446,25 @@
         <v>123</v>
       </c>
       <c r="I59" s="14" t="str">
-        <f>VLOOKUP(B59,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B59,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Hartfasern, sonstige</v>
       </c>
       <c r="J59" s="14" t="str">
-        <f>VLOOKUP($B59,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B59,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K59" s="14" t="str">
-        <f>VLOOKUP($B59,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B59,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L59" s="14"/>
+      <c r="L59" s="14" t="str">
+        <f>VLOOKUP($B59,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M59" s="14"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
@@ -20843,21 +21487,25 @@
         <v>136</v>
       </c>
       <c r="I60" s="14" t="str">
-        <f>VLOOKUP(B60,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B60,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Tabak</v>
       </c>
       <c r="J60" s="14" t="str">
-        <f>VLOOKUP($B60,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B60,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K60" s="14" t="str">
-        <f>VLOOKUP($B60,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B60,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Tabak, Kautschuk</v>
       </c>
-      <c r="L60" s="14"/>
+      <c r="L60" s="14" t="str">
+        <f>VLOOKUP($B60,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Tabak, Kautschuk</v>
+      </c>
       <c r="M60" s="14"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="14" t="s">
         <v>137</v>
       </c>
@@ -20880,21 +21528,25 @@
         <v>136</v>
       </c>
       <c r="I61" s="14" t="str">
-        <f>VLOOKUP(B61,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B61,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kautschuk</v>
       </c>
       <c r="J61" s="14" t="str">
-        <f>VLOOKUP($B61,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B61,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K61" s="14" t="str">
-        <f>VLOOKUP($B61,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B61,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Tabak, Kautschuk</v>
       </c>
-      <c r="L61" s="14"/>
+      <c r="L61" s="14" t="str">
+        <f>VLOOKUP($B61,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Tabak, Kautschuk</v>
+      </c>
       <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="14"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="14" t="s">
         <v>139</v>
       </c>
@@ -20917,21 +21569,25 @@
         <v>140</v>
       </c>
       <c r="I62" s="14" t="str">
-        <f>VLOOKUP(B62,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B62,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Futterpflanzen</v>
       </c>
       <c r="J62" s="14" t="str">
-        <f>VLOOKUP($B62,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B62,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K62" s="14" t="str">
-        <f>VLOOKUP($B62,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B62,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Futterpflanzen</v>
       </c>
-      <c r="L62" s="14"/>
+      <c r="L62" s="14" t="str">
+        <f>VLOOKUP($B62,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Futterpflanzen</v>
+      </c>
       <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="14"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="14" t="s">
         <v>142</v>
       </c>
@@ -20954,21 +21610,25 @@
         <v>143</v>
       </c>
       <c r="I63" s="14" t="str">
-        <f>VLOOKUP(B63,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B63,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Gras</v>
       </c>
       <c r="J63" s="14" t="str">
-        <f>VLOOKUP($B63,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B63,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Primäre Kulturen</v>
       </c>
       <c r="K63" s="14" t="str">
-        <f>VLOOKUP($B63,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B63,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Weiden</v>
       </c>
-      <c r="L63" s="14"/>
+      <c r="L63" s="14" t="str">
+        <f>VLOOKUP($B63,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Weiden</v>
+      </c>
       <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="14"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="14" t="s">
         <v>145</v>
       </c>
@@ -20991,21 +21651,25 @@
         <v>123</v>
       </c>
       <c r="I64" s="14" t="str">
-        <f>VLOOKUP(B64,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B64,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Baumwollsaat</v>
       </c>
       <c r="J64" s="14" t="str">
-        <f>VLOOKUP($B64,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B64,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K64" s="14" t="str">
-        <f>VLOOKUP($B64,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B64,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L64" s="14"/>
+      <c r="L64" s="14" t="str">
+        <f>VLOOKUP($B64,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="14" t="s">
         <v>148</v>
       </c>
@@ -21031,27 +21695,31 @@
         <v>299</v>
       </c>
       <c r="I65" s="14" t="str">
-        <f>VLOOKUP(B65,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B65,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Palmkerne</v>
       </c>
       <c r="J65" s="14" t="str">
-        <f>VLOOKUP($B65,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B65,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K65" s="14" t="str">
-        <f>VLOOKUP($B65,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B65,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
       <c r="L65" s="14" t="str">
-        <f>VLOOKUP($B65,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B65,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Nüsse und Samen</v>
+      </c>
+      <c r="M65" s="14" t="str">
+        <f>VLOOKUP($B65,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Gemüse</v>
       </c>
-      <c r="M65" s="14" t="str">
-        <f>VLOOKUP($B65,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N65" s="14" t="str">
+        <f>VLOOKUP($B65,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="14" t="s">
         <v>150</v>
       </c>
@@ -21077,27 +21745,31 @@
         <v>298</v>
       </c>
       <c r="I66" s="14" t="str">
-        <f>VLOOKUP(B66,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B66,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Zucker, nicht zentrifugal</v>
       </c>
       <c r="J66" s="14" t="str">
-        <f>VLOOKUP($B66,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B66,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K66" s="14" t="str">
-        <f>VLOOKUP($B66,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B66,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Zucker und Süßungsmittel</v>
       </c>
       <c r="L66" s="14" t="str">
-        <f>VLOOKUP($B66,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B66,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Zucker und Süßungsmittel</v>
+      </c>
+      <c r="M66" s="14" t="str">
+        <f>VLOOKUP($B66,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M66" s="14" t="str">
-        <f>VLOOKUP($B66,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N66" s="14" t="str">
+        <f>VLOOKUP($B66,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="42" t="s">
         <v>154</v>
       </c>
@@ -21131,14 +21803,17 @@
       <c r="K67" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="L67" s="42" t="s">
+      <c r="L67" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="M67" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="M67" s="42" t="s">
+      <c r="N67" s="42" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="42" t="s">
         <v>156</v>
       </c>
@@ -21172,14 +21847,17 @@
       <c r="K68" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="L68" s="42" t="s">
+      <c r="L68" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="M68" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="M68" s="42" t="s">
+      <c r="N68" s="42" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="14" t="s">
         <v>158</v>
       </c>
@@ -21205,27 +21883,31 @@
         <v>298</v>
       </c>
       <c r="I69" s="14" t="str">
-        <f>VLOOKUP(B69,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B69,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Süßungsmittel, sonstige</v>
       </c>
       <c r="J69" s="14" t="str">
-        <f>VLOOKUP($B69,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B69,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K69" s="14" t="str">
-        <f>VLOOKUP($B69,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B69,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Zucker und Süßungsmittel</v>
       </c>
       <c r="L69" s="14" t="str">
-        <f>VLOOKUP($B69,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B69,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Zucker und Süßungsmittel</v>
+      </c>
+      <c r="M69" s="14" t="str">
+        <f>VLOOKUP($B69,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M69" s="14" t="str">
-        <f>VLOOKUP($B69,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N69" s="14" t="str">
+        <f>VLOOKUP($B69,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="14" t="s">
         <v>161</v>
       </c>
@@ -21251,27 +21933,31 @@
         <v>381</v>
       </c>
       <c r="I70" s="14" t="str">
-        <f>VLOOKUP(B70,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B70,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sojaöl</v>
       </c>
       <c r="J70" s="14" t="str">
-        <f>VLOOKUP($B70,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B70,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K70" s="14" t="str">
-        <f>VLOOKUP($B70,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B70,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L70" s="14" t="str">
-        <f>VLOOKUP($B70,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B70,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M70" s="14" t="str">
+        <f>VLOOKUP($B70,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M70" s="14" t="str">
-        <f>VLOOKUP($B70,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N70" s="14" t="str">
+        <f>VLOOKUP($B70,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="14" t="s">
         <v>163</v>
       </c>
@@ -21297,27 +21983,31 @@
         <v>381</v>
       </c>
       <c r="I71" s="14" t="str">
-        <f>VLOOKUP(B71,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B71,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Erdnussöl</v>
       </c>
       <c r="J71" s="14" t="str">
-        <f>VLOOKUP($B71,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B71,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K71" s="14" t="str">
-        <f>VLOOKUP($B71,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B71,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L71" s="14" t="str">
-        <f>VLOOKUP($B71,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B71,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M71" s="14" t="str">
+        <f>VLOOKUP($B71,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M71" s="14" t="str">
-        <f>VLOOKUP($B71,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N71" s="14" t="str">
+        <f>VLOOKUP($B71,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="14" t="s">
         <v>165</v>
       </c>
@@ -21343,27 +22033,31 @@
         <v>381</v>
       </c>
       <c r="I72" s="14" t="str">
-        <f>VLOOKUP(B72,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B72,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sonnenblumenkernöl</v>
       </c>
       <c r="J72" s="14" t="str">
-        <f>VLOOKUP($B72,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B72,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K72" s="14" t="str">
-        <f>VLOOKUP($B72,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B72,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L72" s="14" t="str">
-        <f>VLOOKUP($B72,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B72,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M72" s="14" t="str">
+        <f>VLOOKUP($B72,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M72" s="14" t="str">
-        <f>VLOOKUP($B72,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N72" s="14" t="str">
+        <f>VLOOKUP($B72,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" s="14" t="s">
         <v>167</v>
       </c>
@@ -21389,27 +22083,31 @@
         <v>381</v>
       </c>
       <c r="I73" s="14" t="str">
-        <f>VLOOKUP(B73,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B73,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Raps- und Senföl</v>
       </c>
       <c r="J73" s="14" t="str">
-        <f>VLOOKUP($B73,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B73,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K73" s="14" t="str">
-        <f>VLOOKUP($B73,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B73,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L73" s="14" t="str">
-        <f>VLOOKUP($B73,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B73,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M73" s="14" t="str">
+        <f>VLOOKUP($B73,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M73" s="14" t="str">
-        <f>VLOOKUP($B73,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N73" s="14" t="str">
+        <f>VLOOKUP($B73,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="14" t="s">
         <v>169</v>
       </c>
@@ -21435,27 +22133,31 @@
         <v>381</v>
       </c>
       <c r="I74" s="14" t="str">
-        <f>VLOOKUP(B74,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B74,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Baumwollsamenöl</v>
       </c>
       <c r="J74" s="14" t="str">
-        <f>VLOOKUP($B74,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B74,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K74" s="14" t="str">
-        <f>VLOOKUP($B74,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B74,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L74" s="14" t="str">
-        <f>VLOOKUP($B74,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B74,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M74" s="14" t="str">
+        <f>VLOOKUP($B74,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M74" s="14" t="str">
-        <f>VLOOKUP($B74,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N74" s="14" t="str">
+        <f>VLOOKUP($B74,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="14" t="s">
         <v>171</v>
       </c>
@@ -21481,27 +22183,31 @@
         <v>381</v>
       </c>
       <c r="I75" s="14" t="str">
-        <f>VLOOKUP(B75,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B75,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Palmkernöl</v>
       </c>
       <c r="J75" s="14" t="str">
-        <f>VLOOKUP($B75,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B75,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K75" s="14" t="str">
-        <f>VLOOKUP($B75,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B75,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L75" s="14" t="str">
-        <f>VLOOKUP($B75,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B75,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M75" s="14" t="str">
+        <f>VLOOKUP($B75,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M75" s="14" t="str">
-        <f>VLOOKUP($B75,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N75" s="14" t="str">
+        <f>VLOOKUP($B75,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" s="14" t="s">
         <v>173</v>
       </c>
@@ -21527,27 +22233,31 @@
         <v>381</v>
       </c>
       <c r="I76" s="14" t="str">
-        <f>VLOOKUP(B76,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B76,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Palmöl</v>
       </c>
       <c r="J76" s="14" t="str">
-        <f>VLOOKUP($B76,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B76,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K76" s="14" t="str">
-        <f>VLOOKUP($B76,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B76,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L76" s="14" t="str">
-        <f>VLOOKUP($B76,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B76,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M76" s="14" t="str">
+        <f>VLOOKUP($B76,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M76" s="14" t="str">
-        <f>VLOOKUP($B76,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N76" s="14" t="str">
+        <f>VLOOKUP($B76,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="14" t="s">
         <v>175</v>
       </c>
@@ -21573,27 +22283,31 @@
         <v>381</v>
       </c>
       <c r="I77" s="14" t="str">
-        <f>VLOOKUP(B77,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B77,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kokosnussöl</v>
       </c>
       <c r="J77" s="14" t="str">
-        <f>VLOOKUP($B77,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B77,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K77" s="14" t="str">
-        <f>VLOOKUP($B77,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B77,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L77" s="14" t="str">
-        <f>VLOOKUP($B77,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B77,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M77" s="14" t="str">
+        <f>VLOOKUP($B77,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M77" s="14" t="str">
-        <f>VLOOKUP($B77,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N77" s="14" t="str">
+        <f>VLOOKUP($B77,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78" s="14" t="s">
         <v>177</v>
       </c>
@@ -21619,27 +22333,31 @@
         <v>381</v>
       </c>
       <c r="I78" s="14" t="str">
-        <f>VLOOKUP(B78,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B78,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sesamöl</v>
       </c>
       <c r="J78" s="14" t="str">
-        <f>VLOOKUP($B78,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B78,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K78" s="14" t="str">
-        <f>VLOOKUP($B78,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B78,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L78" s="14" t="str">
-        <f>VLOOKUP($B78,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B78,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M78" s="14" t="str">
+        <f>VLOOKUP($B78,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M78" s="14" t="str">
-        <f>VLOOKUP($B78,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N78" s="14" t="str">
+        <f>VLOOKUP($B78,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79" s="14" t="s">
         <v>179</v>
       </c>
@@ -21665,27 +22383,31 @@
         <v>381</v>
       </c>
       <c r="I79" s="14" t="str">
-        <f>VLOOKUP(B79,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B79,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Olivenöl</v>
       </c>
       <c r="J79" s="14" t="str">
-        <f>VLOOKUP($B79,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B79,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K79" s="14" t="str">
-        <f>VLOOKUP($B79,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B79,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L79" s="14" t="str">
-        <f>VLOOKUP($B79,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B79,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M79" s="14" t="str">
+        <f>VLOOKUP($B79,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M79" s="14" t="str">
-        <f>VLOOKUP($B79,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N79" s="14" t="str">
+        <f>VLOOKUP($B79,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="14" t="s">
         <v>181</v>
       </c>
@@ -21711,27 +22433,31 @@
         <v>381</v>
       </c>
       <c r="I80" s="14" t="str">
-        <f>VLOOKUP(B80,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B80,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Reiskleieöl</v>
       </c>
       <c r="J80" s="14" t="str">
-        <f>VLOOKUP($B80,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B80,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K80" s="14" t="str">
-        <f>VLOOKUP($B80,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B80,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L80" s="14" t="str">
-        <f>VLOOKUP($B80,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B80,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M80" s="14" t="str">
+        <f>VLOOKUP($B80,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M80" s="14" t="str">
-        <f>VLOOKUP($B80,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N80" s="14" t="str">
+        <f>VLOOKUP($B80,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14">
       <c r="A81" s="14" t="s">
         <v>183</v>
       </c>
@@ -21757,27 +22483,31 @@
         <v>381</v>
       </c>
       <c r="I81" s="14" t="str">
-        <f>VLOOKUP(B81,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B81,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Maiskeimöl</v>
       </c>
       <c r="J81" s="14" t="str">
-        <f>VLOOKUP($B81,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B81,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K81" s="14" t="str">
-        <f>VLOOKUP($B81,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B81,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L81" s="14" t="str">
-        <f>VLOOKUP($B81,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B81,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M81" s="14" t="str">
+        <f>VLOOKUP($B81,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M81" s="14" t="str">
-        <f>VLOOKUP($B81,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N81" s="14" t="str">
+        <f>VLOOKUP($B81,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:14">
       <c r="A82" s="14" t="s">
         <v>185</v>
       </c>
@@ -21803,27 +22533,31 @@
         <v>381</v>
       </c>
       <c r="I82" s="14" t="str">
-        <f>VLOOKUP(B82,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B82,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Pflanzenöle, sonstige</v>
       </c>
       <c r="J82" s="14" t="str">
-        <f>VLOOKUP($B82,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B82,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K82" s="14" t="str">
-        <f>VLOOKUP($B82,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B82,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
       <c r="L82" s="14" t="str">
-        <f>VLOOKUP($B82,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B82,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Pflanzenöle</v>
+      </c>
+      <c r="M82" s="14" t="str">
+        <f>VLOOKUP($B82,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Pflanzliche Öle</v>
       </c>
-      <c r="M82" s="14" t="str">
-        <f>VLOOKUP($B82,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N82" s="14" t="str">
+        <f>VLOOKUP($B82,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:14">
       <c r="A83" s="14" t="s">
         <v>188</v>
       </c>
@@ -21846,21 +22580,25 @@
         <v>187</v>
       </c>
       <c r="I83" s="14" t="str">
-        <f>VLOOKUP(B83,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B83,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Sojaextraktionsschrot</v>
       </c>
       <c r="J83" s="14" t="str">
-        <f>VLOOKUP($B83,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B83,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K83" s="14" t="str">
-        <f>VLOOKUP($B83,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B83,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="str">
+        <f>VLOOKUP($B83,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="14"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="14" t="s">
         <v>190</v>
       </c>
@@ -21883,21 +22621,25 @@
         <v>187</v>
       </c>
       <c r="I84" s="14" t="str">
-        <f>VLOOKUP(B84,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B84,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Erdnuss</v>
       </c>
       <c r="J84" s="14" t="str">
-        <f>VLOOKUP($B84,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B84,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K84" s="14" t="str">
-        <f>VLOOKUP($B84,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B84,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="str">
+        <f>VLOOKUP($B84,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="14"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="14" t="s">
         <v>192</v>
       </c>
@@ -21920,21 +22662,25 @@
         <v>187</v>
       </c>
       <c r="I85" s="14" t="str">
-        <f>VLOOKUP(B85,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B85,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Sonnenblumenkern</v>
       </c>
       <c r="J85" s="14" t="str">
-        <f>VLOOKUP($B85,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B85,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K85" s="14" t="str">
-        <f>VLOOKUP($B85,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B85,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="str">
+        <f>VLOOKUP($B85,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="14"/>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="14" t="s">
         <v>194</v>
       </c>
@@ -21957,21 +22703,25 @@
         <v>187</v>
       </c>
       <c r="I86" s="14" t="str">
-        <f>VLOOKUP(B86,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B86,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Raps und Senf</v>
       </c>
       <c r="J86" s="14" t="str">
-        <f>VLOOKUP($B86,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B86,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K86" s="14" t="str">
-        <f>VLOOKUP($B86,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B86,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="str">
+        <f>VLOOKUP($B86,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="14"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="14" t="s">
         <v>196</v>
       </c>
@@ -21994,21 +22744,25 @@
         <v>187</v>
       </c>
       <c r="I87" s="14" t="str">
-        <f>VLOOKUP(B87,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B87,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Baumwollsamen</v>
       </c>
       <c r="J87" s="14" t="str">
-        <f>VLOOKUP($B87,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B87,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K87" s="14" t="str">
-        <f>VLOOKUP($B87,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B87,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="str">
+        <f>VLOOKUP($B87,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M87" s="14"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="14"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="14" t="s">
         <v>198</v>
       </c>
@@ -22031,21 +22785,25 @@
         <v>187</v>
       </c>
       <c r="I88" s="14" t="str">
-        <f>VLOOKUP(B88,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B88,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Palmkern</v>
       </c>
       <c r="J88" s="14" t="str">
-        <f>VLOOKUP($B88,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B88,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K88" s="14" t="str">
-        <f>VLOOKUP($B88,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B88,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L88" s="14"/>
+      <c r="L88" s="14" t="str">
+        <f>VLOOKUP($B88,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="14"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="14" t="s">
         <v>200</v>
       </c>
@@ -22068,21 +22826,25 @@
         <v>187</v>
       </c>
       <c r="I89" s="14" t="str">
-        <f>VLOOKUP(B89,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B89,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Kopra</v>
       </c>
       <c r="J89" s="14" t="str">
-        <f>VLOOKUP($B89,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B89,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K89" s="14" t="str">
-        <f>VLOOKUP($B89,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B89,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L89" s="14"/>
+      <c r="L89" s="14" t="str">
+        <f>VLOOKUP($B89,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M89" s="14"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="14"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="14" t="s">
         <v>202</v>
       </c>
@@ -22105,21 +22867,25 @@
         <v>187</v>
       </c>
       <c r="I90" s="14" t="str">
-        <f>VLOOKUP(B90,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B90,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, Sesamsamen</v>
       </c>
       <c r="J90" s="14" t="str">
-        <f>VLOOKUP($B90,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B90,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K90" s="14" t="str">
-        <f>VLOOKUP($B90,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B90,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L90" s="14"/>
+      <c r="L90" s="14" t="str">
+        <f>VLOOKUP($B90,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M90" s="14"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="14"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="14" t="s">
         <v>204</v>
       </c>
@@ -22142,21 +22908,25 @@
         <v>187</v>
       </c>
       <c r="I91" s="14" t="str">
-        <f>VLOOKUP(B91,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B91,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Presskuchen, sonstige Ölsaaten</v>
       </c>
       <c r="J91" s="14" t="str">
-        <f>VLOOKUP($B91,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B91,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K91" s="14" t="str">
-        <f>VLOOKUP($B91,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B91,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölkuchen</v>
       </c>
-      <c r="L91" s="14"/>
+      <c r="L91" s="14" t="str">
+        <f>VLOOKUP($B91,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ölkuchen</v>
+      </c>
       <c r="M91" s="14"/>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="14"/>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="14" t="s">
         <v>207</v>
       </c>
@@ -22182,27 +22952,31 @@
         <v>300</v>
       </c>
       <c r="I92" s="14" t="str">
-        <f>VLOOKUP(B92,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B92,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Wein</v>
       </c>
       <c r="J92" s="14" t="str">
-        <f>VLOOKUP($B92,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B92,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K92" s="14" t="str">
-        <f>VLOOKUP($B92,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B92,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Alkohol</v>
       </c>
       <c r="L92" s="14" t="str">
-        <f>VLOOKUP($B92,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B92,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Alkohol</v>
+      </c>
+      <c r="M92" s="14" t="str">
+        <f>VLOOKUP($B92,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M92" s="14" t="str">
-        <f>VLOOKUP($B92,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N92" s="14" t="str">
+        <f>VLOOKUP($B92,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:14">
       <c r="A93" s="14" t="s">
         <v>209</v>
       </c>
@@ -22228,27 +23002,31 @@
         <v>300</v>
       </c>
       <c r="I93" s="14" t="str">
-        <f>VLOOKUP(B93,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B93,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Bier</v>
       </c>
       <c r="J93" s="14" t="str">
-        <f>VLOOKUP($B93,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B93,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K93" s="14" t="str">
-        <f>VLOOKUP($B93,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B93,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Alkohol</v>
       </c>
       <c r="L93" s="14" t="str">
-        <f>VLOOKUP($B93,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B93,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Alkohol</v>
+      </c>
+      <c r="M93" s="14" t="str">
+        <f>VLOOKUP($B93,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M93" s="14" t="str">
-        <f>VLOOKUP($B93,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N93" s="14" t="str">
+        <f>VLOOKUP($B93,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="14" t="s">
         <v>211</v>
       </c>
@@ -22274,27 +23052,31 @@
         <v>300</v>
       </c>
       <c r="I94" s="14" t="str">
-        <f>VLOOKUP(B94,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B94,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Getränke, vergorene</v>
       </c>
       <c r="J94" s="14" t="str">
-        <f>VLOOKUP($B94,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B94,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K94" s="14" t="str">
-        <f>VLOOKUP($B94,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B94,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Alkohol</v>
       </c>
       <c r="L94" s="14" t="str">
-        <f>VLOOKUP($B94,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B94,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Alkohol</v>
+      </c>
+      <c r="M94" s="14" t="str">
+        <f>VLOOKUP($B94,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M94" s="14" t="str">
-        <f>VLOOKUP($B94,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N94" s="14" t="str">
+        <f>VLOOKUP($B94,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:14">
       <c r="A95" s="14" t="s">
         <v>213</v>
       </c>
@@ -22320,27 +23102,31 @@
         <v>300</v>
       </c>
       <c r="I95" s="14" t="str">
-        <f>VLOOKUP(B95,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B95,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Getränke, alkoholische</v>
       </c>
       <c r="J95" s="14" t="str">
-        <f>VLOOKUP($B95,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B95,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K95" s="14" t="str">
-        <f>VLOOKUP($B95,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B95,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Alkohol</v>
       </c>
       <c r="L95" s="14" t="str">
-        <f>VLOOKUP($B95,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B95,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Alkohol</v>
+      </c>
+      <c r="M95" s="14" t="str">
+        <f>VLOOKUP($B95,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M95" s="14" t="str">
-        <f>VLOOKUP($B95,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N95" s="14" t="str">
+        <f>VLOOKUP($B95,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14">
       <c r="A96" s="14" t="s">
         <v>216</v>
       </c>
@@ -22363,21 +23149,25 @@
         <v>214</v>
       </c>
       <c r="I96" s="14" t="str">
-        <f>VLOOKUP(B96,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B96,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Alkohol, Non-Food</v>
       </c>
       <c r="J96" s="14" t="str">
-        <f>VLOOKUP($B96,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B96,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K96" s="14" t="str">
-        <f>VLOOKUP($B96,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B96,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ethanol</v>
       </c>
-      <c r="L96" s="14"/>
+      <c r="L96" s="14" t="str">
+        <f>VLOOKUP($B96,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Ethanol</v>
+      </c>
       <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="14"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="14" t="s">
         <v>218</v>
       </c>
@@ -22400,21 +23190,25 @@
         <v>123</v>
       </c>
       <c r="I97" s="14" t="str">
-        <f>VLOOKUP(B97,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B97,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Baumwollflaum</v>
       </c>
       <c r="J97" s="14" t="str">
-        <f>VLOOKUP($B97,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B97,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Pflanzliche Erzeugnisse</v>
       </c>
       <c r="K97" s="14" t="str">
-        <f>VLOOKUP($B97,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B97,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Faserpflanzen</v>
       </c>
-      <c r="L97" s="14"/>
+      <c r="L97" s="14" t="str">
+        <f>VLOOKUP($B97,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Faserpflanzen</v>
+      </c>
       <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="14"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="14" t="s">
         <v>223</v>
       </c>
@@ -22437,21 +23231,25 @@
         <v>222</v>
       </c>
       <c r="I98" s="14" t="str">
-        <f>VLOOKUP(B98,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B98,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Rinder</v>
       </c>
       <c r="J98" s="14" t="str">
-        <f>VLOOKUP($B98,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B98,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K98" s="14" t="str">
-        <f>VLOOKUP($B98,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B98,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L98" s="14"/>
+      <c r="L98" s="14" t="str">
+        <f>VLOOKUP($B98,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M98" s="14"/>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="14"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="14" t="s">
         <v>225</v>
       </c>
@@ -22474,21 +23272,25 @@
         <v>222</v>
       </c>
       <c r="I99" s="14" t="str">
-        <f>VLOOKUP(B99,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B99,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Büffel</v>
       </c>
       <c r="J99" s="14" t="str">
-        <f>VLOOKUP($B99,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B99,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K99" s="14" t="str">
-        <f>VLOOKUP($B99,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B99,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L99" s="14"/>
+      <c r="L99" s="14" t="str">
+        <f>VLOOKUP($B99,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="14"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="14" t="s">
         <v>227</v>
       </c>
@@ -22511,21 +23313,25 @@
         <v>222</v>
       </c>
       <c r="I100" s="14" t="str">
-        <f>VLOOKUP(B100,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B100,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Schafe</v>
       </c>
       <c r="J100" s="14" t="str">
-        <f>VLOOKUP($B100,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B100,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K100" s="14" t="str">
-        <f>VLOOKUP($B100,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B100,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L100" s="14"/>
+      <c r="L100" s="14" t="str">
+        <f>VLOOKUP($B100,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="14" t="s">
         <v>229</v>
       </c>
@@ -22548,21 +23354,25 @@
         <v>222</v>
       </c>
       <c r="I101" s="14" t="str">
-        <f>VLOOKUP(B101,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B101,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Ziegen</v>
       </c>
       <c r="J101" s="14" t="str">
-        <f>VLOOKUP($B101,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B101,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K101" s="14" t="str">
-        <f>VLOOKUP($B101,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B101,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L101" s="14"/>
+      <c r="L101" s="14" t="str">
+        <f>VLOOKUP($B101,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M101" s="14"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="14"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="14" t="s">
         <v>231</v>
       </c>
@@ -22585,21 +23395,25 @@
         <v>222</v>
       </c>
       <c r="I102" s="14" t="str">
-        <f>VLOOKUP(B102,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B102,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Schweine</v>
       </c>
       <c r="J102" s="14" t="str">
-        <f>VLOOKUP($B102,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B102,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K102" s="14" t="str">
-        <f>VLOOKUP($B102,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B102,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L102" s="14"/>
+      <c r="L102" s="14" t="str">
+        <f>VLOOKUP($B102,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M102" s="14"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="14"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="14" t="s">
         <v>233</v>
       </c>
@@ -22622,21 +23436,25 @@
         <v>222</v>
       </c>
       <c r="I103" s="14" t="str">
-        <f>VLOOKUP(B103,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B103,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Geflügel</v>
       </c>
       <c r="J103" s="14" t="str">
-        <f>VLOOKUP($B103,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B103,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K103" s="14" t="str">
-        <f>VLOOKUP($B103,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B103,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L103" s="14"/>
+      <c r="L103" s="14" t="str">
+        <f>VLOOKUP($B103,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M103" s="14"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="14"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="14" t="s">
         <v>235</v>
       </c>
@@ -22659,21 +23477,25 @@
         <v>222</v>
       </c>
       <c r="I104" s="14" t="str">
-        <f>VLOOKUP(B104,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B104,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Pferde</v>
       </c>
       <c r="J104" s="14" t="str">
-        <f>VLOOKUP($B104,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B104,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K104" s="14" t="str">
-        <f>VLOOKUP($B104,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B104,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L104" s="14"/>
+      <c r="L104" s="14" t="str">
+        <f>VLOOKUP($B104,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M104" s="14"/>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="14"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="14" t="s">
         <v>237</v>
       </c>
@@ -22696,21 +23518,25 @@
         <v>222</v>
       </c>
       <c r="I105" s="14" t="str">
-        <f>VLOOKUP(B105,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B105,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Esel</v>
       </c>
       <c r="J105" s="14" t="str">
-        <f>VLOOKUP($B105,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B105,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K105" s="14" t="str">
-        <f>VLOOKUP($B105,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B105,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L105" s="14"/>
+      <c r="L105" s="14" t="str">
+        <f>VLOOKUP($B105,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M105" s="14"/>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="14"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="14" t="s">
         <v>239</v>
       </c>
@@ -22733,21 +23559,25 @@
         <v>222</v>
       </c>
       <c r="I106" s="14" t="str">
-        <f>VLOOKUP(B106,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B106,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Maultiere</v>
       </c>
       <c r="J106" s="14" t="str">
-        <f>VLOOKUP($B106,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B106,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K106" s="14" t="str">
-        <f>VLOOKUP($B106,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B106,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L106" s="14"/>
+      <c r="L106" s="14" t="str">
+        <f>VLOOKUP($B106,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M106" s="14"/>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="14"/>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="14" t="s">
         <v>241</v>
       </c>
@@ -22770,21 +23600,25 @@
         <v>222</v>
       </c>
       <c r="I107" s="14" t="str">
-        <f>VLOOKUP(B107,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B107,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kamele</v>
       </c>
       <c r="J107" s="14" t="str">
-        <f>VLOOKUP($B107,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B107,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K107" s="14" t="str">
-        <f>VLOOKUP($B107,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B107,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L107" s="14"/>
+      <c r="L107" s="14" t="str">
+        <f>VLOOKUP($B107,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M107" s="14"/>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="14"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="14" t="s">
         <v>243</v>
       </c>
@@ -22807,21 +23641,25 @@
         <v>222</v>
       </c>
       <c r="I108" s="14" t="str">
-        <f>VLOOKUP(B108,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B108,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kameliden, sonstige</v>
       </c>
       <c r="J108" s="14" t="str">
-        <f>VLOOKUP($B108,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B108,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K108" s="14" t="str">
-        <f>VLOOKUP($B108,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B108,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L108" s="14"/>
+      <c r="L108" s="14" t="str">
+        <f>VLOOKUP($B108,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M108" s="14"/>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="14"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="14" t="s">
         <v>245</v>
       </c>
@@ -22844,21 +23682,25 @@
         <v>222</v>
       </c>
       <c r="I109" s="14" t="str">
-        <f>VLOOKUP(B109,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B109,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Kaninchen und Hasen</v>
       </c>
       <c r="J109" s="14" t="str">
-        <f>VLOOKUP($B109,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B109,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K109" s="14" t="str">
-        <f>VLOOKUP($B109,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B109,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L109" s="14"/>
+      <c r="L109" s="14" t="str">
+        <f>VLOOKUP($B109,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M109" s="14"/>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="14"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="14" t="s">
         <v>247</v>
       </c>
@@ -22881,21 +23723,25 @@
         <v>222</v>
       </c>
       <c r="I110" s="14" t="str">
-        <f>VLOOKUP(B110,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B110,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Nagetiere, sonstige</v>
       </c>
       <c r="J110" s="14" t="str">
-        <f>VLOOKUP($B110,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B110,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Viehbestand</v>
       </c>
       <c r="K110" s="14" t="str">
-        <f>VLOOKUP($B110,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B110,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Lebende Tiere</v>
       </c>
-      <c r="L110" s="14"/>
+      <c r="L110" s="14" t="str">
+        <f>VLOOKUP($B110,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Lebende Tiere</v>
+      </c>
       <c r="M110" s="14"/>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="14"/>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="14" t="s">
         <v>252</v>
       </c>
@@ -22921,27 +23767,31 @@
         <v>302</v>
       </c>
       <c r="I111" s="14" t="str">
-        <f>VLOOKUP(B111,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B111,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Milchprodukte, ohne Butter</v>
       </c>
       <c r="J111" s="14" t="str">
-        <f>VLOOKUP($B111,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B111,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K111" s="14" t="str">
-        <f>VLOOKUP($B111,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B111,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Milchprodukte</v>
       </c>
       <c r="L111" s="14" t="str">
-        <f>VLOOKUP($B111,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B111,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Milchprodukte</v>
+      </c>
+      <c r="M111" s="14" t="str">
+        <f>VLOOKUP($B111,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Milch &amp; Produkte</v>
       </c>
-      <c r="M111" s="14" t="str">
-        <f>VLOOKUP($B111,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N111" s="14" t="str">
+        <f>VLOOKUP($B111,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Milchprodukte</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:14">
       <c r="A112" s="14" t="s">
         <v>254</v>
       </c>
@@ -22967,27 +23817,31 @@
         <v>302</v>
       </c>
       <c r="I112" s="14" t="str">
-        <f>VLOOKUP(B112,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B112,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Butter, Ghee</v>
       </c>
       <c r="J112" s="14" t="str">
-        <f>VLOOKUP($B112,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B112,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K112" s="14" t="str">
-        <f>VLOOKUP($B112,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B112,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Milchprodukte</v>
       </c>
       <c r="L112" s="14" t="str">
-        <f>VLOOKUP($B112,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B112,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Milchprodukte</v>
+      </c>
+      <c r="M112" s="14" t="str">
+        <f>VLOOKUP($B112,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Milch &amp; Produkte</v>
       </c>
-      <c r="M112" s="14" t="str">
-        <f>VLOOKUP($B112,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N112" s="14" t="str">
+        <f>VLOOKUP($B112,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Milchprodukte</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:14">
       <c r="A113" s="14" t="s">
         <v>256</v>
       </c>
@@ -23013,27 +23867,31 @@
         <v>303</v>
       </c>
       <c r="I113" s="14" t="str">
-        <f>VLOOKUP(B113,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B113,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Eier</v>
       </c>
       <c r="J113" s="14" t="str">
-        <f>VLOOKUP($B113,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B113,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K113" s="14" t="str">
-        <f>VLOOKUP($B113,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B113,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Eier</v>
       </c>
       <c r="L113" s="14" t="str">
-        <f>VLOOKUP($B113,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B113,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Eier</v>
       </c>
       <c r="M113" s="14" t="str">
-        <f>VLOOKUP($B113,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B113,items_german!$B$2:$M$124,11,FALSE)</f>
+        <v>Eier</v>
+      </c>
+      <c r="N113" s="14" t="str">
+        <f>VLOOKUP($B113,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Eier, Geflügel &amp; Fisch</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:14">
       <c r="A114" s="14" t="s">
         <v>259</v>
       </c>
@@ -23056,21 +23914,25 @@
         <v>258</v>
       </c>
       <c r="I114" s="14" t="str">
-        <f>VLOOKUP(B114,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B114,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Wolle</v>
       </c>
       <c r="J114" s="14" t="str">
-        <f>VLOOKUP($B114,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B114,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K114" s="14" t="str">
-        <f>VLOOKUP($B114,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B114,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Häute, Felle, Wolle</v>
       </c>
-      <c r="L114" s="14"/>
+      <c r="L114" s="14" t="str">
+        <f>VLOOKUP($B114,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Häute, Felle, Wolle</v>
+      </c>
       <c r="M114" s="14"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="14"/>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="14" t="s">
         <v>262</v>
       </c>
@@ -23096,27 +23958,31 @@
         <v>261</v>
       </c>
       <c r="I115" s="14" t="str">
-        <f>VLOOKUP(B115,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B115,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Rindfleisch</v>
       </c>
       <c r="J115" s="14" t="str">
-        <f>VLOOKUP($B115,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B115,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K115" s="14" t="str">
-        <f>VLOOKUP($B115,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B115,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L115" s="14" t="str">
-        <f>VLOOKUP($B115,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B115,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M115" s="14" t="str">
-        <f>VLOOKUP($B115,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B115,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="14" t="str">
+        <f>VLOOKUP($B115,items_german!$B$2:$M$124,12,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="14" t="s">
         <v>264</v>
       </c>
@@ -23142,27 +24008,31 @@
         <v>261</v>
       </c>
       <c r="I116" s="14" t="str">
-        <f>VLOOKUP(B116,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B116,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Hammel- und Ziegenfleisch</v>
       </c>
       <c r="J116" s="14" t="str">
-        <f>VLOOKUP($B116,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B116,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K116" s="14" t="str">
-        <f>VLOOKUP($B116,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B116,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L116" s="14" t="str">
-        <f>VLOOKUP($B116,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B116,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M116" s="14" t="str">
-        <f>VLOOKUP($B116,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B116,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="14" t="str">
+        <f>VLOOKUP($B116,items_german!$B$2:$M$124,12,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="14" t="s">
         <v>266</v>
       </c>
@@ -23188,27 +24058,31 @@
         <v>261</v>
       </c>
       <c r="I117" s="14" t="str">
-        <f>VLOOKUP(B117,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B117,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Schweinefleisch</v>
       </c>
       <c r="J117" s="14" t="str">
-        <f>VLOOKUP($B117,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B117,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K117" s="14" t="str">
-        <f>VLOOKUP($B117,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B117,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L117" s="14" t="str">
-        <f>VLOOKUP($B117,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B117,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M117" s="14" t="str">
-        <f>VLOOKUP($B117,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B117,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="14" t="str">
+        <f>VLOOKUP($B117,items_german!$B$2:$M$124,12,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="14" t="s">
         <v>268</v>
       </c>
@@ -23234,27 +24108,31 @@
         <v>303</v>
       </c>
       <c r="I118" s="14" t="str">
-        <f>VLOOKUP(B118,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B118,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Geflügelfleisch</v>
       </c>
       <c r="J118" s="14" t="str">
-        <f>VLOOKUP($B118,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B118,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K118" s="14" t="str">
-        <f>VLOOKUP($B118,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B118,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L118" s="14" t="str">
-        <f>VLOOKUP($B118,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B118,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M118" s="14" t="str">
-        <f>VLOOKUP($B118,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B118,items_german!$B$2:$M$124,11,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+      <c r="N118" s="14" t="str">
+        <f>VLOOKUP($B118,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Eier, Geflügel &amp; Fisch</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="A119" s="14" t="s">
         <v>270</v>
       </c>
@@ -23280,27 +24158,31 @@
         <v>261</v>
       </c>
       <c r="I119" s="14" t="str">
-        <f>VLOOKUP(B119,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B119,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Fleisch, sonstiges</v>
       </c>
       <c r="J119" s="14" t="str">
-        <f>VLOOKUP($B119,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B119,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K119" s="14" t="str">
-        <f>VLOOKUP($B119,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B119,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L119" s="14" t="str">
-        <f>VLOOKUP($B119,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B119,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M119" s="14" t="str">
-        <f>VLOOKUP($B119,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B119,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="14" t="str">
+        <f>VLOOKUP($B119,items_german!$B$2:$M$124,12,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="14" t="s">
         <v>272</v>
       </c>
@@ -23326,27 +24208,31 @@
         <v>261</v>
       </c>
       <c r="I120" s="14" t="str">
-        <f>VLOOKUP(B120,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B120,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Innereien</v>
       </c>
       <c r="J120" s="14" t="str">
-        <f>VLOOKUP($B120,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B120,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K120" s="14" t="str">
-        <f>VLOOKUP($B120,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B120,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L120" s="14" t="str">
-        <f>VLOOKUP($B120,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B120,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M120" s="14" t="str">
-        <f>VLOOKUP($B120,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B120,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="14" t="str">
+        <f>VLOOKUP($B120,items_german!$B$2:$M$124,12,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="14" t="s">
         <v>275</v>
       </c>
@@ -23372,27 +24258,31 @@
         <v>315</v>
       </c>
       <c r="I121" s="14" t="str">
-        <f>VLOOKUP(B121,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B121,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Tierische Fette</v>
       </c>
       <c r="J121" s="14" t="str">
-        <f>VLOOKUP($B121,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B121,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K121" s="14" t="str">
-        <f>VLOOKUP($B121,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B121,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="L121" s="14" t="str">
-        <f>VLOOKUP($B121,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B121,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Fleisch</v>
       </c>
       <c r="M121" s="14" t="str">
-        <f>VLOOKUP($B121,items_german!$B$2:$L$124,11,FALSE)</f>
+        <f>VLOOKUP($B121,items_german!$B$2:$M$124,11,FALSE)</f>
+        <v>Fleisch</v>
+      </c>
+      <c r="N121" s="14" t="str">
+        <f>VLOOKUP($B121,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Tierische Fette</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" s="14" t="s">
         <v>277</v>
       </c>
@@ -23415,21 +24305,25 @@
         <v>258</v>
       </c>
       <c r="I122" s="14" t="str">
-        <f>VLOOKUP(B122,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B122,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Häute und Felle</v>
       </c>
       <c r="J122" s="14" t="str">
-        <f>VLOOKUP($B122,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B122,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K122" s="14" t="str">
-        <f>VLOOKUP($B122,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B122,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Häute, Felle, Wolle</v>
       </c>
-      <c r="L122" s="14"/>
+      <c r="L122" s="14" t="str">
+        <f>VLOOKUP($B122,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Häute, Felle, Wolle</v>
+      </c>
       <c r="M122" s="14"/>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="42" t="s">
         <v>279</v>
       </c>
@@ -23469,8 +24363,11 @@
       <c r="M123" s="42" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="14" t="s">
         <v>281</v>
       </c>
@@ -23496,27 +24393,31 @@
         <v>298</v>
       </c>
       <c r="I124" s="14" t="str">
-        <f>VLOOKUP(B124,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B124,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Honig</v>
       </c>
       <c r="J124" s="14" t="str">
-        <f>VLOOKUP($B124,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B124,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K124" s="14" t="str">
-        <f>VLOOKUP($B124,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B124,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Zucker und Süßungsmittel</v>
       </c>
       <c r="L124" s="14" t="str">
-        <f>VLOOKUP($B124,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B124,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Zucker und Süßungsmittel</v>
+      </c>
+      <c r="M124" s="14" t="str">
+        <f>VLOOKUP($B124,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Zucker &amp; Alkohol</v>
       </c>
-      <c r="M124" s="14" t="str">
-        <f>VLOOKUP($B124,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N124" s="14" t="str">
+        <f>VLOOKUP($B124,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:14">
       <c r="A125" s="14" t="s">
         <v>390</v>
       </c>
@@ -23539,21 +24440,25 @@
         <v>258</v>
       </c>
       <c r="I125" s="14" t="str">
-        <f>VLOOKUP(B125,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B125,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Seide</v>
       </c>
       <c r="J125" s="14" t="str">
-        <f>VLOOKUP($B125,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B125,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Tierische Erzeugnisse</v>
       </c>
       <c r="K125" s="14" t="str">
-        <f>VLOOKUP($B125,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B125,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Häute, Felle, Wolle</v>
       </c>
-      <c r="L125" s="14"/>
+      <c r="L125" s="14" t="str">
+        <f>VLOOKUP($B125,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Häute, Felle, Wolle</v>
+      </c>
       <c r="M125" s="14"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="14" t="s">
         <v>391</v>
       </c>
@@ -23579,23 +24484,27 @@
         <v>303</v>
       </c>
       <c r="I126" s="14" t="str">
-        <f>VLOOKUP(B126,items_german!$B$2:$L$124,7,FALSE)</f>
+        <f>VLOOKUP(B126,items_german!$B$2:$M$124,7,FALSE)</f>
         <v>Fisch und Meeresfrüchte</v>
       </c>
       <c r="J126" s="14" t="str">
-        <f>VLOOKUP($B126,items_german!$B$2:$L$124,8,FALSE)</f>
+        <f>VLOOKUP($B126,items_german!$B$2:$M$124,8,FALSE)</f>
         <v>Fisch</v>
       </c>
       <c r="K126" s="14" t="str">
-        <f>VLOOKUP($B126,items_german!$B$2:$L$124,9,FALSE)</f>
+        <f>VLOOKUP($B126,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Fisch und Meeresfrüchte</v>
       </c>
       <c r="L126" s="14" t="str">
-        <f>VLOOKUP($B126,items_german!$B$2:$L$124,10,FALSE)</f>
+        <f>VLOOKUP($B126,items_german!$B$2:$M$124,10,FALSE)</f>
+        <v>Fisch und Meeresfrüchte</v>
+      </c>
+      <c r="M126" s="14" t="str">
+        <f>VLOOKUP($B126,items_german!$B$2:$M$124,11,FALSE)</f>
         <v>Fisch</v>
       </c>
-      <c r="M126" s="14" t="str">
-        <f>VLOOKUP($B126,items_german!$B$2:$L$124,11,FALSE)</f>
+      <c r="N126" s="14" t="str">
+        <f>VLOOKUP($B126,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Eier, Geflügel &amp; Fisch</v>
       </c>
     </row>
@@ -23609,7 +24518,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23793,6 +24702,446 @@
       <c r="B22" s="44" t="s">
         <v>560</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19AF574-DCD4-445E-AB71-FF54E65499B5}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75">
+      <c r="A23" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="A24" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9B87A-064D-4FAD-94DA-F827BFB2E549}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24479,7 +25828,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:K19"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -25482,7 +26831,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -25668,8 +27017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767F6C5C-EB59-4436-B536-E20742AF84D3}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -27374,7 +28723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF17F7E9-319B-4EE9-87FA-1B8B59FCFD55}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E124" sqref="E124:F124"/>
     </sheetView>
   </sheetViews>
@@ -31913,8 +33262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/items_conc.xlsx
+++ b/inst/items_conc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\str\Desktop\WWF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SHARES\data\Users\strsek\Docs\Documents\WWF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BAB950-B593-45D2-B58E-0991B1E4ADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69" yWindow="-69" windowWidth="22080" windowHeight="11880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="concordance" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="colors" sheetId="19" r:id="rId15"/>
     <sheet name="colors_alt" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6227" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="700">
   <si>
     <t>comm_code</t>
   </si>
@@ -2138,12 +2137,21 @@
   </si>
   <si>
     <t>125-150</t>
+  </si>
+  <si>
+    <t>eat_group_fin_2</t>
+  </si>
+  <si>
+    <t>Soy</t>
+  </si>
+  <si>
+    <t>Tree nuts &amp; seeds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2951,6 +2959,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2963,57 +2977,51 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3324,17 +3332,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomRight" activeCell="O119" sqref="O119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
@@ -3349,13 +3357,13 @@
     <col min="11" max="11" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3396,19 +3404,22 @@
         <v>370</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3451,17 +3462,20 @@
       <c r="N2" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3504,17 +3518,20 @@
       <c r="N3" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="Q3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3557,17 +3574,20 @@
       <c r="N4" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="Q4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3610,17 +3630,20 @@
       <c r="N5" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="Q5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3663,17 +3686,20 @@
       <c r="N6" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3716,17 +3742,20 @@
       <c r="N7" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P7" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3769,17 +3798,20 @@
       <c r="N8" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="Q8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="R8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3822,17 +3854,20 @@
       <c r="N9" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="Q9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3875,17 +3910,20 @@
       <c r="N10" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="Q10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3928,17 +3966,20 @@
       <c r="N11" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="Q11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3981,17 +4022,20 @@
       <c r="N12" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="Q12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4034,17 +4078,20 @@
       <c r="N13" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="Q13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="R13" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -4088,16 +4135,19 @@
         <v>286</v>
       </c>
       <c r="O14" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="Q14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="R14" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4140,17 +4190,20 @@
       <c r="N15" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="P15" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="Q15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="R15" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4192,14 +4245,17 @@
       <c r="O16" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="P16" s="36" t="s">
+      <c r="P16" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R16" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -4241,14 +4297,17 @@
       <c r="O17" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R17" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -4291,17 +4350,20 @@
       <c r="N18" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="P18" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="Q18" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="R18" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -4344,17 +4406,20 @@
       <c r="N19" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="P19" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="Q19" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="R19" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -4397,17 +4462,20 @@
       <c r="N20" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="P20" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P20" s="33" t="s">
+      <c r="Q20" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="R20" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -4450,17 +4518,20 @@
       <c r="N21" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="P21" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="Q21" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="R21" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -4503,17 +4574,20 @@
       <c r="N22" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="P22" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P22" s="33" t="s">
+      <c r="Q22" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="R22" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -4556,17 +4630,20 @@
       <c r="N23" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O23" s="57" t="s">
+      <c r="O23" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="P23" s="57" t="s">
         <v>608</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="Q23" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="R23" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -4609,17 +4686,20 @@
       <c r="N24" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="P24" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="Q24" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="R24" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -4660,17 +4740,20 @@
       <c r="N25" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="P25" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="Q25" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="R25" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4706,12 +4789,13 @@
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="14" t="s">
+      <c r="P26" s="34"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -4754,17 +4838,20 @@
       <c r="N27" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="P27" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="Q27" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="R27" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -4805,17 +4892,20 @@
       <c r="N28" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O28" s="33" t="s">
-        <v>608</v>
+      <c r="O28" s="24" t="s">
+        <v>699</v>
       </c>
       <c r="P28" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="Q28" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="R28" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -4851,12 +4941,13 @@
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="14" t="s">
+      <c r="P29" s="34"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -4897,17 +4988,20 @@
       <c r="N30" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="Q30" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="R30" s="17" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -4950,17 +5044,20 @@
       <c r="N31" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="P31" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P31" s="33" t="s">
+      <c r="Q31" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="R31" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -5003,17 +5100,20 @@
       <c r="N32" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="P32" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="Q32" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="Q32" s="14" t="s">
+      <c r="R32" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -5056,17 +5156,20 @@
       <c r="N33" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="P33" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="Q33" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="R33" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -5109,17 +5212,20 @@
       <c r="N34" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="P34" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="Q34" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="R34" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -5165,14 +5271,17 @@
       <c r="O35" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P35" s="36" t="s">
+      <c r="P35" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R35" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -5218,14 +5327,17 @@
       <c r="O36" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P36" s="36" t="s">
+      <c r="P36" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R36" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -5271,14 +5383,17 @@
       <c r="O37" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P37" s="36" t="s">
+      <c r="P37" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q37" s="14" t="s">
+      <c r="Q37" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R37" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -5324,14 +5439,17 @@
       <c r="O38" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="P38" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q38" s="14" t="s">
+      <c r="Q38" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R38" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5377,14 +5495,17 @@
       <c r="O39" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="P39" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R39" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5430,14 +5551,17 @@
       <c r="O40" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P40" s="36" t="s">
+      <c r="P40" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q40" s="14" t="s">
+      <c r="Q40" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R40" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -5483,14 +5607,17 @@
       <c r="O41" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P41" s="36" t="s">
+      <c r="P41" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q41" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R41" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -5536,14 +5663,17 @@
       <c r="O42" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P42" s="36" t="s">
+      <c r="P42" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q42" s="14" t="s">
+      <c r="Q42" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R42" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -5589,14 +5719,17 @@
       <c r="O43" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P43" s="36" t="s">
+      <c r="P43" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q43" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R43" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -5642,14 +5775,17 @@
       <c r="O44" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="P44" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q44" s="14" t="s">
+      <c r="Q44" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R44" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -5695,14 +5831,17 @@
       <c r="O45" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="P45" s="36" t="s">
+      <c r="P45" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q45" s="14" t="s">
+      <c r="Q45" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R45" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -5739,17 +5878,20 @@
       <c r="N46" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O46" s="57" t="s">
+      <c r="O46" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P46" s="57" t="s">
         <v>668</v>
       </c>
-      <c r="P46" s="57" t="s">
+      <c r="Q46" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="R46" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -5786,17 +5928,20 @@
       <c r="N47" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O47" s="57" t="s">
+      <c r="O47" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P47" s="57" t="s">
         <v>668</v>
       </c>
-      <c r="P47" s="57" t="s">
+      <c r="Q47" s="57" t="s">
         <v>688</v>
       </c>
-      <c r="Q47" s="14" t="s">
+      <c r="R47" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -5833,17 +5978,20 @@
       <c r="N48" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O48" s="57" t="s">
+      <c r="O48" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P48" s="57" t="s">
         <v>668</v>
       </c>
-      <c r="P48" s="57" t="s">
+      <c r="Q48" s="57" t="s">
         <v>659</v>
       </c>
-      <c r="Q48" s="14" t="s">
+      <c r="R48" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -5876,20 +6024,23 @@
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="73" t="s">
+      <c r="N49" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="O49" s="57" t="s">
-        <v>383</v>
+      <c r="O49" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="P49" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="Q49" s="14" t="s">
+      <c r="Q49" s="57" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -5929,20 +6080,23 @@
       <c r="M50" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N50" s="73" t="s">
+      <c r="N50" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="O50" s="57" t="s">
-        <v>383</v>
+      <c r="O50" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="P50" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="Q50" s="14" t="s">
+      <c r="Q50" s="57" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -5982,20 +6136,23 @@
       <c r="M51" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N51" s="73" t="s">
+      <c r="N51" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="O51" s="57" t="s">
-        <v>383</v>
+      <c r="O51" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="P51" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="Q51" s="14" t="s">
+      <c r="Q51" s="57" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -6035,20 +6192,23 @@
       <c r="M52" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="73" t="s">
+      <c r="N52" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="O52" s="57" t="s">
-        <v>383</v>
+      <c r="O52" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="P52" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="Q52" s="14" t="s">
+      <c r="Q52" s="57" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>119</v>
       </c>
@@ -6088,20 +6248,23 @@
       <c r="M53" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N53" s="73" t="s">
+      <c r="N53" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="O53" s="57" t="s">
-        <v>383</v>
+      <c r="O53" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="P53" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="Q53" s="14" t="s">
+      <c r="Q53" s="57" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -6129,12 +6292,13 @@
       <c r="M54" s="1"/>
       <c r="N54" s="24"/>
       <c r="O54" s="24"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="14" t="s">
+      <c r="P54" s="24"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -6162,12 +6326,13 @@
       <c r="M55" s="1"/>
       <c r="N55" s="24"/>
       <c r="O55" s="24"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="14" t="s">
+      <c r="P55" s="24"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -6195,12 +6360,13 @@
       <c r="M56" s="1"/>
       <c r="N56" s="24"/>
       <c r="O56" s="24"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="14" t="s">
+      <c r="P56" s="24"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -6228,12 +6394,13 @@
       <c r="M57" s="1"/>
       <c r="N57" s="24"/>
       <c r="O57" s="24"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="14" t="s">
+      <c r="P57" s="24"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -6261,12 +6428,13 @@
       <c r="M58" s="1"/>
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="14" t="s">
+      <c r="P58" s="24"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -6294,12 +6462,13 @@
       <c r="M59" s="1"/>
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="14" t="s">
+      <c r="P59" s="24"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -6327,12 +6496,13 @@
       <c r="M60" s="1"/>
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="14" t="s">
+      <c r="P60" s="24"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -6360,12 +6530,13 @@
       <c r="M61" s="1"/>
       <c r="N61" s="24"/>
       <c r="O61" s="24"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="14" t="s">
+      <c r="P61" s="24"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -6393,12 +6564,13 @@
       <c r="M62" s="1"/>
       <c r="N62" s="24"/>
       <c r="O62" s="24"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="14" t="s">
+      <c r="P62" s="24"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -6426,12 +6598,13 @@
       <c r="M63" s="1"/>
       <c r="N63" s="24"/>
       <c r="O63" s="24"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="14" t="s">
+      <c r="P63" s="24"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -6460,12 +6633,13 @@
       <c r="M64" s="1"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="14" t="s">
+      <c r="P64" s="24"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -6504,17 +6678,20 @@
       <c r="N65" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="O65" s="17" t="s">
+      <c r="O65" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="P65" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P65" s="33" t="s">
+      <c r="Q65" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q65" s="14" t="s">
+      <c r="R65" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -6560,14 +6737,17 @@
       <c r="O66" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="P66" s="36" t="s">
+      <c r="P66" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="Q66" s="14" t="s">
+      <c r="Q66" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R66" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -6613,14 +6793,17 @@
       <c r="O67" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="P67" s="36" t="s">
+      <c r="P67" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="Q67" s="14" t="s">
+      <c r="Q67" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R67" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -6666,14 +6849,17 @@
       <c r="O68" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="P68" s="36" t="s">
+      <c r="P68" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="Q68" s="14" t="s">
+      <c r="Q68" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R68" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -6716,17 +6902,20 @@
       <c r="N69" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O69" s="17" t="s">
+      <c r="O69" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P69" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P69" s="33" t="s">
+      <c r="Q69" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q69" s="14" t="s">
+      <c r="R69" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -6769,17 +6958,20 @@
       <c r="N70" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O70" s="17" t="s">
+      <c r="O70" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P70" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P70" s="33" t="s">
+      <c r="Q70" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q70" s="14" t="s">
+      <c r="R70" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>163</v>
       </c>
@@ -6822,17 +7014,20 @@
       <c r="N71" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O71" s="17" t="s">
+      <c r="O71" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P71" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P71" s="33" t="s">
+      <c r="Q71" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q71" s="14" t="s">
+      <c r="R71" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -6875,17 +7070,20 @@
       <c r="N72" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O72" s="17" t="s">
+      <c r="O72" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P72" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P72" s="33" t="s">
+      <c r="Q72" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q72" s="14" t="s">
+      <c r="R72" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -6928,17 +7126,20 @@
       <c r="N73" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O73" s="17" t="s">
+      <c r="O73" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P73" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P73" s="33" t="s">
+      <c r="Q73" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q73" s="14" t="s">
+      <c r="R73" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -6981,17 +7182,20 @@
       <c r="N74" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O74" s="17" t="s">
+      <c r="O74" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P74" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P74" s="33" t="s">
+      <c r="Q74" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q74" s="14" t="s">
+      <c r="R74" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -7034,17 +7238,20 @@
       <c r="N75" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O75" s="17" t="s">
+      <c r="O75" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P75" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P75" s="33" t="s">
+      <c r="Q75" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q75" s="14" t="s">
+      <c r="R75" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -7087,17 +7294,20 @@
       <c r="N76" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O76" s="17" t="s">
+      <c r="O76" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P76" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P76" s="33" t="s">
+      <c r="Q76" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q76" s="14" t="s">
+      <c r="R76" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -7140,17 +7350,20 @@
       <c r="N77" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O77" s="17" t="s">
+      <c r="O77" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P77" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P77" s="33" t="s">
+      <c r="Q77" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q77" s="14" t="s">
+      <c r="R77" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -7193,17 +7406,20 @@
       <c r="N78" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O78" s="17" t="s">
+      <c r="O78" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P78" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P78" s="33" t="s">
+      <c r="Q78" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q78" s="14" t="s">
+      <c r="R78" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -7246,17 +7462,20 @@
       <c r="N79" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O79" s="17" t="s">
+      <c r="O79" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P79" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P79" s="33" t="s">
+      <c r="Q79" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q79" s="14" t="s">
+      <c r="R79" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -7299,17 +7518,20 @@
       <c r="N80" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O80" s="17" t="s">
+      <c r="O80" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P80" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P80" s="33" t="s">
+      <c r="Q80" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q80" s="14" t="s">
+      <c r="R80" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -7352,17 +7574,20 @@
       <c r="N81" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O81" s="17" t="s">
+      <c r="O81" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P81" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="P81" s="33" t="s">
+      <c r="Q81" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="Q81" s="14" t="s">
+      <c r="R81" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -7390,12 +7615,13 @@
       <c r="M82" s="1"/>
       <c r="N82" s="24"/>
       <c r="O82" s="24"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="14" t="s">
+      <c r="P82" s="24"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -7423,12 +7649,13 @@
       <c r="M83" s="1"/>
       <c r="N83" s="24"/>
       <c r="O83" s="24"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="14" t="s">
+      <c r="P83" s="24"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -7456,12 +7683,13 @@
       <c r="M84" s="1"/>
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="14" t="s">
+      <c r="P84" s="24"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -7489,12 +7717,13 @@
       <c r="M85" s="1"/>
       <c r="N85" s="24"/>
       <c r="O85" s="24"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="14" t="s">
+      <c r="P85" s="24"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -7522,12 +7751,13 @@
       <c r="M86" s="1"/>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="14" t="s">
+      <c r="P86" s="24"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -7555,12 +7785,13 @@
       <c r="M87" s="1"/>
       <c r="N87" s="24"/>
       <c r="O87" s="24"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="14" t="s">
+      <c r="P87" s="24"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>198</v>
       </c>
@@ -7588,12 +7819,13 @@
       <c r="M88" s="1"/>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="14" t="s">
+      <c r="P88" s="24"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -7621,12 +7853,13 @@
       <c r="M89" s="1"/>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="14" t="s">
+      <c r="P89" s="24"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>202</v>
       </c>
@@ -7654,12 +7887,13 @@
       <c r="M90" s="1"/>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="14" t="s">
+      <c r="P90" s="24"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -7702,17 +7936,20 @@
       <c r="N91" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O91" s="64" t="s">
+      <c r="O91" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P91" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="P91" s="64" t="s">
+      <c r="Q91" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="Q91" s="14" t="s">
+      <c r="R91" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -7755,17 +7992,20 @@
       <c r="N92" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O92" s="64" t="s">
+      <c r="O92" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P92" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="P92" s="64" t="s">
+      <c r="Q92" s="64" t="s">
         <v>672</v>
       </c>
-      <c r="Q92" s="14" t="s">
+      <c r="R92" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -7808,17 +8048,20 @@
       <c r="N93" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O93" s="64" t="s">
+      <c r="O93" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P93" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="P93" s="64" t="s">
+      <c r="Q93" s="64" t="s">
         <v>672</v>
       </c>
-      <c r="Q93" s="14" t="s">
+      <c r="R93" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -7861,17 +8104,20 @@
       <c r="N94" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="O94" s="64" t="s">
+      <c r="O94" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P94" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="P94" s="64" t="s">
+      <c r="Q94" s="64" t="s">
         <v>670</v>
       </c>
-      <c r="Q94" s="14" t="s">
+      <c r="R94" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -7899,12 +8145,13 @@
       <c r="M95" s="1"/>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="14" t="s">
+      <c r="P95" s="24"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>216</v>
       </c>
@@ -7932,12 +8179,13 @@
       <c r="M96" s="1"/>
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="14" t="s">
+      <c r="P96" s="24"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>218</v>
       </c>
@@ -7962,12 +8210,13 @@
       <c r="M97" s="1"/>
       <c r="N97" s="24"/>
       <c r="O97" s="24"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="14" t="s">
+      <c r="P97" s="24"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -7992,12 +8241,13 @@
       <c r="M98" s="1"/>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="14" t="s">
+      <c r="P98" s="24"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>225</v>
       </c>
@@ -8022,12 +8272,13 @@
       <c r="M99" s="1"/>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="14" t="s">
+      <c r="P99" s="24"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -8052,12 +8303,13 @@
       <c r="M100" s="1"/>
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="14" t="s">
+      <c r="P100" s="24"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>229</v>
       </c>
@@ -8082,12 +8334,13 @@
       <c r="M101" s="1"/>
       <c r="N101" s="24"/>
       <c r="O101" s="24"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="14" t="s">
+      <c r="P101" s="24"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -8112,12 +8365,13 @@
       <c r="M102" s="1"/>
       <c r="N102" s="24"/>
       <c r="O102" s="24"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="14" t="s">
+      <c r="P102" s="24"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -8142,12 +8396,13 @@
       <c r="M103" s="1"/>
       <c r="N103" s="24"/>
       <c r="O103" s="24"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="14" t="s">
+      <c r="P103" s="24"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>235</v>
       </c>
@@ -8172,12 +8427,13 @@
       <c r="M104" s="1"/>
       <c r="N104" s="24"/>
       <c r="O104" s="24"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="14" t="s">
+      <c r="P104" s="24"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -8202,12 +8458,13 @@
       <c r="M105" s="1"/>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="14" t="s">
+      <c r="P105" s="24"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -8232,12 +8489,13 @@
       <c r="M106" s="1"/>
       <c r="N106" s="24"/>
       <c r="O106" s="24"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="14" t="s">
+      <c r="P106" s="24"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>241</v>
       </c>
@@ -8262,12 +8520,13 @@
       <c r="M107" s="1"/>
       <c r="N107" s="24"/>
       <c r="O107" s="24"/>
-      <c r="P107" s="36"/>
-      <c r="Q107" s="14" t="s">
+      <c r="P107" s="24"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>243</v>
       </c>
@@ -8292,12 +8551,13 @@
       <c r="M108" s="1"/>
       <c r="N108" s="24"/>
       <c r="O108" s="24"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="14" t="s">
+      <c r="P108" s="24"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>245</v>
       </c>
@@ -8322,12 +8582,13 @@
       <c r="M109" s="1"/>
       <c r="N109" s="24"/>
       <c r="O109" s="24"/>
-      <c r="P109" s="36"/>
-      <c r="Q109" s="14" t="s">
+      <c r="P109" s="24"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>247</v>
       </c>
@@ -8370,17 +8631,20 @@
       <c r="N110" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="O110" s="36" t="s">
-        <v>603</v>
+      <c r="O110" s="24" t="s">
+        <v>302</v>
       </c>
       <c r="P110" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="Q110" s="14" t="s">
+      <c r="Q110" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="R110" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -8423,17 +8687,20 @@
       <c r="N111" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="O111" s="36" t="s">
-        <v>609</v>
+      <c r="O111" s="24" t="s">
+        <v>302</v>
       </c>
       <c r="P111" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="Q111" s="14" t="s">
+      <c r="Q111" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="R111" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>254</v>
       </c>
@@ -8476,17 +8743,20 @@
       <c r="N112" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="O112" s="14" t="s">
+      <c r="O112" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="P112" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="P112" s="33" t="s">
+      <c r="Q112" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="Q112" s="14" t="s">
+      <c r="R112" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -8515,12 +8785,13 @@
       <c r="M113" s="1"/>
       <c r="N113" s="24"/>
       <c r="O113" s="24"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="14" t="s">
+      <c r="P113" s="24"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -8563,17 +8834,20 @@
       <c r="N114" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O114" s="34" t="s">
+      <c r="O114" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="P114" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="P114" s="36" t="s">
+      <c r="Q114" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="Q114" s="14" t="s">
+      <c r="R114" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>262</v>
       </c>
@@ -8616,17 +8890,20 @@
       <c r="N115" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O115" s="34" t="s">
+      <c r="O115" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="P115" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="P115" s="36" t="s">
+      <c r="Q115" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="Q115" s="14" t="s">
+      <c r="R115" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -8669,17 +8946,20 @@
       <c r="N116" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O116" s="34" t="s">
+      <c r="O116" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="P116" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="P116" s="36" t="s">
+      <c r="Q116" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="Q116" s="14" t="s">
+      <c r="R116" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>266</v>
       </c>
@@ -8722,17 +9002,20 @@
       <c r="N117" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="O117" s="34" t="s">
+      <c r="O117" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="P117" s="34" t="s">
         <v>606</v>
       </c>
-      <c r="P117" s="36" t="s">
+      <c r="Q117" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="Q117" s="14" t="s">
+      <c r="R117" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>268</v>
       </c>
@@ -8771,16 +9054,19 @@
         <v>261</v>
       </c>
       <c r="O118" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="P118" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="P118" s="36" t="s">
+      <c r="Q118" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="Q118" s="14" t="s">
+      <c r="R118" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -8819,16 +9105,19 @@
         <v>261</v>
       </c>
       <c r="O119" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="P119" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="P119" s="36" t="s">
+      <c r="Q119" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="Q119" s="14" t="s">
+      <c r="R119" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>272</v>
       </c>
@@ -8871,17 +9160,20 @@
       <c r="N120" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="O120" s="34" t="s">
+      <c r="O120" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="P120" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="P120" s="36" t="s">
+      <c r="Q120" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="Q120" s="14" t="s">
+      <c r="R120" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>275</v>
       </c>
@@ -8910,12 +9202,13 @@
       <c r="M121" s="1"/>
       <c r="N121" s="24"/>
       <c r="O121" s="24"/>
-      <c r="P121" s="36"/>
-      <c r="Q121" s="14" t="s">
+      <c r="P121" s="24"/>
+      <c r="Q121" s="36"/>
+      <c r="R121" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>277</v>
       </c>
@@ -8961,14 +9254,17 @@
       <c r="O122" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="P122" s="36" t="s">
+      <c r="P122" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="Q122" s="14" t="s">
+      <c r="Q122" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R122" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>279</v>
       </c>
@@ -8997,12 +9293,13 @@
       <c r="M123" s="1"/>
       <c r="N123" s="24"/>
       <c r="O123" s="24"/>
-      <c r="P123" s="36"/>
-      <c r="Q123" s="14" t="s">
+      <c r="P123" s="24"/>
+      <c r="Q123" s="36"/>
+      <c r="R123" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>281</v>
       </c>
@@ -9045,13 +9342,16 @@
       <c r="N124" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="O124" s="36" t="s">
-        <v>283</v>
+      <c r="O124" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="P124" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="Q124" s="14" t="s">
+      <c r="Q124" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="R124" s="14" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9062,14 +9362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD37EB09-49C2-4CB6-B43E-99A45A5F8157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
       <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -9126,8 +9426,8 @@
         <v>15</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f>VLOOKUP(B3,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B3,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
@@ -9144,8 +9444,8 @@
         <v>17</v>
       </c>
       <c r="D4" s="14" t="str">
-        <f>VLOOKUP(B4,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B4,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E4" s="14">
         <v>0</v>
@@ -9162,8 +9462,8 @@
         <v>19</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f>VLOOKUP(B5,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B5,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
@@ -9180,8 +9480,8 @@
         <v>21</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f>VLOOKUP(B6,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B6,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E6" s="14">
         <v>0</v>
@@ -9198,8 +9498,8 @@
         <v>23</v>
       </c>
       <c r="D7" s="14" t="str">
-        <f>VLOOKUP(B7,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B7,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E7" s="14">
         <v>0</v>
@@ -9216,8 +9516,8 @@
         <v>25</v>
       </c>
       <c r="D8" s="14" t="str">
-        <f>VLOOKUP(B8,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B8,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E8" s="14">
         <v>0</v>
@@ -9234,8 +9534,8 @@
         <v>27</v>
       </c>
       <c r="D9" s="14" t="str">
-        <f>VLOOKUP(B9,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B9,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E9" s="14">
         <v>0</v>
@@ -9252,8 +9552,8 @@
         <v>29</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f>VLOOKUP(B10,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B10,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
       </c>
       <c r="E10" s="14">
         <v>0</v>
@@ -9270,8 +9570,8 @@
         <v>31</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f>VLOOKUP(B11,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B11,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
       </c>
       <c r="E11" s="14">
         <v>0</v>
@@ -9288,8 +9588,8 @@
         <v>34</v>
       </c>
       <c r="D12" s="14" t="str">
-        <f>VLOOKUP(B12,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B12,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
       </c>
       <c r="E12" s="14">
         <v>0</v>
@@ -9306,8 +9606,8 @@
         <v>36</v>
       </c>
       <c r="D13" s="14" t="str">
-        <f>VLOOKUP(B13,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B13,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
       </c>
       <c r="E13" s="14">
         <v>0</v>
@@ -9324,8 +9624,8 @@
         <v>38</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f>VLOOKUP(B14,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B14,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
       </c>
       <c r="E14" s="14">
         <v>0</v>
@@ -9342,8 +9642,8 @@
         <v>40</v>
       </c>
       <c r="D15" s="14" t="str">
-        <f>VLOOKUP(B15,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Cereals, roots and tubers</v>
+        <f>VLOOKUP(B15,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
       </c>
       <c r="E15" s="14">
         <v>0</v>
@@ -9360,7 +9660,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="14" t="str">
-        <f>VLOOKUP(B16,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B16,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="E16" s="14">
@@ -9380,7 +9680,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f>VLOOKUP(B17,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B17,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="E17" s="14">
@@ -9400,8 +9700,8 @@
         <v>47</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f>VLOOKUP(B18,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B18,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Legumes</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
@@ -9419,8 +9719,8 @@
         <v>50</v>
       </c>
       <c r="D19" s="14" t="str">
-        <f>VLOOKUP(B19,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B19,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Legumes</v>
       </c>
       <c r="E19" s="14">
         <v>0</v>
@@ -9438,8 +9738,8 @@
         <v>52</v>
       </c>
       <c r="D20" s="14" t="str">
-        <f>VLOOKUP(B20,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B20,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Legumes</v>
       </c>
       <c r="E20" s="14">
         <v>0</v>
@@ -9457,8 +9757,8 @@
         <v>54</v>
       </c>
       <c r="D21" s="14" t="str">
-        <f>VLOOKUP(B21,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B21,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E21" s="14">
         <v>0.5</v>
@@ -9481,8 +9781,8 @@
         <v>56</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f>VLOOKUP(B22,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B22,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Soy</v>
       </c>
       <c r="E22" s="14">
         <v>0</v>
@@ -9518,8 +9818,8 @@
         <v>61</v>
       </c>
       <c r="D24" s="14" t="str">
-        <f>VLOOKUP(B24,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B24,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E24" s="14">
         <v>0</v>
@@ -9536,8 +9836,8 @@
         <v>63</v>
       </c>
       <c r="D25" s="14" t="str">
-        <f>VLOOKUP(B25,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B25,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E25" s="14">
         <v>0</v>
@@ -9569,8 +9869,8 @@
         <v>67</v>
       </c>
       <c r="D27" s="14" t="str">
-        <f>VLOOKUP(B27,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B27,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E27" s="14">
         <v>0</v>
@@ -9587,8 +9887,8 @@
         <v>69</v>
       </c>
       <c r="D28" s="14" t="str">
-        <f>VLOOKUP(B28,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B28,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E28" s="14">
         <v>0</v>
@@ -9620,8 +9920,8 @@
         <v>73</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f>VLOOKUP(B30,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B30,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
       </c>
       <c r="E30" s="14">
         <v>0</v>
@@ -9638,8 +9938,8 @@
         <v>75</v>
       </c>
       <c r="D31" s="14" t="str">
-        <f>VLOOKUP(B31,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B31,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E31" s="14">
         <v>0</v>
@@ -9656,8 +9956,8 @@
         <v>77</v>
       </c>
       <c r="D32" s="14" t="str">
-        <f>VLOOKUP(B32,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B32,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
       </c>
       <c r="E32" s="14">
         <v>0.27</v>
@@ -9680,8 +9980,8 @@
         <v>79</v>
       </c>
       <c r="D33" s="14" t="str">
-        <f>VLOOKUP(B33,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B33,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
       </c>
       <c r="E33" s="14">
         <v>0.27</v>
@@ -9704,8 +10004,8 @@
         <v>81</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f>VLOOKUP(B34,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <f>VLOOKUP(B34,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
       </c>
       <c r="E34" s="14">
         <v>0.27</v>
@@ -9728,7 +10028,7 @@
         <v>83</v>
       </c>
       <c r="D35" s="14" t="str">
-        <f>VLOOKUP(B35,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B35,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E35" s="14">
@@ -9750,7 +10050,7 @@
         <v>85</v>
       </c>
       <c r="D36" s="14" t="str">
-        <f>VLOOKUP(B36,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B36,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E36" s="14">
@@ -9772,7 +10072,7 @@
         <v>87</v>
       </c>
       <c r="D37" s="14" t="str">
-        <f>VLOOKUP(B37,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B37,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E37" s="14">
@@ -9794,7 +10094,7 @@
         <v>89</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f>VLOOKUP(B38,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B38,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E38" s="14">
@@ -9816,7 +10116,7 @@
         <v>91</v>
       </c>
       <c r="D39" s="14" t="str">
-        <f>VLOOKUP(B39,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B39,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E39" s="14">
@@ -9838,7 +10138,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="14" t="str">
-        <f>VLOOKUP(B40,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B40,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E40" s="14">
@@ -9860,7 +10160,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="14" t="str">
-        <f>VLOOKUP(B41,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B41,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E41" s="14">
@@ -9882,7 +10182,7 @@
         <v>97</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f>VLOOKUP(B42,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B42,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E42" s="14">
@@ -9904,7 +10204,7 @@
         <v>99</v>
       </c>
       <c r="D43" s="14" t="str">
-        <f>VLOOKUP(B43,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B43,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E43" s="14">
@@ -9926,7 +10226,7 @@
         <v>101</v>
       </c>
       <c r="D44" s="14" t="str">
-        <f>VLOOKUP(B44,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B44,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E44" s="14">
@@ -9948,7 +10248,7 @@
         <v>103</v>
       </c>
       <c r="D45" s="14" t="str">
-        <f>VLOOKUP(B45,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B45,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="E45" s="14">
@@ -9970,8 +10270,8 @@
         <v>105</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f>VLOOKUP(B46,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Coffee, tea and cocoa</v>
+        <f>VLOOKUP(B46,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E46" s="14">
         <v>0.3</v>
@@ -9991,8 +10291,8 @@
         <v>108</v>
       </c>
       <c r="D47" s="14" t="str">
-        <f>VLOOKUP(B47,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Coffee, tea and cocoa</v>
+        <f>VLOOKUP(B47,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E47" s="14">
         <v>0.2</v>
@@ -10012,8 +10312,8 @@
         <v>110</v>
       </c>
       <c r="D48" s="14" t="str">
-        <f>VLOOKUP(B48,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Coffee, tea and cocoa</v>
+        <f>VLOOKUP(B48,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E48" s="14">
         <v>0</v>
@@ -10030,8 +10330,8 @@
         <v>112</v>
       </c>
       <c r="D49" s="14" t="str">
-        <f>VLOOKUP(B49,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Spices</v>
+        <f>VLOOKUP(B49,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E49" s="14">
         <v>0</v>
@@ -10048,8 +10348,8 @@
         <v>114</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f>VLOOKUP(B50,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Spices</v>
+        <f>VLOOKUP(B50,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E50" s="14">
         <v>0</v>
@@ -10066,8 +10366,8 @@
         <v>116</v>
       </c>
       <c r="D51" s="14" t="str">
-        <f>VLOOKUP(B51,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Spices</v>
+        <f>VLOOKUP(B51,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E51" s="14">
         <v>0</v>
@@ -10084,8 +10384,8 @@
         <v>118</v>
       </c>
       <c r="D52" s="14" t="str">
-        <f>VLOOKUP(B52,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Spices</v>
+        <f>VLOOKUP(B52,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E52" s="14">
         <v>0</v>
@@ -10102,8 +10402,8 @@
         <v>120</v>
       </c>
       <c r="D53" s="14" t="str">
-        <f>VLOOKUP(B53,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Spices</v>
+        <f>VLOOKUP(B53,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E53" s="14">
         <v>0</v>
@@ -10285,8 +10585,8 @@
         <v>149</v>
       </c>
       <c r="D65" s="14" t="str">
-        <f>VLOOKUP(B65,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B65,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
       </c>
       <c r="E65" s="14">
         <v>0</v>
@@ -10303,7 +10603,7 @@
         <v>151</v>
       </c>
       <c r="D66" s="14" t="str">
-        <f>VLOOKUP(B66,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B66,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="E66" s="14">
@@ -10355,7 +10655,7 @@
         <v>157</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f>VLOOKUP(B69,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B69,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="E69" s="14">
@@ -10373,8 +10673,8 @@
         <v>159</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f>VLOOKUP(B70,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B70,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E70" s="14">
         <v>0</v>
@@ -10391,8 +10691,8 @@
         <v>162</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f>VLOOKUP(B71,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B71,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E71" s="14">
         <v>0</v>
@@ -10409,8 +10709,8 @@
         <v>164</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f>VLOOKUP(B72,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B72,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E72" s="14">
         <v>0</v>
@@ -10427,8 +10727,8 @@
         <v>166</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f>VLOOKUP(B73,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B73,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E73" s="14">
         <v>0</v>
@@ -10445,8 +10745,8 @@
         <v>168</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f>VLOOKUP(B74,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B74,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E74" s="14">
         <v>0</v>
@@ -10463,8 +10763,8 @@
         <v>170</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f>VLOOKUP(B75,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B75,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E75" s="14">
         <v>0</v>
@@ -10481,8 +10781,8 @@
         <v>172</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f>VLOOKUP(B76,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B76,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E76" s="14">
         <v>0</v>
@@ -10499,8 +10799,8 @@
         <v>174</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f>VLOOKUP(B77,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B77,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E77" s="14">
         <v>0</v>
@@ -10517,8 +10817,8 @@
         <v>176</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f>VLOOKUP(B78,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B78,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E78" s="14">
         <v>0</v>
@@ -10535,8 +10835,8 @@
         <v>178</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f>VLOOKUP(B79,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B79,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E79" s="14">
         <v>0</v>
@@ -10553,8 +10853,8 @@
         <v>180</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f>VLOOKUP(B80,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B80,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E80" s="14">
         <v>0</v>
@@ -10571,8 +10871,8 @@
         <v>182</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f>VLOOKUP(B81,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B81,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E81" s="14">
         <v>0</v>
@@ -10589,8 +10889,8 @@
         <v>184</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f>VLOOKUP(B82,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Vegetable oils, nuts and seeds</v>
+        <f>VLOOKUP(B82,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="E82" s="14">
         <v>0</v>
@@ -10742,8 +11042,8 @@
         <v>205</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f>VLOOKUP(B92,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Alcohol</v>
+        <f>VLOOKUP(B92,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E92" s="14">
         <v>0</v>
@@ -10760,8 +11060,8 @@
         <v>208</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f>VLOOKUP(B93,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Alcohol</v>
+        <f>VLOOKUP(B93,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E93" s="14">
         <v>0</v>
@@ -10778,8 +11078,8 @@
         <v>210</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f>VLOOKUP(B94,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Alcohol</v>
+        <f>VLOOKUP(B94,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E94" s="14">
         <v>0</v>
@@ -10796,8 +11096,8 @@
         <v>212</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f>VLOOKUP(B95,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Alcohol</v>
+        <f>VLOOKUP(B95,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
       </c>
       <c r="E95" s="14">
         <v>0</v>
@@ -11039,8 +11339,8 @@
         <v>248</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f>VLOOKUP(B111,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Milk and products</v>
+        <f>VLOOKUP(B111,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole milk or derivative equivalents</v>
       </c>
       <c r="E111" s="14">
         <v>0</v>
@@ -11057,8 +11357,8 @@
         <v>253</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f>VLOOKUP(B112,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v xml:space="preserve">Butter, lard or tallow </v>
+        <f>VLOOKUP(B112,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole milk or derivative equivalents</v>
       </c>
       <c r="E112" s="14">
         <v>0</v>
@@ -11075,8 +11375,8 @@
         <v>255</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f>VLOOKUP(B113,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Eggs</v>
+        <f>VLOOKUP(B113,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Eggs, Poultry &amp; Fish</v>
       </c>
       <c r="E113" s="14">
         <v>0</v>
@@ -11228,8 +11528,8 @@
         <v>273</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f>VLOOKUP(B121,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v xml:space="preserve">Butter, lard or tallow </v>
+        <f>VLOOKUP(B121,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Lard or tallow</v>
       </c>
       <c r="E121" s="14">
         <v>0</v>
@@ -11281,7 +11581,7 @@
         <v>278</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f>VLOOKUP(B124,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP(B124,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="E124" s="14">
@@ -11314,8 +11614,8 @@
         <v>282</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f>VLOOKUP(B126,concordance!$B$2:$Q$124,14,FALSE)</f>
-        <v>Fish</v>
+        <f>VLOOKUP(B126,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Eggs, Poultry &amp; Fish</v>
       </c>
       <c r="E126" s="14">
         <v>0.45</v>
@@ -11329,21 +11629,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F126" r:id="rId1" xr:uid="{B5BF0661-11E6-4CFB-9B64-F988E211ED28}"/>
+    <hyperlink ref="F126" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="14"/>
     <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -11351,11 +11651,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
@@ -13886,14 +14186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F075F6A-B0BD-48B2-B1E2-ACAB1CED68C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
@@ -18626,14 +18926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43536D7-477F-4B17-B235-780297313EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="14"/>
     <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -24557,14 +24857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD5919E-D7B4-45D6-80C5-E525C6FBA6B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="8"/>
@@ -24753,14 +25053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19AF574-DCD4-445E-AB71-FF54E65499B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="8"/>
@@ -24974,14 +25274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9B87A-064D-4FAD-94DA-F827BFB2E549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="8"/>
@@ -25193,34 +25493,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>323</v>
       </c>
@@ -25243,13 +25544,16 @@
         <v>371</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>321</v>
+        <v>697</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="20" t="s">
         <v>284</v>
       </c>
@@ -25277,8 +25581,11 @@
       <c r="I3" s="15" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="20" t="s">
         <v>286</v>
       </c>
@@ -25306,8 +25613,11 @@
       <c r="I4" s="15" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="21" t="s">
         <v>288</v>
       </c>
@@ -25335,8 +25645,11 @@
       <c r="I5" s="15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="21" t="s">
         <v>288</v>
       </c>
@@ -25364,8 +25677,11 @@
       <c r="I6" s="15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="21" t="s">
         <v>288</v>
       </c>
@@ -25393,8 +25709,11 @@
       <c r="I7" s="15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
         <v>295</v>
       </c>
@@ -25422,8 +25741,11 @@
       <c r="I8" s="15" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>335</v>
       </c>
@@ -25451,8 +25773,11 @@
       <c r="I9" s="15" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="22" t="s">
         <v>338</v>
       </c>
@@ -25480,8 +25805,11 @@
       <c r="I10" s="15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="22" t="s">
         <v>338</v>
       </c>
@@ -25509,8 +25837,11 @@
       <c r="I11" s="15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="22" t="s">
         <v>338</v>
       </c>
@@ -25538,8 +25869,11 @@
       <c r="I12" s="15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="22" t="s">
         <v>338</v>
       </c>
@@ -25567,8 +25901,11 @@
       <c r="I13" s="15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="22" t="s">
         <v>338</v>
       </c>
@@ -25596,8 +25933,11 @@
       <c r="I14" s="15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="22" t="s">
         <v>345</v>
       </c>
@@ -25625,8 +25965,11 @@
       <c r="I15" s="15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="22" t="s">
         <v>345</v>
       </c>
@@ -25654,8 +25997,11 @@
       <c r="I16" s="15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="22" t="s">
         <v>345</v>
       </c>
@@ -25683,8 +26029,11 @@
       <c r="I17" s="15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="22" t="s">
         <v>345</v>
       </c>
@@ -25712,8 +26061,11 @@
       <c r="I18" s="15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="22" t="s">
         <v>301</v>
       </c>
@@ -25741,8 +26093,11 @@
       <c r="I19" s="15" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="22" t="s">
         <v>301</v>
       </c>
@@ -25770,8 +26125,11 @@
       <c r="I20" s="15" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="22" t="s">
         <v>301</v>
       </c>
@@ -25799,8 +26157,11 @@
       <c r="I21" s="15" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="20" t="s">
         <v>355</v>
       </c>
@@ -25828,8 +26189,11 @@
       <c r="I22" s="15" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="38.25">
+      <c r="J22" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="38.25">
       <c r="A23" s="23" t="s">
         <v>300</v>
       </c>
@@ -25856,6 +26220,9 @@
       </c>
       <c r="I23" s="16" t="s">
         <v>359</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -25867,14 +26234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5FA92B-B5A6-47E3-A568-CAD07E7362C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B17" sqref="A15:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -26853,11 +27220,11 @@
       <c r="G20" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="67">
         <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="67">
         <f>H20*1000</f>
         <v>60</v>
       </c>
@@ -26923,14 +27290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D393925C-EE04-49D3-96F8-D624C850C48D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -27118,14 +27485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767F6C5C-EB59-4436-B536-E20742AF84D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -27214,7 +27581,7 @@
       <c r="E3" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="70">
         <v>1.5</v>
       </c>
       <c r="G3" s="36" t="s">
@@ -27729,10 +28096,10 @@
       <c r="D20" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="67">
         <v>0.06</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="68">
         <v>60</v>
       </c>
       <c r="G20" s="33" t="s">
@@ -28095,14 +28462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
@@ -28877,14 +29244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF17F7E9-319B-4EE9-87FA-1B8B59FCFD55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -31025,32 +31392,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F124" r:id="rId1" xr:uid="{D34B77DB-F250-4AA8-9AF7-681E830413B3}"/>
+    <hyperlink ref="F124" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D64" sqref="D64:F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="14"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
@@ -33428,25 +33795,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="J3" sqref="J3:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="10" width="30.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="9" max="11" width="30.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -33469,19 +33836,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -33507,16 +33877,19 @@
         <v>284</v>
       </c>
       <c r="I2" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>604</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>13</v>
       </c>
       <c r="K2" s="57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -33539,22 +33912,26 @@
         <v>13</v>
       </c>
       <c r="H3" s="14" t="str">
-        <f>VLOOKUP(B3,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B3,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I3" s="14" t="str">
-        <f>VLOOKUP(B3,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B3,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J3" s="14" t="str">
+        <f>VLOOKUP(B3,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J3" s="14" t="str">
-        <f>VLOOKUP(B3,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K3" s="14" t="str">
+        <f>VLOOKUP(B3,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -33577,22 +33954,26 @@
         <v>13</v>
       </c>
       <c r="H4" s="14" t="str">
-        <f>VLOOKUP(B4,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B4,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I4" s="14" t="str">
-        <f>VLOOKUP(B4,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B4,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J4" s="14" t="str">
+        <f>VLOOKUP(B4,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J4" s="14" t="str">
-        <f>VLOOKUP(B4,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K4" s="14" t="str">
+        <f>VLOOKUP(B4,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -33615,22 +33996,26 @@
         <v>13</v>
       </c>
       <c r="H5" s="14" t="str">
-        <f>VLOOKUP(B5,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B5,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I5" s="14" t="str">
-        <f>VLOOKUP(B5,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B5,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J5" s="14" t="str">
+        <f>VLOOKUP(B5,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J5" s="14" t="str">
-        <f>VLOOKUP(B5,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K5" s="14" t="str">
+        <f>VLOOKUP(B5,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -33653,22 +34038,26 @@
         <v>13</v>
       </c>
       <c r="H6" s="14" t="str">
-        <f>VLOOKUP(B6,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B6,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I6" s="14" t="str">
-        <f>VLOOKUP(B6,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B6,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J6" s="14" t="str">
+        <f>VLOOKUP(B6,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J6" s="14" t="str">
-        <f>VLOOKUP(B6,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K6" s="14" t="str">
+        <f>VLOOKUP(B6,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -33691,22 +34080,26 @@
         <v>13</v>
       </c>
       <c r="H7" s="14" t="str">
-        <f>VLOOKUP(B7,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B7,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I7" s="14" t="str">
-        <f>VLOOKUP(B7,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B7,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J7" s="14" t="str">
+        <f>VLOOKUP(B7,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J7" s="14" t="str">
-        <f>VLOOKUP(B7,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K7" s="14" t="str">
+        <f>VLOOKUP(B7,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -33729,22 +34122,26 @@
         <v>13</v>
       </c>
       <c r="H8" s="14" t="str">
-        <f>VLOOKUP(B8,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B8,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I8" s="14" t="str">
-        <f>VLOOKUP(B8,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B8,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J8" s="14" t="str">
+        <f>VLOOKUP(B8,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J8" s="14" t="str">
-        <f>VLOOKUP(B8,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K8" s="14" t="str">
+        <f>VLOOKUP(B8,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -33767,22 +34164,26 @@
         <v>13</v>
       </c>
       <c r="H9" s="14" t="str">
-        <f>VLOOKUP(B9,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B9,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I9" s="14" t="str">
-        <f>VLOOKUP(B9,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B9,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J9" s="14" t="str">
+        <f>VLOOKUP(B9,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J9" s="14" t="str">
-        <f>VLOOKUP(B9,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K9" s="14" t="str">
+        <f>VLOOKUP(B9,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -33805,22 +34206,26 @@
         <v>13</v>
       </c>
       <c r="H10" s="14" t="str">
-        <f>VLOOKUP(B10,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B10,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole grains</v>
       </c>
       <c r="I10" s="14" t="str">
-        <f>VLOOKUP(B10,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B10,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole grains</v>
+      </c>
+      <c r="J10" s="14" t="str">
+        <f>VLOOKUP(B10,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J10" s="14" t="str">
-        <f>VLOOKUP(B10,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K10" s="14" t="str">
+        <f>VLOOKUP(B10,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cereals</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -33843,22 +34248,26 @@
         <v>32</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f>VLOOKUP(B11,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B11,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Tubers or starchy vegetables</v>
       </c>
       <c r="I11" s="14" t="str">
-        <f>VLOOKUP(B11,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B11,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
+      </c>
+      <c r="J11" s="14" t="str">
+        <f>VLOOKUP(B11,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J11" s="14" t="str">
-        <f>VLOOKUP(B11,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K11" s="14" t="str">
+        <f>VLOOKUP(B11,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Roots and tubers</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -33881,22 +34290,26 @@
         <v>32</v>
       </c>
       <c r="H12" s="14" t="str">
-        <f>VLOOKUP(B12,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B12,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Tubers or starchy vegetables</v>
       </c>
       <c r="I12" s="14" t="str">
-        <f>VLOOKUP(B12,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B12,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
+      </c>
+      <c r="J12" s="14" t="str">
+        <f>VLOOKUP(B12,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J12" s="14" t="str">
-        <f>VLOOKUP(B12,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K12" s="14" t="str">
+        <f>VLOOKUP(B12,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Roots and tubers</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -33919,22 +34332,26 @@
         <v>32</v>
       </c>
       <c r="H13" s="14" t="str">
-        <f>VLOOKUP(B13,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B13,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Tubers or starchy vegetables</v>
       </c>
       <c r="I13" s="14" t="str">
-        <f>VLOOKUP(B13,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B13,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
+      </c>
+      <c r="J13" s="14" t="str">
+        <f>VLOOKUP(B13,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J13" s="14" t="str">
-        <f>VLOOKUP(B13,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K13" s="14" t="str">
+        <f>VLOOKUP(B13,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Roots and tubers</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -33957,22 +34374,26 @@
         <v>32</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f>VLOOKUP(B14,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B14,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Tubers or starchy vegetables</v>
       </c>
       <c r="I14" s="14" t="str">
-        <f>VLOOKUP(B14,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B14,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
+      </c>
+      <c r="J14" s="14" t="str">
+        <f>VLOOKUP(B14,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J14" s="14" t="str">
-        <f>VLOOKUP(B14,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K14" s="14" t="str">
+        <f>VLOOKUP(B14,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Roots and tubers</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -33995,22 +34416,26 @@
         <v>32</v>
       </c>
       <c r="H15" s="14" t="str">
-        <f>VLOOKUP(B15,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B15,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Tubers or starchy vegetables</v>
       </c>
       <c r="I15" s="14" t="str">
-        <f>VLOOKUP(B15,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B15,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tubers or starchy vegetables</v>
+      </c>
+      <c r="J15" s="14" t="str">
+        <f>VLOOKUP(B15,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Cereals, roots and tubers</v>
       </c>
-      <c r="J15" s="14" t="str">
-        <f>VLOOKUP(B15,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K15" s="14" t="str">
+        <f>VLOOKUP(B15,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Roots and tubers</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
@@ -34033,22 +34458,26 @@
         <v>43</v>
       </c>
       <c r="H16" s="14" t="str">
-        <f>VLOOKUP(B16,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B16,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="I16" s="14" t="str">
-        <f>VLOOKUP(B16,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B16,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="J16" s="14" t="str">
-        <f>VLOOKUP(B16,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B16,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>All sugars</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="14" t="str">
+        <f>VLOOKUP(B16,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>All sugars</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -34071,22 +34500,26 @@
         <v>43</v>
       </c>
       <c r="H17" s="14" t="str">
-        <f>VLOOKUP(B17,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B17,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="I17" s="14" t="str">
-        <f>VLOOKUP(B17,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B17,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="J17" s="14" t="str">
-        <f>VLOOKUP(B17,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B17,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>All sugars</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="14" t="str">
+        <f>VLOOKUP(B17,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>All sugars</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -34109,22 +34542,26 @@
         <v>48</v>
       </c>
       <c r="H18" s="14" t="str">
-        <f>VLOOKUP(B18,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B18,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I18" s="14" t="str">
-        <f>VLOOKUP(B18,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B18,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+      <c r="J18" s="14" t="str">
+        <f>VLOOKUP(B18,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J18" s="14" t="str">
-        <f>VLOOKUP(B18,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K18" s="14" t="str">
+        <f>VLOOKUP(B18,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Legumes</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -34147,22 +34584,26 @@
         <v>48</v>
       </c>
       <c r="H19" s="14" t="str">
-        <f>VLOOKUP(B19,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B19,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I19" s="14" t="str">
-        <f>VLOOKUP(B19,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B19,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+      <c r="J19" s="14" t="str">
+        <f>VLOOKUP(B19,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J19" s="14" t="str">
-        <f>VLOOKUP(B19,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K19" s="14" t="str">
+        <f>VLOOKUP(B19,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Legumes</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -34185,22 +34626,26 @@
         <v>48</v>
       </c>
       <c r="H20" s="14" t="str">
-        <f>VLOOKUP(B20,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B20,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I20" s="14" t="str">
-        <f>VLOOKUP(B20,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B20,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+      <c r="J20" s="14" t="str">
+        <f>VLOOKUP(B20,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J20" s="14" t="str">
-        <f>VLOOKUP(B20,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K20" s="14" t="str">
+        <f>VLOOKUP(B20,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Legumes</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="L20" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -34223,22 +34668,26 @@
         <v>48</v>
       </c>
       <c r="H21" s="14" t="str">
-        <f>VLOOKUP(B21,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B21,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I21" s="14" t="str">
-        <f>VLOOKUP(B21,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B21,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J21" s="14" t="str">
+        <f>VLOOKUP(B21,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J21" s="14" t="str">
-        <f>VLOOKUP(B21,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K21" s="14" t="str">
+        <f>VLOOKUP(B21,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="L21" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -34261,22 +34710,26 @@
         <v>57</v>
       </c>
       <c r="H22" s="14" t="str">
-        <f>VLOOKUP(B22,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B22,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I22" s="14" t="str">
-        <f>VLOOKUP(B22,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B22,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Soy</v>
+      </c>
+      <c r="J22" s="14" t="str">
+        <f>VLOOKUP(B22,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J22" s="14" t="str">
-        <f>VLOOKUP(B22,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K22" s="14" t="str">
+        <f>VLOOKUP(B22,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Legumes</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="L22" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -34302,16 +34755,19 @@
         <v>299</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>608</v>
+        <v>309</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>608</v>
       </c>
       <c r="K23" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="L23" s="57" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -34334,22 +34790,26 @@
         <v>57</v>
       </c>
       <c r="H24" s="14" t="str">
-        <f>VLOOKUP(B24,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B24,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I24" s="14" t="str">
-        <f>VLOOKUP(B24,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B24,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J24" s="14" t="str">
+        <f>VLOOKUP(B24,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J24" s="14" t="str">
-        <f>VLOOKUP(B24,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K24" s="14" t="str">
+        <f>VLOOKUP(B24,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="L24" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -34372,22 +34832,26 @@
         <v>57</v>
       </c>
       <c r="H25" s="14" t="str">
-        <f>VLOOKUP(B25,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B25,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I25" s="14" t="str">
-        <f>VLOOKUP(B25,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B25,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J25" s="14" t="str">
+        <f>VLOOKUP(B25,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J25" s="14" t="str">
-        <f>VLOOKUP(B25,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K25" s="14" t="str">
+        <f>VLOOKUP(B25,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="L25" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -34410,11 +34874,11 @@
         <v>57</v>
       </c>
       <c r="H26" s="14"/>
-      <c r="K26" s="14" t="s">
+      <c r="L26" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -34437,22 +34901,26 @@
         <v>57</v>
       </c>
       <c r="H27" s="14" t="str">
-        <f>VLOOKUP(B27,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B27,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I27" s="14" t="str">
-        <f>VLOOKUP(B27,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B27,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J27" s="14" t="str">
+        <f>VLOOKUP(B27,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J27" s="14" t="str">
-        <f>VLOOKUP(B27,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K27" s="14" t="str">
+        <f>VLOOKUP(B27,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="L27" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -34475,22 +34943,26 @@
         <v>57</v>
       </c>
       <c r="H28" s="14" t="str">
-        <f>VLOOKUP(B28,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B28,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I28" s="14" t="str">
-        <f>VLOOKUP(B28,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B28,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J28" s="14" t="str">
+        <f>VLOOKUP(B28,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J28" s="14" t="str">
-        <f>VLOOKUP(B28,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K28" s="14" t="str">
+        <f>VLOOKUP(B28,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="L28" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -34513,11 +34985,11 @@
         <v>57</v>
       </c>
       <c r="H29" s="14"/>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -34540,22 +35012,26 @@
         <v>57</v>
       </c>
       <c r="H30" s="14" t="str">
-        <f>VLOOKUP(B30,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B30,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Vegetables</v>
       </c>
       <c r="I30" s="14" t="str">
-        <f>VLOOKUP(B30,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B30,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
+      </c>
+      <c r="J30" s="14" t="str">
+        <f>VLOOKUP(B30,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J30" s="14" t="str">
-        <f>VLOOKUP(B30,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K30" s="14" t="str">
+        <f>VLOOKUP(B30,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetables</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="L30" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -34578,22 +35054,26 @@
         <v>57</v>
       </c>
       <c r="H31" s="14" t="str">
-        <f>VLOOKUP(B31,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B31,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I31" s="14" t="str">
-        <f>VLOOKUP(B31,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B31,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J31" s="14" t="str">
+        <f>VLOOKUP(B31,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J31" s="14" t="str">
-        <f>VLOOKUP(B31,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K31" s="14" t="str">
+        <f>VLOOKUP(B31,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetables</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="L31" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -34616,22 +35096,26 @@
         <v>48</v>
       </c>
       <c r="H32" s="14" t="str">
-        <f>VLOOKUP(B32,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B32,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Vegetables</v>
       </c>
       <c r="I32" s="14" t="str">
-        <f>VLOOKUP(B32,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B32,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
+      </c>
+      <c r="J32" s="14" t="str">
+        <f>VLOOKUP(B32,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J32" s="14" t="str">
-        <f>VLOOKUP(B32,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K32" s="14" t="str">
+        <f>VLOOKUP(B32,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetables</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="L32" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -34654,22 +35138,26 @@
         <v>48</v>
       </c>
       <c r="H33" s="14" t="str">
-        <f>VLOOKUP(B33,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B33,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Vegetables</v>
       </c>
       <c r="I33" s="14" t="str">
-        <f>VLOOKUP(B33,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B33,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
+      </c>
+      <c r="J33" s="14" t="str">
+        <f>VLOOKUP(B33,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J33" s="14" t="str">
-        <f>VLOOKUP(B33,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K33" s="14" t="str">
+        <f>VLOOKUP(B33,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetables</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="L33" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -34692,22 +35180,26 @@
         <v>48</v>
       </c>
       <c r="H34" s="14" t="str">
-        <f>VLOOKUP(B34,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B34,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Vegetables</v>
       </c>
       <c r="I34" s="14" t="str">
-        <f>VLOOKUP(B34,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B34,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Vegetables</v>
+      </c>
+      <c r="J34" s="14" t="str">
+        <f>VLOOKUP(B34,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetables and legumes</v>
       </c>
-      <c r="J34" s="14" t="str">
-        <f>VLOOKUP(B34,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K34" s="14" t="str">
+        <f>VLOOKUP(B34,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetables</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="L34" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -34730,22 +35222,26 @@
         <v>48</v>
       </c>
       <c r="H35" s="14" t="str">
-        <f>VLOOKUP(B35,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B35,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I35" s="14" t="str">
-        <f>VLOOKUP(B35,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B35,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J35" s="14" t="str">
-        <f>VLOOKUP(B35,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B35,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="14" t="str">
+        <f>VLOOKUP(B35,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -34768,22 +35264,26 @@
         <v>48</v>
       </c>
       <c r="H36" s="14" t="str">
-        <f>VLOOKUP(B36,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B36,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I36" s="14" t="str">
-        <f>VLOOKUP(B36,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B36,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J36" s="14" t="str">
-        <f>VLOOKUP(B36,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B36,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="14" t="str">
+        <f>VLOOKUP(B36,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L36" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -34806,22 +35306,26 @@
         <v>48</v>
       </c>
       <c r="H37" s="14" t="str">
-        <f>VLOOKUP(B37,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B37,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I37" s="14" t="str">
-        <f>VLOOKUP(B37,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B37,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J37" s="14" t="str">
-        <f>VLOOKUP(B37,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B37,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="14" t="str">
+        <f>VLOOKUP(B37,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -34844,22 +35348,26 @@
         <v>48</v>
       </c>
       <c r="H38" s="14" t="str">
-        <f>VLOOKUP(B38,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B38,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I38" s="14" t="str">
-        <f>VLOOKUP(B38,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B38,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J38" s="14" t="str">
-        <f>VLOOKUP(B38,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B38,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="14" t="str">
+        <f>VLOOKUP(B38,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -34882,22 +35390,26 @@
         <v>48</v>
       </c>
       <c r="H39" s="14" t="str">
-        <f>VLOOKUP(B39,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B39,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I39" s="14" t="str">
-        <f>VLOOKUP(B39,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B39,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J39" s="14" t="str">
-        <f>VLOOKUP(B39,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B39,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="14" t="str">
+        <f>VLOOKUP(B39,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -34920,22 +35432,26 @@
         <v>48</v>
       </c>
       <c r="H40" s="14" t="str">
-        <f>VLOOKUP(B40,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B40,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I40" s="14" t="str">
-        <f>VLOOKUP(B40,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B40,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J40" s="14" t="str">
-        <f>VLOOKUP(B40,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B40,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="14" t="str">
+        <f>VLOOKUP(B40,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -34958,22 +35474,26 @@
         <v>48</v>
       </c>
       <c r="H41" s="14" t="str">
-        <f>VLOOKUP(B41,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B41,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I41" s="14" t="str">
-        <f>VLOOKUP(B41,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B41,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J41" s="14" t="str">
-        <f>VLOOKUP(B41,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B41,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="14" t="str">
+        <f>VLOOKUP(B41,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -34996,22 +35516,26 @@
         <v>48</v>
       </c>
       <c r="H42" s="14" t="str">
-        <f>VLOOKUP(B42,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B42,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I42" s="14" t="str">
-        <f>VLOOKUP(B42,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B42,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J42" s="14" t="str">
-        <f>VLOOKUP(B42,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B42,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="14" t="str">
+        <f>VLOOKUP(B42,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L42" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -35034,22 +35558,26 @@
         <v>48</v>
       </c>
       <c r="H43" s="14" t="str">
-        <f>VLOOKUP(B43,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B43,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I43" s="14" t="str">
-        <f>VLOOKUP(B43,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B43,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J43" s="14" t="str">
-        <f>VLOOKUP(B43,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B43,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="14" t="str">
+        <f>VLOOKUP(B43,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -35072,22 +35600,26 @@
         <v>48</v>
       </c>
       <c r="H44" s="14" t="str">
-        <f>VLOOKUP(B44,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B44,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I44" s="14" t="str">
-        <f>VLOOKUP(B44,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B44,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J44" s="14" t="str">
-        <f>VLOOKUP(B44,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B44,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="14" t="str">
+        <f>VLOOKUP(B44,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -35110,22 +35642,26 @@
         <v>48</v>
       </c>
       <c r="H45" s="14" t="str">
-        <f>VLOOKUP(B45,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B45,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="I45" s="14" t="str">
-        <f>VLOOKUP(B45,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B45,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>Fruits</v>
       </c>
       <c r="J45" s="14" t="str">
-        <f>VLOOKUP(B45,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B45,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fruits</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="14" t="str">
+        <f>VLOOKUP(B45,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>Fruits</v>
+      </c>
+      <c r="L45" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -35148,22 +35684,26 @@
         <v>106</v>
       </c>
       <c r="H46" s="14" t="str">
-        <f>VLOOKUP(B46,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B46,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I46" s="14" t="str">
-        <f>VLOOKUP(B46,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B46,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J46" s="14" t="str">
+        <f>VLOOKUP(B46,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Coffee, tea and cocoa</v>
       </c>
-      <c r="J46" s="14" t="str">
-        <f>VLOOKUP(B46,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K46" s="14" t="str">
+        <f>VLOOKUP(B46,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Coffee</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="L46" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -35186,22 +35726,26 @@
         <v>106</v>
       </c>
       <c r="H47" s="14" t="str">
-        <f>VLOOKUP(B47,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B47,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I47" s="14" t="str">
-        <f>VLOOKUP(B47,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B47,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J47" s="14" t="str">
+        <f>VLOOKUP(B47,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Coffee, tea and cocoa</v>
       </c>
-      <c r="J47" s="14" t="str">
-        <f>VLOOKUP(B47,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K47" s="14" t="str">
+        <f>VLOOKUP(B47,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Cocoa</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="L47" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -35224,22 +35768,26 @@
         <v>106</v>
       </c>
       <c r="H48" s="14" t="str">
-        <f>VLOOKUP(B48,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B48,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I48" s="14" t="str">
-        <f>VLOOKUP(B48,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B48,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J48" s="14" t="str">
+        <f>VLOOKUP(B48,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Coffee, tea and cocoa</v>
       </c>
-      <c r="J48" s="14" t="str">
-        <f>VLOOKUP(B48,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K48" s="14" t="str">
+        <f>VLOOKUP(B48,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Tea</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="L48" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
@@ -35262,22 +35810,26 @@
         <v>48</v>
       </c>
       <c r="H49" s="14" t="str">
-        <f>VLOOKUP(B49,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B49,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I49" s="14" t="str">
-        <f>VLOOKUP(B49,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B49,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J49" s="14" t="str">
+        <f>VLOOKUP(B49,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="J49" s="14" t="str">
-        <f>VLOOKUP(B49,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K49" s="14" t="str">
+        <f>VLOOKUP(B49,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="L49" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="14" t="s">
         <v>113</v>
       </c>
@@ -35300,22 +35852,26 @@
         <v>48</v>
       </c>
       <c r="H50" s="14" t="str">
-        <f>VLOOKUP(B50,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B50,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I50" s="14" t="str">
-        <f>VLOOKUP(B50,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B50,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J50" s="14" t="str">
+        <f>VLOOKUP(B50,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="J50" s="14" t="str">
-        <f>VLOOKUP(B50,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K50" s="14" t="str">
+        <f>VLOOKUP(B50,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="L50" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="14" t="s">
         <v>115</v>
       </c>
@@ -35338,22 +35894,26 @@
         <v>48</v>
       </c>
       <c r="H51" s="14" t="str">
-        <f>VLOOKUP(B51,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B51,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I51" s="14" t="str">
-        <f>VLOOKUP(B51,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B51,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J51" s="14" t="str">
+        <f>VLOOKUP(B51,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="J51" s="14" t="str">
-        <f>VLOOKUP(B51,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K51" s="14" t="str">
+        <f>VLOOKUP(B51,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="L51" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52" s="14" t="s">
         <v>117</v>
       </c>
@@ -35376,22 +35936,26 @@
         <v>48</v>
       </c>
       <c r="H52" s="14" t="str">
-        <f>VLOOKUP(B52,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B52,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I52" s="14" t="str">
-        <f>VLOOKUP(B52,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B52,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J52" s="14" t="str">
+        <f>VLOOKUP(B52,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="J52" s="14" t="str">
-        <f>VLOOKUP(B52,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K52" s="14" t="str">
+        <f>VLOOKUP(B52,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="L52" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="A53" s="14" t="s">
         <v>119</v>
       </c>
@@ -35414,22 +35978,26 @@
         <v>48</v>
       </c>
       <c r="H53" s="14" t="str">
-        <f>VLOOKUP(B53,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B53,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I53" s="14" t="str">
-        <f>VLOOKUP(B53,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B53,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J53" s="14" t="str">
+        <f>VLOOKUP(B53,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="J53" s="14" t="str">
-        <f>VLOOKUP(B53,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K53" s="14" t="str">
+        <f>VLOOKUP(B53,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Spices</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="L53" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54" s="14" t="s">
         <v>121</v>
       </c>
@@ -35452,11 +36020,11 @@
         <v>123</v>
       </c>
       <c r="H54" s="14"/>
-      <c r="K54" s="14" t="s">
+      <c r="L54" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" s="14" t="s">
         <v>124</v>
       </c>
@@ -35479,11 +36047,11 @@
         <v>123</v>
       </c>
       <c r="H55" s="14"/>
-      <c r="K55" s="14" t="s">
+      <c r="L55" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" s="14" t="s">
         <v>126</v>
       </c>
@@ -35506,11 +36074,11 @@
         <v>123</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="K56" s="14" t="s">
+      <c r="L56" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57" s="14" t="s">
         <v>128</v>
       </c>
@@ -35533,11 +36101,11 @@
         <v>123</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="K57" s="14" t="s">
+      <c r="L57" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="A58" s="14" t="s">
         <v>130</v>
       </c>
@@ -35560,11 +36128,11 @@
         <v>123</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="K58" s="14" t="s">
+      <c r="L58" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
@@ -35587,11 +36155,11 @@
         <v>123</v>
       </c>
       <c r="H59" s="14"/>
-      <c r="K59" s="14" t="s">
+      <c r="L59" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
@@ -35614,11 +36182,11 @@
         <v>136</v>
       </c>
       <c r="H60" s="14"/>
-      <c r="K60" s="14" t="s">
+      <c r="L60" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="A61" s="14" t="s">
         <v>137</v>
       </c>
@@ -35641,11 +36209,11 @@
         <v>136</v>
       </c>
       <c r="H61" s="14"/>
-      <c r="K61" s="14" t="s">
+      <c r="L61" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="A62" s="14" t="s">
         <v>139</v>
       </c>
@@ -35668,11 +36236,11 @@
         <v>140</v>
       </c>
       <c r="H62" s="14"/>
-      <c r="K62" s="14" t="s">
+      <c r="L62" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12">
       <c r="A63" s="14" t="s">
         <v>142</v>
       </c>
@@ -35695,11 +36263,11 @@
         <v>143</v>
       </c>
       <c r="H63" s="14"/>
-      <c r="K63" s="14" t="s">
+      <c r="L63" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="A64" s="14" t="s">
         <v>145</v>
       </c>
@@ -35722,11 +36290,11 @@
         <v>123</v>
       </c>
       <c r="H64" s="14"/>
-      <c r="K64" s="14" t="s">
+      <c r="L64" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="14" t="s">
         <v>148</v>
       </c>
@@ -35749,22 +36317,26 @@
         <v>57</v>
       </c>
       <c r="H65" s="14" t="str">
-        <f>VLOOKUP(B65,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B65,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Nuts &amp; Legumes</v>
       </c>
       <c r="I65" s="14" t="str">
-        <f>VLOOKUP(B65,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B65,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Tree nuts &amp; seeds</v>
+      </c>
+      <c r="J65" s="14" t="str">
+        <f>VLOOKUP(B65,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J65" s="14" t="str">
-        <f>VLOOKUP(B65,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K65" s="14" t="str">
+        <f>VLOOKUP(B65,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="L65" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66" s="14" t="s">
         <v>150</v>
       </c>
@@ -35787,22 +36359,26 @@
         <v>153</v>
       </c>
       <c r="H66" s="14" t="str">
-        <f>VLOOKUP(B66,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B66,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="I66" s="14" t="str">
-        <f>VLOOKUP(B66,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B66,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="J66" s="14" t="str">
-        <f>VLOOKUP(B66,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B66,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>All sugars</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="14" t="str">
+        <f>VLOOKUP(B66,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>All sugars</v>
+      </c>
+      <c r="L66" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67" s="14" t="s">
         <v>154</v>
       </c>
@@ -35834,10 +36410,13 @@
         <v>298</v>
       </c>
       <c r="K67" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="L67" s="57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68" s="14" t="s">
         <v>156</v>
       </c>
@@ -35869,10 +36448,13 @@
         <v>298</v>
       </c>
       <c r="K68" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="L68" s="57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69" s="14" t="s">
         <v>158</v>
       </c>
@@ -35895,22 +36477,26 @@
         <v>153</v>
       </c>
       <c r="H69" s="14" t="str">
-        <f>VLOOKUP(B69,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B69,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="I69" s="14" t="str">
-        <f>VLOOKUP(B69,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B69,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="J69" s="14" t="str">
-        <f>VLOOKUP(B69,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B69,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>All sugars</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="14" t="str">
+        <f>VLOOKUP(B69,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>All sugars</v>
+      </c>
+      <c r="L69" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70" s="14" t="s">
         <v>161</v>
       </c>
@@ -35933,22 +36519,26 @@
         <v>160</v>
       </c>
       <c r="H70" s="14" t="str">
-        <f>VLOOKUP(B70,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B70,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I70" s="14" t="str">
-        <f>VLOOKUP(B70,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B70,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J70" s="14" t="str">
+        <f>VLOOKUP(B70,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J70" s="14" t="str">
-        <f>VLOOKUP(B70,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K70" s="14" t="str">
+        <f>VLOOKUP(B70,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="L70" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71" s="14" t="s">
         <v>163</v>
       </c>
@@ -35971,22 +36561,26 @@
         <v>160</v>
       </c>
       <c r="H71" s="14" t="str">
-        <f>VLOOKUP(B71,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B71,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I71" s="14" t="str">
-        <f>VLOOKUP(B71,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B71,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J71" s="14" t="str">
+        <f>VLOOKUP(B71,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J71" s="14" t="str">
-        <f>VLOOKUP(B71,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K71" s="14" t="str">
+        <f>VLOOKUP(B71,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="L71" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="14" t="s">
         <v>165</v>
       </c>
@@ -36009,22 +36603,26 @@
         <v>160</v>
       </c>
       <c r="H72" s="14" t="str">
-        <f>VLOOKUP(B72,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B72,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I72" s="14" t="str">
-        <f>VLOOKUP(B72,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B72,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J72" s="14" t="str">
+        <f>VLOOKUP(B72,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J72" s="14" t="str">
-        <f>VLOOKUP(B72,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K72" s="14" t="str">
+        <f>VLOOKUP(B72,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="L72" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73" s="14" t="s">
         <v>167</v>
       </c>
@@ -36047,22 +36645,26 @@
         <v>160</v>
       </c>
       <c r="H73" s="14" t="str">
-        <f>VLOOKUP(B73,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B73,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I73" s="14" t="str">
-        <f>VLOOKUP(B73,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B73,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J73" s="14" t="str">
+        <f>VLOOKUP(B73,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J73" s="14" t="str">
-        <f>VLOOKUP(B73,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K73" s="14" t="str">
+        <f>VLOOKUP(B73,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="L73" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" s="14" t="s">
         <v>169</v>
       </c>
@@ -36085,22 +36687,26 @@
         <v>160</v>
       </c>
       <c r="H74" s="14" t="str">
-        <f>VLOOKUP(B74,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B74,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I74" s="14" t="str">
-        <f>VLOOKUP(B74,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B74,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J74" s="14" t="str">
+        <f>VLOOKUP(B74,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J74" s="14" t="str">
-        <f>VLOOKUP(B74,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K74" s="14" t="str">
+        <f>VLOOKUP(B74,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="L74" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75" s="14" t="s">
         <v>171</v>
       </c>
@@ -36123,22 +36729,26 @@
         <v>160</v>
       </c>
       <c r="H75" s="14" t="str">
-        <f>VLOOKUP(B75,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B75,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I75" s="14" t="str">
-        <f>VLOOKUP(B75,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B75,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J75" s="14" t="str">
+        <f>VLOOKUP(B75,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J75" s="14" t="str">
-        <f>VLOOKUP(B75,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K75" s="14" t="str">
+        <f>VLOOKUP(B75,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="L75" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76" s="14" t="s">
         <v>173</v>
       </c>
@@ -36161,22 +36771,26 @@
         <v>160</v>
       </c>
       <c r="H76" s="14" t="str">
-        <f>VLOOKUP(B76,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B76,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I76" s="14" t="str">
-        <f>VLOOKUP(B76,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B76,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J76" s="14" t="str">
+        <f>VLOOKUP(B76,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J76" s="14" t="str">
-        <f>VLOOKUP(B76,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K76" s="14" t="str">
+        <f>VLOOKUP(B76,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="L76" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77" s="14" t="s">
         <v>175</v>
       </c>
@@ -36199,22 +36813,26 @@
         <v>160</v>
       </c>
       <c r="H77" s="14" t="str">
-        <f>VLOOKUP(B77,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B77,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I77" s="14" t="str">
-        <f>VLOOKUP(B77,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B77,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J77" s="14" t="str">
+        <f>VLOOKUP(B77,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J77" s="14" t="str">
-        <f>VLOOKUP(B77,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K77" s="14" t="str">
+        <f>VLOOKUP(B77,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="L77" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78" s="14" t="s">
         <v>177</v>
       </c>
@@ -36237,22 +36855,26 @@
         <v>160</v>
       </c>
       <c r="H78" s="14" t="str">
-        <f>VLOOKUP(B78,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B78,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I78" s="14" t="str">
-        <f>VLOOKUP(B78,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B78,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J78" s="14" t="str">
+        <f>VLOOKUP(B78,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J78" s="14" t="str">
-        <f>VLOOKUP(B78,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K78" s="14" t="str">
+        <f>VLOOKUP(B78,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="L78" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="A79" s="14" t="s">
         <v>179</v>
       </c>
@@ -36275,22 +36897,26 @@
         <v>160</v>
       </c>
       <c r="H79" s="14" t="str">
-        <f>VLOOKUP(B79,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B79,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I79" s="14" t="str">
-        <f>VLOOKUP(B79,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B79,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J79" s="14" t="str">
+        <f>VLOOKUP(B79,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J79" s="14" t="str">
-        <f>VLOOKUP(B79,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K79" s="14" t="str">
+        <f>VLOOKUP(B79,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="L79" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80" s="14" t="s">
         <v>181</v>
       </c>
@@ -36313,22 +36939,26 @@
         <v>160</v>
       </c>
       <c r="H80" s="14" t="str">
-        <f>VLOOKUP(B80,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B80,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I80" s="14" t="str">
-        <f>VLOOKUP(B80,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B80,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J80" s="14" t="str">
+        <f>VLOOKUP(B80,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J80" s="14" t="str">
-        <f>VLOOKUP(B80,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K80" s="14" t="str">
+        <f>VLOOKUP(B80,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="L80" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="14" t="s">
         <v>183</v>
       </c>
@@ -36351,22 +36981,26 @@
         <v>160</v>
       </c>
       <c r="H81" s="14" t="str">
-        <f>VLOOKUP(B81,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B81,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I81" s="14" t="str">
-        <f>VLOOKUP(B81,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B81,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J81" s="14" t="str">
+        <f>VLOOKUP(B81,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J81" s="14" t="str">
-        <f>VLOOKUP(B81,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K81" s="14" t="str">
+        <f>VLOOKUP(B81,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="L81" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="14" t="s">
         <v>185</v>
       </c>
@@ -36389,22 +37023,26 @@
         <v>160</v>
       </c>
       <c r="H82" s="14" t="str">
-        <f>VLOOKUP(B82,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B82,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Unsaturated oils &amp; palm oil</v>
       </c>
       <c r="I82" s="14" t="str">
-        <f>VLOOKUP(B82,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B82,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Unsaturated oils &amp; palm oil</v>
+      </c>
+      <c r="J82" s="14" t="str">
+        <f>VLOOKUP(B82,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="J82" s="14" t="str">
-        <f>VLOOKUP(B82,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K82" s="14" t="str">
+        <f>VLOOKUP(B82,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Vegetable oils, nuts and seeds</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="L82" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" s="14" t="s">
         <v>188</v>
       </c>
@@ -36427,11 +37065,11 @@
         <v>187</v>
       </c>
       <c r="H83" s="14"/>
-      <c r="K83" s="14" t="s">
+      <c r="L83" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" s="14" t="s">
         <v>190</v>
       </c>
@@ -36454,11 +37092,11 @@
         <v>187</v>
       </c>
       <c r="H84" s="14"/>
-      <c r="K84" s="14" t="s">
+      <c r="L84" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" s="14" t="s">
         <v>192</v>
       </c>
@@ -36481,11 +37119,11 @@
         <v>187</v>
       </c>
       <c r="H85" s="14"/>
-      <c r="K85" s="14" t="s">
+      <c r="L85" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="14" t="s">
         <v>194</v>
       </c>
@@ -36508,11 +37146,11 @@
         <v>187</v>
       </c>
       <c r="H86" s="14"/>
-      <c r="K86" s="14" t="s">
+      <c r="L86" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="14" t="s">
         <v>196</v>
       </c>
@@ -36535,11 +37173,11 @@
         <v>187</v>
       </c>
       <c r="H87" s="14"/>
-      <c r="K87" s="14" t="s">
+      <c r="L87" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="14" t="s">
         <v>198</v>
       </c>
@@ -36562,11 +37200,11 @@
         <v>187</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="K88" s="14" t="s">
+      <c r="L88" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="14" t="s">
         <v>200</v>
       </c>
@@ -36589,11 +37227,11 @@
         <v>187</v>
       </c>
       <c r="H89" s="14"/>
-      <c r="K89" s="14" t="s">
+      <c r="L89" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="14" t="s">
         <v>202</v>
       </c>
@@ -36616,11 +37254,11 @@
         <v>187</v>
       </c>
       <c r="H90" s="14"/>
-      <c r="K90" s="14" t="s">
+      <c r="L90" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="14" t="s">
         <v>204</v>
       </c>
@@ -36643,11 +37281,11 @@
         <v>187</v>
       </c>
       <c r="H91" s="14"/>
-      <c r="K91" s="14" t="s">
+      <c r="L91" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="14" t="s">
         <v>207</v>
       </c>
@@ -36670,22 +37308,26 @@
         <v>388</v>
       </c>
       <c r="H92" s="14" t="str">
-        <f>VLOOKUP(B92,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B92,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I92" s="14" t="str">
-        <f>VLOOKUP(B92,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B92,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J92" s="14" t="str">
+        <f>VLOOKUP(B92,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Alcohol</v>
       </c>
-      <c r="J92" s="14" t="str">
-        <f>VLOOKUP(B92,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K92" s="14" t="str">
+        <f>VLOOKUP(B92,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Wine</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="L92" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" s="14" t="s">
         <v>209</v>
       </c>
@@ -36708,22 +37350,26 @@
         <v>388</v>
       </c>
       <c r="H93" s="14" t="str">
-        <f>VLOOKUP(B93,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B93,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I93" s="14" t="str">
-        <f>VLOOKUP(B93,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B93,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J93" s="14" t="str">
+        <f>VLOOKUP(B93,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Alcohol</v>
       </c>
-      <c r="J93" s="14" t="str">
-        <f>VLOOKUP(B93,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K93" s="14" t="str">
+        <f>VLOOKUP(B93,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Beer and cider</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="L93" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" s="14" t="s">
         <v>211</v>
       </c>
@@ -36746,22 +37392,26 @@
         <v>388</v>
       </c>
       <c r="H94" s="14" t="str">
-        <f>VLOOKUP(B94,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B94,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I94" s="14" t="str">
-        <f>VLOOKUP(B94,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B94,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J94" s="14" t="str">
+        <f>VLOOKUP(B94,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Alcohol</v>
       </c>
-      <c r="J94" s="14" t="str">
-        <f>VLOOKUP(B94,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K94" s="14" t="str">
+        <f>VLOOKUP(B94,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Beer and cider</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="L94" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12">
       <c r="A95" s="14" t="s">
         <v>213</v>
       </c>
@@ -36784,22 +37434,26 @@
         <v>388</v>
       </c>
       <c r="H95" s="14" t="str">
-        <f>VLOOKUP(B95,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B95,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Others</v>
       </c>
       <c r="I95" s="14" t="str">
-        <f>VLOOKUP(B95,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B95,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Others</v>
+      </c>
+      <c r="J95" s="14" t="str">
+        <f>VLOOKUP(B95,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Alcohol</v>
       </c>
-      <c r="J95" s="14" t="str">
-        <f>VLOOKUP(B95,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K95" s="14" t="str">
+        <f>VLOOKUP(B95,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Spirits</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="L95" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:12">
       <c r="A96" s="14" t="s">
         <v>216</v>
       </c>
@@ -36822,11 +37476,11 @@
         <v>214</v>
       </c>
       <c r="H96" s="14"/>
-      <c r="K96" s="14" t="s">
+      <c r="L96" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:12">
       <c r="A97" s="14" t="s">
         <v>218</v>
       </c>
@@ -36849,11 +37503,11 @@
         <v>123</v>
       </c>
       <c r="H97" s="14"/>
-      <c r="K97" s="14" t="s">
+      <c r="L97" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:12">
       <c r="A98" s="14" t="s">
         <v>223</v>
       </c>
@@ -36876,11 +37530,11 @@
         <v>222</v>
       </c>
       <c r="H98" s="14"/>
-      <c r="K98" s="14" t="s">
+      <c r="L98" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:12">
       <c r="A99" s="14" t="s">
         <v>225</v>
       </c>
@@ -36903,11 +37557,11 @@
         <v>222</v>
       </c>
       <c r="H99" s="14"/>
-      <c r="K99" s="14" t="s">
+      <c r="L99" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:12">
       <c r="A100" s="14" t="s">
         <v>227</v>
       </c>
@@ -36930,11 +37584,11 @@
         <v>222</v>
       </c>
       <c r="H100" s="14"/>
-      <c r="K100" s="14" t="s">
+      <c r="L100" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:12">
       <c r="A101" s="14" t="s">
         <v>229</v>
       </c>
@@ -36957,11 +37611,11 @@
         <v>222</v>
       </c>
       <c r="H101" s="14"/>
-      <c r="K101" s="14" t="s">
+      <c r="L101" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:12">
       <c r="A102" s="14" t="s">
         <v>231</v>
       </c>
@@ -36984,11 +37638,11 @@
         <v>222</v>
       </c>
       <c r="H102" s="14"/>
-      <c r="K102" s="14" t="s">
+      <c r="L102" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:12">
       <c r="A103" s="14" t="s">
         <v>233</v>
       </c>
@@ -37011,11 +37665,11 @@
         <v>222</v>
       </c>
       <c r="H103" s="14"/>
-      <c r="K103" s="14" t="s">
+      <c r="L103" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:12">
       <c r="A104" s="14" t="s">
         <v>235</v>
       </c>
@@ -37038,11 +37692,11 @@
         <v>222</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="K104" s="14" t="s">
+      <c r="L104" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:12">
       <c r="A105" s="14" t="s">
         <v>237</v>
       </c>
@@ -37065,11 +37719,11 @@
         <v>222</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="K105" s="14" t="s">
+      <c r="L105" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:12">
       <c r="A106" s="14" t="s">
         <v>239</v>
       </c>
@@ -37092,11 +37746,11 @@
         <v>222</v>
       </c>
       <c r="H106" s="14"/>
-      <c r="K106" s="14" t="s">
+      <c r="L106" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:12">
       <c r="A107" s="14" t="s">
         <v>241</v>
       </c>
@@ -37119,11 +37773,11 @@
         <v>222</v>
       </c>
       <c r="H107" s="14"/>
-      <c r="K107" s="14" t="s">
+      <c r="L107" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:12">
       <c r="A108" s="14" t="s">
         <v>243</v>
       </c>
@@ -37146,11 +37800,11 @@
         <v>222</v>
       </c>
       <c r="H108" s="14"/>
-      <c r="K108" s="14" t="s">
+      <c r="L108" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:12">
       <c r="A109" s="14" t="s">
         <v>245</v>
       </c>
@@ -37173,11 +37827,11 @@
         <v>222</v>
       </c>
       <c r="H109" s="14"/>
-      <c r="K109" s="14" t="s">
+      <c r="L109" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:12">
       <c r="A110" s="14" t="s">
         <v>247</v>
       </c>
@@ -37200,11 +37854,11 @@
         <v>222</v>
       </c>
       <c r="H110" s="14"/>
-      <c r="K110" s="14" t="s">
+      <c r="L110" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:12">
       <c r="A111" s="14" t="s">
         <v>252</v>
       </c>
@@ -37227,22 +37881,26 @@
         <v>251</v>
       </c>
       <c r="H111" s="14" t="str">
-        <f>VLOOKUP(B111,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B111,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole milk or derivative equivalents</v>
       </c>
       <c r="I111" s="14" t="str">
-        <f>VLOOKUP(B111,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B111,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole milk or derivative equivalents</v>
+      </c>
+      <c r="J111" s="14" t="str">
+        <f>VLOOKUP(B111,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Milk and products</v>
       </c>
-      <c r="J111" s="14" t="str">
-        <f>VLOOKUP(B111,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K111" s="14" t="str">
+        <f>VLOOKUP(B111,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Milk and products</v>
       </c>
-      <c r="K111" s="14" t="s">
+      <c r="L111" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:12">
       <c r="A112" s="14" t="s">
         <v>254</v>
       </c>
@@ -37265,22 +37923,26 @@
         <v>251</v>
       </c>
       <c r="H112" s="14" t="str">
-        <f>VLOOKUP(B112,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B112,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Whole milk or derivative equivalents</v>
       </c>
       <c r="I112" s="14" t="str">
-        <f>VLOOKUP(B112,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B112,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Whole milk or derivative equivalents</v>
+      </c>
+      <c r="J112" s="14" t="str">
+        <f>VLOOKUP(B112,concordance!$B$2:$R$124,15,FALSE)</f>
         <v xml:space="preserve">Butter, lard or tallow </v>
       </c>
-      <c r="J112" s="14" t="str">
-        <f>VLOOKUP(B112,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K112" s="14" t="str">
+        <f>VLOOKUP(B112,concordance!$B$2:$R$124,16,FALSE)</f>
         <v xml:space="preserve">Butter, lard or tallow </v>
       </c>
-      <c r="K112" s="14" t="s">
+      <c r="L112" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:12">
       <c r="A113" s="14" t="s">
         <v>256</v>
       </c>
@@ -37303,22 +37965,26 @@
         <v>255</v>
       </c>
       <c r="H113" s="14" t="str">
-        <f>VLOOKUP(B113,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B113,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Eggs, Poultry &amp; Fish</v>
       </c>
       <c r="I113" s="14" t="str">
-        <f>VLOOKUP(B113,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B113,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Eggs, Poultry &amp; Fish</v>
+      </c>
+      <c r="J113" s="14" t="str">
+        <f>VLOOKUP(B113,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Eggs</v>
       </c>
-      <c r="J113" s="14" t="str">
-        <f>VLOOKUP(B113,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K113" s="14" t="str">
+        <f>VLOOKUP(B113,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Eggs</v>
       </c>
-      <c r="K113" s="14" t="s">
+      <c r="L113" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:12">
       <c r="A114" s="14" t="s">
         <v>259</v>
       </c>
@@ -37341,11 +38007,11 @@
         <v>258</v>
       </c>
       <c r="H114" s="14"/>
-      <c r="K114" s="14" t="s">
+      <c r="L114" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:12">
       <c r="A115" s="14" t="s">
         <v>262</v>
       </c>
@@ -37368,22 +38034,26 @@
         <v>261</v>
       </c>
       <c r="H115" s="14" t="str">
-        <f>VLOOKUP(B115,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B115,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Meat</v>
       </c>
       <c r="I115" s="14" t="str">
-        <f>VLOOKUP(B115,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B115,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Meat</v>
+      </c>
+      <c r="J115" s="14" t="str">
+        <f>VLOOKUP(B115,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="J115" s="14" t="str">
-        <f>VLOOKUP(B115,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K115" s="14" t="str">
+        <f>VLOOKUP(B115,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="L115" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:12">
       <c r="A116" s="14" t="s">
         <v>264</v>
       </c>
@@ -37406,22 +38076,26 @@
         <v>261</v>
       </c>
       <c r="H116" s="14" t="str">
-        <f>VLOOKUP(B116,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B116,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Meat</v>
       </c>
       <c r="I116" s="14" t="str">
-        <f>VLOOKUP(B116,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B116,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Meat</v>
+      </c>
+      <c r="J116" s="14" t="str">
+        <f>VLOOKUP(B116,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="J116" s="14" t="str">
-        <f>VLOOKUP(B116,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K116" s="14" t="str">
+        <f>VLOOKUP(B116,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="K116" s="14" t="s">
+      <c r="L116" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:12">
       <c r="A117" s="14" t="s">
         <v>266</v>
       </c>
@@ -37444,22 +38118,26 @@
         <v>261</v>
       </c>
       <c r="H117" s="14" t="str">
-        <f>VLOOKUP(B117,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B117,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Meat</v>
       </c>
       <c r="I117" s="14" t="str">
-        <f>VLOOKUP(B117,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B117,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Meat</v>
+      </c>
+      <c r="J117" s="14" t="str">
+        <f>VLOOKUP(B117,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="J117" s="14" t="str">
-        <f>VLOOKUP(B117,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K117" s="14" t="str">
+        <f>VLOOKUP(B117,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="L117" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:12">
       <c r="A118" s="14" t="s">
         <v>268</v>
       </c>
@@ -37482,22 +38160,26 @@
         <v>261</v>
       </c>
       <c r="H118" s="14" t="str">
-        <f>VLOOKUP(B118,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B118,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Eggs, Poultry &amp; Fish</v>
       </c>
       <c r="I118" s="14" t="str">
-        <f>VLOOKUP(B118,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B118,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Eggs, Poultry &amp; Fish</v>
+      </c>
+      <c r="J118" s="14" t="str">
+        <f>VLOOKUP(B118,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Meat, low-fat</v>
       </c>
-      <c r="J118" s="14" t="str">
-        <f>VLOOKUP(B118,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K118" s="14" t="str">
+        <f>VLOOKUP(B118,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Meat, low-fat</v>
       </c>
-      <c r="K118" s="14" t="s">
+      <c r="L118" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:12">
       <c r="A119" s="14" t="s">
         <v>270</v>
       </c>
@@ -37520,22 +38202,26 @@
         <v>261</v>
       </c>
       <c r="H119" s="14" t="str">
-        <f>VLOOKUP(B119,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B119,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Meat</v>
       </c>
       <c r="I119" s="14" t="str">
-        <f>VLOOKUP(B119,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B119,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Meat</v>
+      </c>
+      <c r="J119" s="14" t="str">
+        <f>VLOOKUP(B119,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="J119" s="14" t="str">
-        <f>VLOOKUP(B119,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K119" s="14" t="str">
+        <f>VLOOKUP(B119,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="K119" s="14" t="s">
+      <c r="L119" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:12">
       <c r="A120" s="14" t="s">
         <v>272</v>
       </c>
@@ -37558,22 +38244,26 @@
         <v>261</v>
       </c>
       <c r="H120" s="14" t="str">
-        <f>VLOOKUP(B120,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B120,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Meat</v>
       </c>
       <c r="I120" s="14" t="str">
-        <f>VLOOKUP(B120,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B120,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Meat</v>
+      </c>
+      <c r="J120" s="14" t="str">
+        <f>VLOOKUP(B120,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="J120" s="14" t="str">
-        <f>VLOOKUP(B120,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K120" s="14" t="str">
+        <f>VLOOKUP(B120,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Meat, red</v>
       </c>
-      <c r="K120" s="14" t="s">
+      <c r="L120" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:12">
       <c r="A121" s="14" t="s">
         <v>275</v>
       </c>
@@ -37596,22 +38286,26 @@
         <v>274</v>
       </c>
       <c r="H121" s="14" t="str">
-        <f>VLOOKUP(B121,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B121,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Lard or tallow</v>
       </c>
       <c r="I121" s="14" t="str">
-        <f>VLOOKUP(B121,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B121,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Lard or tallow</v>
+      </c>
+      <c r="J121" s="14" t="str">
+        <f>VLOOKUP(B121,concordance!$B$2:$R$124,15,FALSE)</f>
         <v xml:space="preserve">Butter, lard or tallow </v>
       </c>
-      <c r="J121" s="14" t="str">
-        <f>VLOOKUP(B121,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K121" s="14" t="str">
+        <f>VLOOKUP(B121,concordance!$B$2:$R$124,16,FALSE)</f>
         <v xml:space="preserve">Butter, lard or tallow </v>
       </c>
-      <c r="K121" s="14" t="s">
+      <c r="L121" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:12">
       <c r="A122" s="14" t="s">
         <v>277</v>
       </c>
@@ -37634,11 +38328,11 @@
         <v>258</v>
       </c>
       <c r="H122" s="14"/>
-      <c r="K122" s="14" t="s">
+      <c r="L122" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:12">
       <c r="A123" s="14" t="s">
         <v>279</v>
       </c>
@@ -37664,16 +38358,19 @@
         <v>261</v>
       </c>
       <c r="I123" s="57" t="s">
-        <v>607</v>
+        <v>261</v>
       </c>
       <c r="J123" s="57" t="s">
         <v>607</v>
       </c>
       <c r="K123" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="L123" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:12">
       <c r="A124" s="14" t="s">
         <v>281</v>
       </c>
@@ -37696,22 +38393,26 @@
         <v>278</v>
       </c>
       <c r="H124" s="14" t="str">
-        <f>VLOOKUP(B124,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B124,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="I124" s="14" t="str">
-        <f>VLOOKUP(B124,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B124,concordance!$B$2:$R$124,14,FALSE)</f>
         <v>All sugars</v>
       </c>
       <c r="J124" s="14" t="str">
-        <f>VLOOKUP(B124,concordance!$B$2:$Q$124,15,FALSE)</f>
+        <f>VLOOKUP(B124,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>All sugars</v>
       </c>
-      <c r="K124" s="14" t="s">
+      <c r="K124" s="14" t="str">
+        <f>VLOOKUP(B124,concordance!$B$2:$R$124,16,FALSE)</f>
+        <v>All sugars</v>
+      </c>
+      <c r="L124" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:12">
       <c r="A125" s="14" t="s">
         <v>389</v>
       </c>
@@ -37734,11 +38435,11 @@
         <v>258</v>
       </c>
       <c r="H125" s="14"/>
-      <c r="K125" s="14" t="s">
+      <c r="L125" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:12">
       <c r="A126" s="14" t="s">
         <v>390</v>
       </c>
@@ -37761,18 +38462,22 @@
         <v>283</v>
       </c>
       <c r="H126" s="14" t="str">
-        <f>VLOOKUP(B126,concordance!$B$2:$Q$124,13,FALSE)</f>
+        <f>VLOOKUP(B126,concordance!$B$2:$R$124,13,FALSE)</f>
         <v>Eggs, Poultry &amp; Fish</v>
       </c>
       <c r="I126" s="14" t="str">
-        <f>VLOOKUP(B126,concordance!$B$2:$Q$124,14,FALSE)</f>
+        <f>VLOOKUP($B126,concordance!$B$2:$R$124,14,FALSE)</f>
+        <v>Eggs, Poultry &amp; Fish</v>
+      </c>
+      <c r="J126" s="14" t="str">
+        <f>VLOOKUP(B126,concordance!$B$2:$R$124,15,FALSE)</f>
         <v>Fish</v>
       </c>
-      <c r="J126" s="14" t="str">
-        <f>VLOOKUP(B126,concordance!$B$2:$Q$124,15,FALSE)</f>
+      <c r="K126" s="14" t="str">
+        <f>VLOOKUP(B126,concordance!$B$2:$R$124,16,FALSE)</f>
         <v>Fish</v>
       </c>
-      <c r="K126" s="14" t="s">
+      <c r="L126" s="14" t="s">
         <v>283</v>
       </c>
     </row>

--- a/inst/items_conc.xlsx
+++ b/inst/items_conc.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6517" uniqueCount="708">
   <si>
     <t>comm_code</t>
   </si>
@@ -2146,6 +2146,30 @@
   </si>
   <si>
     <t>Tree nuts &amp; seeds</t>
+  </si>
+  <si>
+    <t>comm_group_en</t>
+  </si>
+  <si>
+    <t>Sugar and sweeteners</t>
+  </si>
+  <si>
+    <t>Nuts and seeds</t>
+  </si>
+  <si>
+    <t>Fruits and vegetables</t>
+  </si>
+  <si>
+    <t>Tabacco, rubber</t>
+  </si>
+  <si>
+    <t>Feed crops</t>
+  </si>
+  <si>
+    <t>Pastures</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
   </si>
 </sst>
 </file>
@@ -2979,49 +3003,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3336,13 +3360,13 @@
   <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O119" sqref="O119"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18:R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
@@ -4360,7 +4384,7 @@
         <v>658</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -4416,7 +4440,7 @@
         <v>658</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -4472,7 +4496,7 @@
         <v>658</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -4528,7 +4552,7 @@
         <v>608</v>
       </c>
       <c r="R21" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -9365,14 +9389,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11643,7 +11668,7 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="14"/>
     <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -14187,13 +14212,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
@@ -14207,9 +14232,10 @@
     <col min="10" max="11" width="33.42578125" style="33" customWidth="1"/>
     <col min="12" max="12" width="29.85546875" style="36" customWidth="1"/>
     <col min="13" max="13" width="31.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14249,8 +14275,11 @@
       <c r="M1" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -14290,8 +14319,11 @@
       <c r="M2" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -14331,8 +14363,11 @@
       <c r="M3" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -14372,8 +14407,11 @@
       <c r="M4" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -14413,8 +14451,11 @@
       <c r="M5" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -14454,8 +14495,11 @@
       <c r="M6" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -14495,8 +14539,11 @@
       <c r="M7" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -14536,8 +14583,11 @@
       <c r="M8" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -14577,8 +14627,11 @@
       <c r="M9" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -14618,8 +14671,11 @@
       <c r="M10" s="14" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -14659,8 +14715,11 @@
       <c r="M11" s="17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -14700,8 +14759,11 @@
       <c r="M12" s="17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -14741,8 +14803,11 @@
       <c r="M13" s="17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -14782,8 +14847,11 @@
       <c r="M14" s="17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -14823,8 +14891,11 @@
       <c r="M15" s="17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
@@ -14859,8 +14930,11 @@
       <c r="M16" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -14895,8 +14969,11 @@
       <c r="M17" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -14936,8 +15013,11 @@
       <c r="M18" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="57" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -14977,8 +15057,11 @@
       <c r="M19" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="57" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -15018,8 +15101,11 @@
       <c r="M20" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="57" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -15059,8 +15145,11 @@
       <c r="M21" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -15100,8 +15189,11 @@
       <c r="M22" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="57" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
@@ -15141,8 +15233,11 @@
       <c r="M23" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -15182,8 +15277,11 @@
       <c r="M24" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -15223,8 +15321,11 @@
       <c r="M25" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -15260,8 +15361,11 @@
         <v>480</v>
       </c>
       <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -15301,8 +15405,11 @@
       <c r="M27" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -15342,8 +15449,11 @@
       <c r="M28" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -15379,8 +15489,11 @@
         <v>475</v>
       </c>
       <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -15420,8 +15533,11 @@
       <c r="M30" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="57" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -15461,8 +15577,11 @@
       <c r="M31" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -15502,8 +15621,11 @@
       <c r="M32" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -15543,8 +15665,11 @@
       <c r="M33" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -15584,8 +15709,11 @@
       <c r="M34" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -15625,8 +15753,11 @@
       <c r="M35" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -15666,8 +15797,11 @@
       <c r="M36" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -15707,8 +15841,11 @@
       <c r="M37" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -15748,8 +15885,11 @@
       <c r="M38" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -15789,8 +15929,11 @@
       <c r="M39" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -15830,8 +15973,11 @@
       <c r="M40" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -15871,8 +16017,11 @@
       <c r="M41" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -15912,8 +16061,11 @@
       <c r="M42" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -15953,8 +16105,11 @@
       <c r="M43" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -15994,8 +16149,11 @@
       <c r="M44" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -16035,8 +16193,11 @@
       <c r="M45" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -16071,8 +16232,11 @@
       <c r="M46" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -16107,8 +16271,11 @@
       <c r="M47" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -16143,8 +16310,11 @@
       <c r="M48" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
@@ -16184,8 +16354,11 @@
       <c r="M49" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="14" t="s">
         <v>113</v>
       </c>
@@ -16225,8 +16398,11 @@
       <c r="M50" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="14" t="s">
         <v>115</v>
       </c>
@@ -16266,8 +16442,11 @@
       <c r="M51" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="14" t="s">
         <v>117</v>
       </c>
@@ -16307,8 +16486,11 @@
       <c r="M52" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="14" t="s">
         <v>119</v>
       </c>
@@ -16348,8 +16530,11 @@
       <c r="M53" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="14" t="s">
         <v>121</v>
       </c>
@@ -16380,8 +16565,11 @@
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="14" t="s">
         <v>124</v>
       </c>
@@ -16412,8 +16600,11 @@
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="14" t="s">
         <v>126</v>
       </c>
@@ -16444,8 +16635,11 @@
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="14" t="s">
         <v>128</v>
       </c>
@@ -16476,8 +16670,11 @@
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="14" t="s">
         <v>130</v>
       </c>
@@ -16508,8 +16705,11 @@
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
@@ -16540,8 +16740,11 @@
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
@@ -16572,8 +16775,11 @@
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="14" t="s">
         <v>137</v>
       </c>
@@ -16604,8 +16810,11 @@
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="14" t="s">
         <v>139</v>
       </c>
@@ -16636,8 +16845,11 @@
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="14" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="14" t="s">
         <v>142</v>
       </c>
@@ -16668,8 +16880,11 @@
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="14" t="s">
         <v>145</v>
       </c>
@@ -16701,8 +16916,11 @@
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="14" t="s">
         <v>148</v>
       </c>
@@ -16742,8 +16960,11 @@
       <c r="M65" s="17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="14" t="s">
         <v>150</v>
       </c>
@@ -16783,8 +17004,11 @@
       <c r="M66" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="14" t="s">
         <v>154</v>
       </c>
@@ -16824,8 +17048,11 @@
       <c r="M67" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="14" t="s">
         <v>156</v>
       </c>
@@ -16865,8 +17092,11 @@
       <c r="M68" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="14" t="s">
         <v>158</v>
       </c>
@@ -16906,8 +17136,11 @@
       <c r="M69" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="14" t="s">
         <v>161</v>
       </c>
@@ -16947,8 +17180,11 @@
       <c r="M70" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="14" t="s">
         <v>163</v>
       </c>
@@ -16988,8 +17224,11 @@
       <c r="M71" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="14" t="s">
         <v>165</v>
       </c>
@@ -17029,8 +17268,11 @@
       <c r="M72" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="14" t="s">
         <v>167</v>
       </c>
@@ -17070,8 +17312,11 @@
       <c r="M73" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="14" t="s">
         <v>169</v>
       </c>
@@ -17111,8 +17356,11 @@
       <c r="M74" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="14" t="s">
         <v>171</v>
       </c>
@@ -17152,8 +17400,11 @@
       <c r="M75" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="14" t="s">
         <v>173</v>
       </c>
@@ -17193,8 +17444,11 @@
       <c r="M76" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="14" t="s">
         <v>175</v>
       </c>
@@ -17234,8 +17488,11 @@
       <c r="M77" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="14" t="s">
         <v>177</v>
       </c>
@@ -17275,8 +17532,11 @@
       <c r="M78" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="14" t="s">
         <v>179</v>
       </c>
@@ -17316,8 +17576,11 @@
       <c r="M79" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="14" t="s">
         <v>181</v>
       </c>
@@ -17357,8 +17620,11 @@
       <c r="M80" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="14" t="s">
         <v>183</v>
       </c>
@@ -17398,8 +17664,11 @@
       <c r="M81" s="35" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="14" t="s">
         <v>185</v>
       </c>
@@ -17430,8 +17699,11 @@
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="14" t="s">
         <v>188</v>
       </c>
@@ -17462,8 +17734,11 @@
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="14" t="s">
         <v>190</v>
       </c>
@@ -17494,8 +17769,11 @@
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="14" t="s">
         <v>192</v>
       </c>
@@ -17526,8 +17804,11 @@
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="14" t="s">
         <v>194</v>
       </c>
@@ -17558,8 +17839,11 @@
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="14" t="s">
         <v>196</v>
       </c>
@@ -17590,8 +17874,11 @@
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="14" t="s">
         <v>198</v>
       </c>
@@ -17622,8 +17909,11 @@
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="14" t="s">
         <v>200</v>
       </c>
@@ -17654,8 +17944,11 @@
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="14" t="s">
         <v>202</v>
       </c>
@@ -17686,8 +17979,11 @@
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="14" t="s">
         <v>204</v>
       </c>
@@ -17727,8 +18023,11 @@
       <c r="M91" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="14" t="s">
         <v>207</v>
       </c>
@@ -17768,8 +18067,11 @@
       <c r="M92" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="14" t="s">
         <v>209</v>
       </c>
@@ -17809,8 +18111,11 @@
       <c r="M93" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="14" t="s">
         <v>211</v>
       </c>
@@ -17850,8 +18155,11 @@
       <c r="M94" s="14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="14" t="s">
         <v>213</v>
       </c>
@@ -17882,8 +18190,11 @@
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="14" t="s">
         <v>216</v>
       </c>
@@ -17914,8 +18225,11 @@
       </c>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="14" t="s">
         <v>218</v>
       </c>
@@ -17946,8 +18260,11 @@
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="14" t="s">
         <v>223</v>
       </c>
@@ -17978,8 +18295,11 @@
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="14" t="s">
         <v>225</v>
       </c>
@@ -18010,8 +18330,11 @@
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="14" t="s">
         <v>227</v>
       </c>
@@ -18042,8 +18365,11 @@
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="14" t="s">
         <v>229</v>
       </c>
@@ -18074,8 +18400,11 @@
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="14" t="s">
         <v>231</v>
       </c>
@@ -18106,8 +18435,11 @@
       </c>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="14" t="s">
         <v>233</v>
       </c>
@@ -18138,8 +18470,11 @@
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="14" t="s">
         <v>235</v>
       </c>
@@ -18170,8 +18505,11 @@
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="14" t="s">
         <v>237</v>
       </c>
@@ -18202,8 +18540,11 @@
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="14" t="s">
         <v>239</v>
       </c>
@@ -18234,8 +18575,11 @@
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="14" t="s">
         <v>241</v>
       </c>
@@ -18266,8 +18610,11 @@
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="14" t="s">
         <v>243</v>
       </c>
@@ -18298,8 +18645,11 @@
       </c>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="14" t="s">
         <v>245</v>
       </c>
@@ -18330,8 +18680,11 @@
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="14" t="s">
         <v>247</v>
       </c>
@@ -18371,8 +18724,11 @@
       <c r="M110" s="39" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="39" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="14" t="s">
         <v>252</v>
       </c>
@@ -18412,8 +18768,11 @@
       <c r="M111" s="39" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="39" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="14" t="s">
         <v>254</v>
       </c>
@@ -18453,8 +18812,11 @@
       <c r="M112" s="14" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="14" t="s">
         <v>256</v>
       </c>
@@ -18486,8 +18848,11 @@
       </c>
       <c r="L113" s="41"/>
       <c r="M113" s="14"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="14" t="s">
         <v>259</v>
       </c>
@@ -18527,8 +18892,11 @@
       <c r="M114" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="14" t="s">
         <v>262</v>
       </c>
@@ -18568,8 +18936,11 @@
       <c r="M115" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="14" t="s">
         <v>264</v>
       </c>
@@ -18609,8 +18980,11 @@
       <c r="M116" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="14" t="s">
         <v>266</v>
       </c>
@@ -18650,8 +19024,11 @@
       <c r="M117" s="14" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="14" t="s">
         <v>268</v>
       </c>
@@ -18691,8 +19068,11 @@
       <c r="M118" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="14" t="s">
         <v>270</v>
       </c>
@@ -18732,8 +19112,11 @@
       <c r="M119" s="14" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="14" t="s">
         <v>272</v>
       </c>
@@ -18773,8 +19156,11 @@
       <c r="M120" s="14" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="14" t="s">
         <v>275</v>
       </c>
@@ -18805,8 +19191,11 @@
       </c>
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="14" t="s">
         <v>277</v>
       </c>
@@ -18846,8 +19235,11 @@
       <c r="M122" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="14" t="s">
         <v>279</v>
       </c>
@@ -18878,8 +19270,11 @@
       </c>
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="14" t="s">
         <v>281</v>
       </c>
@@ -18918,6 +19313,9 @@
       </c>
       <c r="M124" s="14" t="s">
         <v>482</v>
+      </c>
+      <c r="N124" s="17" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -18927,13 +19325,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="J100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="14"/>
     <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -18948,9 +19346,10 @@
     <col min="12" max="12" width="35.28515625" style="14" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -18993,8 +19392,11 @@
       <c r="N1" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
@@ -19037,8 +19439,11 @@
       <c r="N2" s="42" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -19087,8 +19492,12 @@
         <f>VLOOKUP($B3,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="14" t="str">
+        <f>VLOOKUP($B3,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -19137,8 +19546,12 @@
         <f>VLOOKUP($B4,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="14" t="str">
+        <f>VLOOKUP($B4,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -19187,8 +19600,12 @@
         <f>VLOOKUP($B5,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="14" t="str">
+        <f>VLOOKUP($B5,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -19237,8 +19654,12 @@
         <f>VLOOKUP($B6,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="14" t="str">
+        <f>VLOOKUP($B6,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -19287,8 +19708,12 @@
         <f>VLOOKUP($B7,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="14" t="str">
+        <f>VLOOKUP($B7,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -19337,8 +19762,12 @@
         <f>VLOOKUP($B8,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="14" t="str">
+        <f>VLOOKUP($B8,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -19387,8 +19816,12 @@
         <f>VLOOKUP($B9,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="14" t="str">
+        <f>VLOOKUP($B9,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -19437,8 +19870,12 @@
         <f>VLOOKUP($B10,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Getreide</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="14" t="str">
+        <f>VLOOKUP($B10,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Cereals</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
@@ -19487,8 +19924,12 @@
         <f>VLOOKUP($B11,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="14" t="str">
+        <f>VLOOKUP($B11,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Roots and tubers</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -19537,8 +19978,12 @@
         <f>VLOOKUP($B12,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="14" t="str">
+        <f>VLOOKUP($B12,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Roots and tubers</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -19587,8 +20032,12 @@
         <f>VLOOKUP($B13,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="14" t="str">
+        <f>VLOOKUP($B13,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Roots and tubers</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -19637,8 +20086,12 @@
         <f>VLOOKUP($B14,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="14" t="str">
+        <f>VLOOKUP($B14,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Roots and tubers</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -19687,8 +20140,12 @@
         <f>VLOOKUP($B15,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Wurzeln und Knollen</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="14" t="str">
+        <f>VLOOKUP($B15,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Roots and tubers</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
@@ -19734,8 +20191,12 @@
         <f>VLOOKUP($B16,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="14" t="str">
+        <f>VLOOKUP($B16,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Sugar and sweeteners</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -19781,8 +20242,12 @@
         <f>VLOOKUP($B17,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="14" t="str">
+        <f>VLOOKUP($B17,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Sugar and sweeteners</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -19831,8 +20296,12 @@
         <f>VLOOKUP($B18,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="14" t="str">
+        <f>VLOOKUP($B18,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -19881,8 +20350,12 @@
         <f>VLOOKUP($B19,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="14" t="str">
+        <f>VLOOKUP($B19,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
@@ -19931,8 +20404,12 @@
         <f>VLOOKUP($B20,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="14" t="str">
+        <f>VLOOKUP($B20,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
@@ -19981,8 +20458,12 @@
         <f>VLOOKUP($B21,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="14" t="str">
+        <f>VLOOKUP($B21,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -20031,8 +20512,12 @@
         <f>VLOOKUP($B22,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="57" t="str">
+        <f>VLOOKUP($B22,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Legumes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="42" t="s">
         <v>58</v>
       </c>
@@ -20075,8 +20560,11 @@
       <c r="N23" s="42" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -20125,8 +20613,12 @@
         <f>VLOOKUP($B24,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="14" t="str">
+        <f>VLOOKUP($B24,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -20175,8 +20667,12 @@
         <f>VLOOKUP($B25,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="14" t="str">
+        <f>VLOOKUP($B25,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -20222,8 +20718,12 @@
         <v>Hülsenfrüchte, Bohnen &amp; Nüsse</v>
       </c>
       <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="14" t="str">
+        <f>VLOOKUP($B26,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
@@ -20272,8 +20772,12 @@
         <f>VLOOKUP($B27,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="14" t="str">
+        <f>VLOOKUP($B27,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -20322,8 +20826,12 @@
         <f>VLOOKUP($B28,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="14" t="str">
+        <f>VLOOKUP($B28,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
@@ -20369,8 +20877,12 @@
         <v>Gemüse</v>
       </c>
       <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="14" t="str">
+        <f>VLOOKUP($B29,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -20419,8 +20931,12 @@
         <f>VLOOKUP($B30,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="14" t="str">
+        <f>VLOOKUP($B30,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
@@ -20469,8 +20985,12 @@
         <f>VLOOKUP($B31,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="14" t="str">
+        <f>VLOOKUP($B31,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
@@ -20519,8 +21039,12 @@
         <f>VLOOKUP($B32,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="14" t="str">
+        <f>VLOOKUP($B32,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -20569,8 +21093,12 @@
         <f>VLOOKUP($B33,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="14" t="str">
+        <f>VLOOKUP($B33,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
@@ -20619,8 +21147,12 @@
         <f>VLOOKUP($B34,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="14" t="str">
+        <f>VLOOKUP($B34,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -20669,8 +21201,12 @@
         <f>VLOOKUP($B35,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="14" t="str">
+        <f>VLOOKUP($B35,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
@@ -20719,8 +21255,12 @@
         <f>VLOOKUP($B36,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="14" t="str">
+        <f>VLOOKUP($B36,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
@@ -20769,8 +21309,12 @@
         <f>VLOOKUP($B37,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="14" t="str">
+        <f>VLOOKUP($B37,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -20819,8 +21363,12 @@
         <f>VLOOKUP($B38,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="14" t="str">
+        <f>VLOOKUP($B38,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -20869,8 +21417,12 @@
         <f>VLOOKUP($B39,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="14" t="str">
+        <f>VLOOKUP($B39,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -20919,8 +21471,12 @@
         <f>VLOOKUP($B40,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="14" t="str">
+        <f>VLOOKUP($B40,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -20969,8 +21525,12 @@
         <f>VLOOKUP($B41,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" s="14" t="str">
+        <f>VLOOKUP($B41,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -21019,8 +21579,12 @@
         <f>VLOOKUP($B42,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="14" t="str">
+        <f>VLOOKUP($B42,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -21069,8 +21633,12 @@
         <f>VLOOKUP($B43,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="14" t="str">
+        <f>VLOOKUP($B43,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -21119,8 +21687,12 @@
         <f>VLOOKUP($B44,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="14" t="str">
+        <f>VLOOKUP($B44,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -21169,8 +21741,12 @@
         <f>VLOOKUP($B45,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Obst</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" s="14" t="str">
+        <f>VLOOKUP($B45,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fruits and vegetables</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -21216,8 +21792,12 @@
         <f>VLOOKUP($B46,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" s="14" t="str">
+        <f>VLOOKUP($B46,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Coffee, tea, cocoa</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="14" t="s">
         <v>107</v>
       </c>
@@ -21263,8 +21843,12 @@
         <f>VLOOKUP($B47,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" s="14" t="str">
+        <f>VLOOKUP($B47,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Coffee, tea, cocoa</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="14" t="s">
         <v>109</v>
       </c>
@@ -21310,8 +21894,12 @@
         <f>VLOOKUP($B48,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="14" t="str">
+        <f>VLOOKUP($B48,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Coffee, tea, cocoa</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
@@ -21360,8 +21948,12 @@
         <f>VLOOKUP($B49,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="14" t="str">
+        <f>VLOOKUP($B49,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Spices</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="14" t="s">
         <v>113</v>
       </c>
@@ -21410,8 +22002,12 @@
         <f>VLOOKUP($B50,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="14" t="str">
+        <f>VLOOKUP($B50,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Spices</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="14" t="s">
         <v>115</v>
       </c>
@@ -21460,8 +22056,12 @@
         <f>VLOOKUP($B51,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="14" t="str">
+        <f>VLOOKUP($B51,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Spices</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="14" t="s">
         <v>117</v>
       </c>
@@ -21510,8 +22110,12 @@
         <f>VLOOKUP($B52,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="14" t="str">
+        <f>VLOOKUP($B52,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Spices</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="14" t="s">
         <v>119</v>
       </c>
@@ -21560,8 +22164,12 @@
         <f>VLOOKUP($B53,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Gemüse</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="14" t="str">
+        <f>VLOOKUP($B53,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Spices</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="14" t="s">
         <v>121</v>
       </c>
@@ -21601,8 +22209,12 @@
       </c>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="14" t="str">
+        <f>VLOOKUP($B54,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="14" t="s">
         <v>124</v>
       </c>
@@ -21642,8 +22254,12 @@
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" s="14" t="str">
+        <f>VLOOKUP($B55,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="14" t="s">
         <v>126</v>
       </c>
@@ -21683,8 +22299,12 @@
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="14" t="str">
+        <f>VLOOKUP($B56,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="14" t="s">
         <v>128</v>
       </c>
@@ -21724,8 +22344,12 @@
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="14" t="str">
+        <f>VLOOKUP($B57,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="14" t="s">
         <v>130</v>
       </c>
@@ -21765,8 +22389,12 @@
       </c>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="14" t="str">
+        <f>VLOOKUP($B58,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="14" t="s">
         <v>132</v>
       </c>
@@ -21806,8 +22434,12 @@
       </c>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="14" t="str">
+        <f>VLOOKUP($B59,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
@@ -21847,8 +22479,12 @@
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="14" t="str">
+        <f>VLOOKUP($B60,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Tabacco, rubber</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="14" t="s">
         <v>137</v>
       </c>
@@ -21888,8 +22524,12 @@
       </c>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="14" t="str">
+        <f>VLOOKUP($B61,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Tabacco, rubber</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="14" t="s">
         <v>139</v>
       </c>
@@ -21929,8 +22569,12 @@
       </c>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="14" t="str">
+        <f>VLOOKUP($B62,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Feed crops</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="14" t="s">
         <v>142</v>
       </c>
@@ -21970,8 +22614,12 @@
       </c>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" s="14" t="str">
+        <f>VLOOKUP($B63,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Pastures</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="14" t="s">
         <v>145</v>
       </c>
@@ -22011,8 +22659,12 @@
       </c>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" s="14" t="str">
+        <f>VLOOKUP($B64,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="14" t="s">
         <v>148</v>
       </c>
@@ -22061,8 +22713,12 @@
         <f>VLOOKUP($B65,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65" s="14" t="str">
+        <f>VLOOKUP($B65,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Nuts and seeds</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="14" t="s">
         <v>150</v>
       </c>
@@ -22111,8 +22767,12 @@
         <f>VLOOKUP($B66,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="14" t="str">
+        <f>VLOOKUP($B66,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Sugar and sweeteners</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="42" t="s">
         <v>154</v>
       </c>
@@ -22155,8 +22815,11 @@
       <c r="N67" s="42" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="42" t="s">
         <v>156</v>
       </c>
@@ -22199,8 +22862,11 @@
       <c r="N68" s="42" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="14" t="s">
         <v>158</v>
       </c>
@@ -22249,8 +22915,12 @@
         <f>VLOOKUP($B69,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" s="14" t="str">
+        <f>VLOOKUP($B69,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Sugar and sweeteners</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="14" t="s">
         <v>161</v>
       </c>
@@ -22299,8 +22969,12 @@
         <f>VLOOKUP($B70,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" s="14" t="str">
+        <f>VLOOKUP($B70,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="14" t="s">
         <v>163</v>
       </c>
@@ -22349,8 +23023,12 @@
         <f>VLOOKUP($B71,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" s="14" t="str">
+        <f>VLOOKUP($B71,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="14" t="s">
         <v>165</v>
       </c>
@@ -22399,8 +23077,12 @@
         <f>VLOOKUP($B72,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" s="14" t="str">
+        <f>VLOOKUP($B72,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="14" t="s">
         <v>167</v>
       </c>
@@ -22449,8 +23131,12 @@
         <f>VLOOKUP($B73,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" s="14" t="str">
+        <f>VLOOKUP($B73,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="14" t="s">
         <v>169</v>
       </c>
@@ -22499,8 +23185,12 @@
         <f>VLOOKUP($B74,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" s="14" t="str">
+        <f>VLOOKUP($B74,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="14" t="s">
         <v>171</v>
       </c>
@@ -22549,8 +23239,12 @@
         <f>VLOOKUP($B75,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" s="14" t="str">
+        <f>VLOOKUP($B75,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="14" t="s">
         <v>173</v>
       </c>
@@ -22599,8 +23293,12 @@
         <f>VLOOKUP($B76,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" s="14" t="str">
+        <f>VLOOKUP($B76,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="14" t="s">
         <v>175</v>
       </c>
@@ -22649,8 +23347,12 @@
         <f>VLOOKUP($B77,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" s="14" t="str">
+        <f>VLOOKUP($B77,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="14" t="s">
         <v>177</v>
       </c>
@@ -22699,8 +23401,12 @@
         <f>VLOOKUP($B78,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" s="14" t="str">
+        <f>VLOOKUP($B78,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="14" t="s">
         <v>179</v>
       </c>
@@ -22749,8 +23455,12 @@
         <f>VLOOKUP($B79,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79" s="14" t="str">
+        <f>VLOOKUP($B79,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="14" t="s">
         <v>181</v>
       </c>
@@ -22799,8 +23509,12 @@
         <f>VLOOKUP($B80,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" s="14" t="str">
+        <f>VLOOKUP($B80,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="14" t="s">
         <v>183</v>
       </c>
@@ -22849,8 +23563,12 @@
         <f>VLOOKUP($B81,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" s="14" t="str">
+        <f>VLOOKUP($B81,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="14" t="s">
         <v>185</v>
       </c>
@@ -22899,8 +23617,12 @@
         <f>VLOOKUP($B82,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Pflanzenöle</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" s="14" t="str">
+        <f>VLOOKUP($B82,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Vegetable oils</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="14" t="s">
         <v>188</v>
       </c>
@@ -22940,8 +23662,12 @@
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" s="14" t="str">
+        <f>VLOOKUP($B83,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="14" t="s">
         <v>190</v>
       </c>
@@ -22981,8 +23707,12 @@
       </c>
       <c r="M84" s="14"/>
       <c r="N84" s="14"/>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84" s="14" t="str">
+        <f>VLOOKUP($B84,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="14" t="s">
         <v>192</v>
       </c>
@@ -23022,8 +23752,12 @@
       </c>
       <c r="M85" s="14"/>
       <c r="N85" s="14"/>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85" s="14" t="str">
+        <f>VLOOKUP($B85,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="14" t="s">
         <v>194</v>
       </c>
@@ -23063,8 +23797,12 @@
       </c>
       <c r="M86" s="14"/>
       <c r="N86" s="14"/>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86" s="14" t="str">
+        <f>VLOOKUP($B86,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="14" t="s">
         <v>196</v>
       </c>
@@ -23104,8 +23842,12 @@
       </c>
       <c r="M87" s="14"/>
       <c r="N87" s="14"/>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" s="14" t="str">
+        <f>VLOOKUP($B87,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="14" t="s">
         <v>198</v>
       </c>
@@ -23145,8 +23887,12 @@
       </c>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88" s="14" t="str">
+        <f>VLOOKUP($B88,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="14" t="s">
         <v>200</v>
       </c>
@@ -23186,8 +23932,12 @@
       </c>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89" s="14" t="str">
+        <f>VLOOKUP($B89,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="14" t="s">
         <v>202</v>
       </c>
@@ -23227,8 +23977,12 @@
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="14"/>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" s="14" t="str">
+        <f>VLOOKUP($B90,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="14" t="s">
         <v>204</v>
       </c>
@@ -23268,8 +24022,12 @@
       </c>
       <c r="M91" s="14"/>
       <c r="N91" s="14"/>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91" s="14" t="str">
+        <f>VLOOKUP($B91,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Oil cakes</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="14" t="s">
         <v>207</v>
       </c>
@@ -23318,8 +24076,12 @@
         <f>VLOOKUP($B92,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" s="14" t="str">
+        <f>VLOOKUP($B92,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Alcohol</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="14" t="s">
         <v>209</v>
       </c>
@@ -23368,8 +24130,12 @@
         <f>VLOOKUP($B93,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93" s="14" t="str">
+        <f>VLOOKUP($B93,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Alcohol</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="14" t="s">
         <v>211</v>
       </c>
@@ -23418,8 +24184,12 @@
         <f>VLOOKUP($B94,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94" s="14" t="str">
+        <f>VLOOKUP($B94,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Alcohol</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="14" t="s">
         <v>213</v>
       </c>
@@ -23468,8 +24238,12 @@
         <f>VLOOKUP($B95,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Andere</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95" s="14" t="str">
+        <f>VLOOKUP($B95,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Alcohol</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="14" t="s">
         <v>216</v>
       </c>
@@ -23509,8 +24283,12 @@
       </c>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96" s="14" t="str">
+        <f>VLOOKUP($B96,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Ethanol</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="14" t="s">
         <v>218</v>
       </c>
@@ -23550,8 +24328,12 @@
       </c>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" s="14" t="str">
+        <f>VLOOKUP($B97,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fibre crops</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="14" t="s">
         <v>223</v>
       </c>
@@ -23591,8 +24373,12 @@
       </c>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" s="14" t="str">
+        <f>VLOOKUP($B98,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="14" t="s">
         <v>225</v>
       </c>
@@ -23632,8 +24418,12 @@
       </c>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" s="14" t="str">
+        <f>VLOOKUP($B99,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="14" t="s">
         <v>227</v>
       </c>
@@ -23673,8 +24463,12 @@
       </c>
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" s="14" t="str">
+        <f>VLOOKUP($B100,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="14" t="s">
         <v>229</v>
       </c>
@@ -23714,8 +24508,12 @@
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" s="14" t="str">
+        <f>VLOOKUP($B101,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
         <v>231</v>
       </c>
@@ -23755,8 +24553,12 @@
       </c>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" s="14" t="str">
+        <f>VLOOKUP($B102,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="14" t="s">
         <v>233</v>
       </c>
@@ -23796,8 +24598,12 @@
       </c>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" s="14" t="str">
+        <f>VLOOKUP($B103,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="14" t="s">
         <v>235</v>
       </c>
@@ -23837,8 +24643,12 @@
       </c>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" s="14" t="str">
+        <f>VLOOKUP($B104,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="14" t="s">
         <v>237</v>
       </c>
@@ -23878,8 +24688,12 @@
       </c>
       <c r="M105" s="14"/>
       <c r="N105" s="14"/>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" s="14" t="str">
+        <f>VLOOKUP($B105,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="14" t="s">
         <v>239</v>
       </c>
@@ -23919,8 +24733,12 @@
       </c>
       <c r="M106" s="14"/>
       <c r="N106" s="14"/>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" s="14" t="str">
+        <f>VLOOKUP($B106,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="14" t="s">
         <v>241</v>
       </c>
@@ -23960,8 +24778,12 @@
       </c>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107" s="14" t="str">
+        <f>VLOOKUP($B107,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="14" t="s">
         <v>243</v>
       </c>
@@ -24001,8 +24823,12 @@
       </c>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108" s="14" t="str">
+        <f>VLOOKUP($B108,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="14" t="s">
         <v>245</v>
       </c>
@@ -24042,8 +24868,12 @@
       </c>
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109" s="14" t="str">
+        <f>VLOOKUP($B109,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="14" t="s">
         <v>247</v>
       </c>
@@ -24083,8 +24913,12 @@
       </c>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" s="14" t="str">
+        <f>VLOOKUP($B110,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Live animals</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="14" t="s">
         <v>252</v>
       </c>
@@ -24133,8 +24967,12 @@
         <f>VLOOKUP($B111,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Milchprodukte</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111" s="14" t="str">
+        <f>VLOOKUP($B111,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Dairy products</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="14" t="s">
         <v>254</v>
       </c>
@@ -24183,8 +25021,12 @@
         <f>VLOOKUP($B112,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Milchprodukte</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112" s="14" t="str">
+        <f>VLOOKUP($B112,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Dairy products</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="14" t="s">
         <v>256</v>
       </c>
@@ -24233,8 +25075,12 @@
         <f>VLOOKUP($B113,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Eier, Geflügel &amp; Fisch</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113" s="14" t="str">
+        <f>VLOOKUP($B113,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Eggs</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="14" t="s">
         <v>259</v>
       </c>
@@ -24274,8 +25120,12 @@
       </c>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114" s="14" t="str">
+        <f>VLOOKUP($B114,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Hides, skins, wool</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="14" t="s">
         <v>262</v>
       </c>
@@ -24324,8 +25174,12 @@
         <f>VLOOKUP($B115,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115" s="14" t="str">
+        <f>VLOOKUP($B115,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="14" t="s">
         <v>264</v>
       </c>
@@ -24374,8 +25228,12 @@
         <f>VLOOKUP($B116,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116" s="14" t="str">
+        <f>VLOOKUP($B116,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="14" t="s">
         <v>266</v>
       </c>
@@ -24424,8 +25282,12 @@
         <f>VLOOKUP($B117,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117" s="14" t="str">
+        <f>VLOOKUP($B117,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="14" t="s">
         <v>268</v>
       </c>
@@ -24474,8 +25336,12 @@
         <f>VLOOKUP($B118,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Eier, Geflügel &amp; Fisch</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118" s="14" t="str">
+        <f>VLOOKUP($B118,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="14" t="s">
         <v>270</v>
       </c>
@@ -24524,8 +25390,12 @@
         <f>VLOOKUP($B119,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119" s="14" t="str">
+        <f>VLOOKUP($B119,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="14" t="s">
         <v>272</v>
       </c>
@@ -24574,8 +25444,12 @@
         <f>VLOOKUP($B120,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Fleisch</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120" s="14" t="str">
+        <f>VLOOKUP($B120,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="14" t="s">
         <v>275</v>
       </c>
@@ -24624,8 +25498,12 @@
         <f>VLOOKUP($B121,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Tierische Fette</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" s="14" t="str">
+        <f>VLOOKUP($B121,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="14" t="s">
         <v>277</v>
       </c>
@@ -24665,8 +25543,12 @@
       </c>
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122" s="14" t="str">
+        <f>VLOOKUP($B122,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Hides, skins, wool</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="42" t="s">
         <v>279</v>
       </c>
@@ -24709,8 +25591,11 @@
       <c r="N123" s="42" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="14" t="s">
         <v>281</v>
       </c>
@@ -24759,8 +25644,12 @@
         <f>VLOOKUP($B124,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Zucker</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124" s="14" t="str">
+        <f>VLOOKUP($B124,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Sugar and sweeteners</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="14" t="s">
         <v>389</v>
       </c>
@@ -24800,8 +25689,12 @@
       </c>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125" s="14" t="str">
+        <f>VLOOKUP($B125,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Hides, skins, wool</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="14" t="s">
         <v>390</v>
       </c>
@@ -24849,6 +25742,10 @@
       <c r="N126" s="14" t="str">
         <f>VLOOKUP($B126,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Eier, Geflügel &amp; Fisch</v>
+      </c>
+      <c r="O126" s="14" t="str">
+        <f>VLOOKUP($B126,items_german!$B$2:$N$124,13,FALSE)</f>
+        <v>Fish</v>
       </c>
     </row>
   </sheetData>
@@ -24861,10 +25758,10 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="8"/>
@@ -24887,7 +25784,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="42" t="s">
         <v>461</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -25054,218 +25951,291 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="2" max="2" width="26.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="57" t="s">
         <v>679</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>678</v>
       </c>
-      <c r="C5" s="44"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>559</v>
       </c>
-      <c r="C23" s="44"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
+      <c r="D23" s="44"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="14"/>
+    <row r="25" spans="1:4">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25275,216 +26245,584 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="2" max="2" width="26.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="57" t="s">
         <v>679</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="14"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" s="14"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="14"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25497,10 +26835,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -26241,7 +27579,7 @@
       <selection activeCell="B17" sqref="A15:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -27297,7 +28635,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -27492,7 +28830,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -28466,10 +29804,10 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
@@ -29247,16 +30585,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" style="33" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -31406,7 +32745,7 @@
       <selection activeCell="D64" sqref="D64:F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="14"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -33798,11 +35137,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J22"/>
+    <sheetView zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -34558,7 +35900,7 @@
         <v>Legumes</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -34600,7 +35942,7 @@
         <v>Legumes</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -34642,7 +35984,7 @@
         <v>Legumes</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -34684,7 +36026,7 @@
         <v>Vegetable oils, nuts and seeds</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:12">

--- a/inst/items_conc.xlsx
+++ b/inst/items_conc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="concordance" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6517" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6492" uniqueCount="705">
   <si>
     <t>comm_code</t>
   </si>
@@ -1935,9 +1935,6 @@
     <t>70 - 100</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>assuming  3 Portions</t>
   </si>
   <si>
@@ -1959,12 +1956,6 @@
     <t>&lt;=1/week</t>
   </si>
   <si>
-    <t>all other meat types</t>
-  </si>
-  <si>
-    <t>only include poultry here</t>
-  </si>
-  <si>
     <t>assuming 7g per cup</t>
   </si>
   <si>
@@ -2127,18 +2118,6 @@
     <t>assumed 1 - average edible flesh share across all fish species</t>
   </si>
   <si>
-    <t>200-250</t>
-  </si>
-  <si>
-    <t>100-200</t>
-  </si>
-  <si>
-    <t>70-100</t>
-  </si>
-  <si>
-    <t>125-150</t>
-  </si>
-  <si>
     <t>eat_group_fin_2</t>
   </si>
   <si>
@@ -2170,6 +2149,18 @@
   </si>
   <si>
     <t>Dairy products</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>only include poultry here and assume 2 Portions of size 125 g</t>
+  </si>
+  <si>
+    <t>all other meat types, assuming 1 Potion of 125 g</t>
+  </si>
+  <si>
+    <t>100-150</t>
   </si>
 </sst>
 </file>
@@ -2857,7 +2848,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2946,7 +2937,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2984,7 +2974,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3000,6 +2989,13 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3359,11 +3355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18:R28"/>
+      <selection pane="bottomRight" activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3428,7 +3424,7 @@
         <v>370</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>321</v>
@@ -3437,7 +3433,7 @@
         <v>601</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>364</v>
@@ -4375,13 +4371,13 @@
         <v>299</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>610</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="R18" s="14" t="s">
         <v>381</v>
@@ -4431,13 +4427,13 @@
         <v>299</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>610</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="R19" s="14" t="s">
         <v>381</v>
@@ -4487,13 +4483,13 @@
         <v>299</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>610</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="R20" s="14" t="s">
         <v>381</v>
@@ -4543,7 +4539,7 @@
         <v>299</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>608</v>
@@ -4599,13 +4595,13 @@
         <v>299</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>610</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="R22" s="14" t="s">
         <v>381</v>
@@ -4657,7 +4653,7 @@
       <c r="O23" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="P23" s="57" t="s">
+      <c r="P23" s="56" t="s">
         <v>608</v>
       </c>
       <c r="Q23" s="33" t="s">
@@ -4711,7 +4707,7 @@
         <v>299</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>608</v>
@@ -4765,7 +4761,7 @@
         <v>299</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P25" s="17" t="s">
         <v>608</v>
@@ -4863,7 +4859,7 @@
         <v>299</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P27" s="17" t="s">
         <v>608</v>
@@ -4917,7 +4913,7 @@
         <v>299</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P28" s="33" t="s">
         <v>608</v>
@@ -5069,13 +5065,13 @@
         <v>299</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>288</v>
+        <v>692</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>608</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>381</v>
@@ -5905,10 +5901,10 @@
       <c r="O46" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P46" s="57" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q46" s="57" t="s">
+      <c r="P46" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q46" s="56" t="s">
         <v>611</v>
       </c>
       <c r="R46" s="14" t="s">
@@ -5955,11 +5951,11 @@
       <c r="O47" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P47" s="57" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q47" s="57" t="s">
-        <v>688</v>
+      <c r="P47" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q47" s="56" t="s">
+        <v>685</v>
       </c>
       <c r="R47" s="14" t="s">
         <v>106</v>
@@ -6005,11 +6001,11 @@
       <c r="O48" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P48" s="57" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q48" s="57" t="s">
-        <v>659</v>
+      <c r="P48" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q48" s="56" t="s">
+        <v>656</v>
       </c>
       <c r="R48" s="14" t="s">
         <v>106</v>
@@ -6048,16 +6044,16 @@
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="69" t="s">
+      <c r="N49" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="O49" s="69" t="s">
+      <c r="O49" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="P49" s="57" t="s">
+      <c r="P49" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="Q49" s="57" t="s">
+      <c r="Q49" s="56" t="s">
         <v>383</v>
       </c>
       <c r="R49" s="14" t="s">
@@ -6104,16 +6100,16 @@
       <c r="M50" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N50" s="69" t="s">
+      <c r="N50" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="O50" s="69" t="s">
+      <c r="O50" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="P50" s="57" t="s">
+      <c r="P50" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="Q50" s="57" t="s">
+      <c r="Q50" s="56" t="s">
         <v>383</v>
       </c>
       <c r="R50" s="14" t="s">
@@ -6160,16 +6156,16 @@
       <c r="M51" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N51" s="69" t="s">
+      <c r="N51" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="O51" s="69" t="s">
+      <c r="O51" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="P51" s="57" t="s">
+      <c r="P51" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="Q51" s="57" t="s">
+      <c r="Q51" s="56" t="s">
         <v>383</v>
       </c>
       <c r="R51" s="14" t="s">
@@ -6216,16 +6212,16 @@
       <c r="M52" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="69" t="s">
+      <c r="N52" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="O52" s="69" t="s">
+      <c r="O52" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="P52" s="57" t="s">
+      <c r="P52" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="Q52" s="57" t="s">
+      <c r="Q52" s="56" t="s">
         <v>383</v>
       </c>
       <c r="R52" s="14" t="s">
@@ -6272,16 +6268,16 @@
       <c r="M53" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N53" s="69" t="s">
+      <c r="N53" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="O53" s="69" t="s">
+      <c r="O53" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="P53" s="57" t="s">
+      <c r="P53" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="Q53" s="57" t="s">
+      <c r="Q53" s="56" t="s">
         <v>383</v>
       </c>
       <c r="R53" s="14" t="s">
@@ -6703,7 +6699,7 @@
         <v>299</v>
       </c>
       <c r="O65" s="34" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P65" s="17" t="s">
         <v>608</v>
@@ -7963,10 +7959,10 @@
       <c r="O91" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P91" s="64" t="s">
+      <c r="P91" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="Q91" s="64" t="s">
+      <c r="Q91" s="63" t="s">
         <v>205</v>
       </c>
       <c r="R91" s="14" t="s">
@@ -8019,11 +8015,11 @@
       <c r="O92" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P92" s="64" t="s">
+      <c r="P92" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="Q92" s="64" t="s">
-        <v>672</v>
+      <c r="Q92" s="63" t="s">
+        <v>669</v>
       </c>
       <c r="R92" s="14" t="s">
         <v>206</v>
@@ -8075,11 +8071,11 @@
       <c r="O93" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P93" s="64" t="s">
+      <c r="P93" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="Q93" s="64" t="s">
-        <v>672</v>
+      <c r="Q93" s="63" t="s">
+        <v>669</v>
       </c>
       <c r="R93" s="14" t="s">
         <v>206</v>
@@ -8131,11 +8127,11 @@
       <c r="O94" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="P94" s="64" t="s">
+      <c r="P94" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="Q94" s="64" t="s">
-        <v>670</v>
+      <c r="Q94" s="63" t="s">
+        <v>667</v>
       </c>
       <c r="R94" s="14" t="s">
         <v>206</v>
@@ -9414,13 +9410,13 @@
         <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9789,10 +9785,10 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -9988,10 +9984,10 @@
         <v>0.27</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -10012,10 +10008,10 @@
         <v>0.27</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -10036,10 +10032,10 @@
         <v>0.27</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -10060,7 +10056,7 @@
         <v>0.27</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G35" s="14"/>
     </row>
@@ -10082,7 +10078,7 @@
         <v>0.27</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G36" s="14"/>
     </row>
@@ -10104,7 +10100,7 @@
         <v>0.27</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G37" s="14"/>
     </row>
@@ -10126,7 +10122,7 @@
         <v>0.27</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G38" s="14"/>
     </row>
@@ -10148,7 +10144,7 @@
         <v>0.27</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G39" s="14"/>
     </row>
@@ -10170,7 +10166,7 @@
         <v>0.27</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G40" s="14"/>
     </row>
@@ -10192,7 +10188,7 @@
         <v>0.27</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G41" s="14"/>
     </row>
@@ -10214,7 +10210,7 @@
         <v>0.27</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G42" s="14"/>
     </row>
@@ -10236,7 +10232,7 @@
         <v>0.27</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G43" s="14"/>
     </row>
@@ -10258,7 +10254,7 @@
         <v>0.27</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G44" s="14"/>
     </row>
@@ -10280,7 +10276,7 @@
         <v>0.27</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G45" s="14"/>
     </row>
@@ -10302,7 +10298,7 @@
         <v>0.3</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -10323,7 +10319,7 @@
         <v>0.2</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -11439,7 +11435,7 @@
         <v>0.34</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -11459,7 +11455,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -11479,7 +11475,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -11499,7 +11495,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -11519,7 +11515,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -11539,7 +11535,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -11592,7 +11588,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -11645,11 +11641,11 @@
       <c r="E126" s="14">
         <v>0.45</v>
       </c>
-      <c r="F126" s="52" t="s">
-        <v>691</v>
+      <c r="F126" s="51" t="s">
+        <v>688</v>
       </c>
       <c r="G126" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -11676,11 +11672,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
@@ -14214,8 +14210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="G97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14264,7 +14260,7 @@
         <v>485</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>486</v>
@@ -14276,7 +14272,7 @@
         <v>488</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -14931,7 +14927,7 @@
         <v>484</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -14970,7 +14966,7 @@
         <v>484</v>
       </c>
       <c r="N17" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -15004,8 +15000,8 @@
       <c r="J18" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K18" s="57" t="s">
-        <v>674</v>
+      <c r="K18" s="56" t="s">
+        <v>671</v>
       </c>
       <c r="L18" s="41" t="s">
         <v>480</v>
@@ -15013,8 +15009,8 @@
       <c r="M18" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N18" s="57" t="s">
-        <v>658</v>
+      <c r="N18" s="56" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -15048,8 +15044,8 @@
       <c r="J19" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K19" s="57" t="s">
-        <v>674</v>
+      <c r="K19" s="56" t="s">
+        <v>671</v>
       </c>
       <c r="L19" s="41" t="s">
         <v>480</v>
@@ -15057,8 +15053,8 @@
       <c r="M19" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N19" s="57" t="s">
-        <v>658</v>
+      <c r="N19" s="56" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -15092,8 +15088,8 @@
       <c r="J20" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K20" s="57" t="s">
-        <v>674</v>
+      <c r="K20" s="56" t="s">
+        <v>671</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>480</v>
@@ -15101,8 +15097,8 @@
       <c r="M20" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N20" s="57" t="s">
-        <v>658</v>
+      <c r="N20" s="56" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -15136,8 +15132,8 @@
       <c r="J21" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K21" s="57" t="s">
-        <v>679</v>
+      <c r="K21" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L21" s="41" t="s">
         <v>480</v>
@@ -15145,8 +15141,8 @@
       <c r="M21" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N21" s="57" t="s">
-        <v>702</v>
+      <c r="N21" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -15180,8 +15176,8 @@
       <c r="J22" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K22" s="57" t="s">
-        <v>674</v>
+      <c r="K22" s="56" t="s">
+        <v>671</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>480</v>
@@ -15189,8 +15185,8 @@
       <c r="M22" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N22" s="57" t="s">
-        <v>658</v>
+      <c r="N22" s="56" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -15224,8 +15220,8 @@
       <c r="J23" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K23" s="57" t="s">
-        <v>679</v>
+      <c r="K23" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>480</v>
@@ -15233,8 +15229,8 @@
       <c r="M23" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N23" s="57" t="s">
-        <v>702</v>
+      <c r="N23" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -15268,8 +15264,8 @@
       <c r="J24" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K24" s="57" t="s">
-        <v>679</v>
+      <c r="K24" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>480</v>
@@ -15277,8 +15273,8 @@
       <c r="M24" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N24" s="57" t="s">
-        <v>702</v>
+      <c r="N24" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -15312,8 +15308,8 @@
       <c r="J25" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K25" s="57" t="s">
-        <v>679</v>
+      <c r="K25" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L25" s="41" t="s">
         <v>480</v>
@@ -15321,8 +15317,8 @@
       <c r="M25" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N25" s="57" t="s">
-        <v>702</v>
+      <c r="N25" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -15354,15 +15350,15 @@
       <c r="J26" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K26" s="57" t="s">
-        <v>679</v>
+      <c r="K26" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>480</v>
       </c>
       <c r="M26" s="14"/>
-      <c r="N26" s="57" t="s">
-        <v>702</v>
+      <c r="N26" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -15396,8 +15392,8 @@
       <c r="J27" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K27" s="57" t="s">
-        <v>679</v>
+      <c r="K27" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L27" s="41" t="s">
         <v>480</v>
@@ -15405,8 +15401,8 @@
       <c r="M27" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N27" s="57" t="s">
-        <v>702</v>
+      <c r="N27" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -15440,8 +15436,8 @@
       <c r="J28" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K28" s="57" t="s">
-        <v>679</v>
+      <c r="K28" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>480</v>
@@ -15449,8 +15445,8 @@
       <c r="M28" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N28" s="57" t="s">
-        <v>702</v>
+      <c r="N28" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -15482,15 +15478,15 @@
       <c r="J29" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K29" s="57" t="s">
-        <v>679</v>
+      <c r="K29" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L29" s="41" t="s">
         <v>475</v>
       </c>
       <c r="M29" s="14"/>
-      <c r="N29" s="57" t="s">
-        <v>702</v>
+      <c r="N29" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -15524,7 +15520,7 @@
       <c r="J30" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="56" t="s">
         <v>550</v>
       </c>
       <c r="L30" s="41" t="s">
@@ -15533,8 +15529,8 @@
       <c r="M30" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="N30" s="57" t="s">
-        <v>703</v>
+      <c r="N30" s="56" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -15568,8 +15564,8 @@
       <c r="J31" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K31" s="57" t="s">
-        <v>679</v>
+      <c r="K31" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L31" s="41" t="s">
         <v>475</v>
@@ -15577,8 +15573,8 @@
       <c r="M31" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N31" s="57" t="s">
-        <v>702</v>
+      <c r="N31" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -15622,7 +15618,7 @@
         <v>475</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -15666,7 +15662,7 @@
         <v>475</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -15710,7 +15706,7 @@
         <v>475</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -15754,7 +15750,7 @@
         <v>554</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -15798,7 +15794,7 @@
         <v>554</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -15842,7 +15838,7 @@
         <v>554</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -15886,7 +15882,7 @@
         <v>554</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -15930,7 +15926,7 @@
         <v>554</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -15974,7 +15970,7 @@
         <v>554</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -16018,7 +16014,7 @@
         <v>554</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -16062,7 +16058,7 @@
         <v>554</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -16106,7 +16102,7 @@
         <v>554</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -16150,7 +16146,7 @@
         <v>554</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -16194,7 +16190,7 @@
         <v>554</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -16345,8 +16341,8 @@
       <c r="J49" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K49" s="57" t="s">
-        <v>676</v>
+      <c r="K49" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="L49" s="41" t="s">
         <v>475</v>
@@ -16354,7 +16350,7 @@
       <c r="M49" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="N49" s="57" t="s">
+      <c r="N49" s="56" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16389,8 +16385,8 @@
       <c r="J50" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K50" s="57" t="s">
-        <v>676</v>
+      <c r="K50" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="L50" s="41" t="s">
         <v>475</v>
@@ -16398,7 +16394,7 @@
       <c r="M50" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="N50" s="57" t="s">
+      <c r="N50" s="56" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16433,8 +16429,8 @@
       <c r="J51" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K51" s="57" t="s">
-        <v>676</v>
+      <c r="K51" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="L51" s="41" t="s">
         <v>475</v>
@@ -16442,7 +16438,7 @@
       <c r="M51" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="N51" s="57" t="s">
+      <c r="N51" s="56" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16477,8 +16473,8 @@
       <c r="J52" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K52" s="57" t="s">
-        <v>676</v>
+      <c r="K52" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="L52" s="41" t="s">
         <v>475</v>
@@ -16486,7 +16482,7 @@
       <c r="M52" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="N52" s="57" t="s">
+      <c r="N52" s="56" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16521,8 +16517,8 @@
       <c r="J53" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="K53" s="57" t="s">
-        <v>676</v>
+      <c r="K53" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="L53" s="41" t="s">
         <v>475</v>
@@ -16530,7 +16526,7 @@
       <c r="M53" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="N53" s="57" t="s">
+      <c r="N53" s="56" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16776,7 +16772,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -16811,7 +16807,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -16846,7 +16842,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -16881,7 +16877,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -16951,8 +16947,8 @@
       <c r="J65" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="K65" s="57" t="s">
-        <v>679</v>
+      <c r="K65" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="L65" s="41" t="s">
         <v>475</v>
@@ -16960,8 +16956,8 @@
       <c r="M65" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="N65" s="57" t="s">
-        <v>702</v>
+      <c r="N65" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -17005,7 +17001,7 @@
         <v>484</v>
       </c>
       <c r="N66" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -17049,7 +17045,7 @@
         <v>484</v>
       </c>
       <c r="N67" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -17093,7 +17089,7 @@
         <v>484</v>
       </c>
       <c r="N68" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -18725,7 +18721,7 @@
         <v>552</v>
       </c>
       <c r="N110" s="39" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -18769,7 +18765,7 @@
         <v>552</v>
       </c>
       <c r="N111" s="39" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -19236,7 +19232,7 @@
         <v>484</v>
       </c>
       <c r="N122" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -19381,7 +19377,7 @@
         <v>485</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>486</v>
@@ -19393,7 +19389,7 @@
         <v>488</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20500,7 +20496,7 @@
         <f>VLOOKUP($B22,items_german!$B$2:$M$124,9,FALSE)</f>
         <v>Ölfrüchte</v>
       </c>
-      <c r="L22" s="57" t="str">
+      <c r="L22" s="56" t="str">
         <f>VLOOKUP($B22,items_german!$B$2:$M$124,10,FALSE)</f>
         <v>Hülsenfrüchte</v>
       </c>
@@ -20512,7 +20508,7 @@
         <f>VLOOKUP($B22,items_german!$B$2:$M$124,12,FALSE)</f>
         <v>Nüsse, Ölsaaten &amp; Hülsenfrüchte</v>
       </c>
-      <c r="O22" s="57" t="str">
+      <c r="O22" s="56" t="str">
         <f>VLOOKUP($B22,items_german!$B$2:$N$124,13,FALSE)</f>
         <v>Legumes</v>
       </c>
@@ -20551,8 +20547,8 @@
       <c r="K23" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="L23" s="57" t="s">
-        <v>679</v>
+      <c r="L23" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="M23" s="42" t="s">
         <v>480</v>
@@ -20560,8 +20556,8 @@
       <c r="N23" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="O23" s="57" t="s">
-        <v>702</v>
+      <c r="O23" s="56" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -22816,7 +22812,7 @@
         <v>484</v>
       </c>
       <c r="O67" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -22863,7 +22859,7 @@
         <v>484</v>
       </c>
       <c r="O68" s="45" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -26000,30 +25996,30 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>677</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="57" t="s">
-        <v>679</v>
+      <c r="A5" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>57</v>
@@ -26037,10 +26033,10 @@
         <v>550</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
@@ -26059,7 +26055,7 @@
         <v>465</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>562</v>
@@ -26070,7 +26066,7 @@
         <v>419</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>562</v>
@@ -26081,7 +26077,7 @@
         <v>466</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>562</v>
@@ -26136,7 +26132,7 @@
         <v>552</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>564</v>
@@ -26188,13 +26184,13 @@
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>383</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
@@ -26213,7 +26209,7 @@
         <v>570</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>559</v>
@@ -26228,7 +26224,7 @@
         <v>206</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -26294,29 +26290,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>677</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="57" t="s">
-        <v>679</v>
+      <c r="A5" s="56" t="s">
+        <v>676</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>57</v>
@@ -26330,10 +26326,10 @@
         <v>550</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -26352,7 +26348,7 @@
         <v>465</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>562</v>
@@ -26363,7 +26359,7 @@
         <v>419</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>562</v>
@@ -26374,7 +26370,7 @@
         <v>466</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>562</v>
@@ -26429,7 +26425,7 @@
         <v>552</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>564</v>
@@ -26481,13 +26477,13 @@
     </row>
     <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>383</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -26506,10 +26502,10 @@
         <v>570</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F23"/>
     </row>
@@ -26521,7 +26517,7 @@
         <v>206</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F24"/>
     </row>
@@ -26851,13 +26847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
@@ -26882,7 +26878,7 @@
         <v>371</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>361</v>
@@ -27304,7 +27300,7 @@
         <v>347</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -27336,7 +27332,7 @@
         <v>347</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -27400,7 +27396,7 @@
         <v>347</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -27536,7 +27532,7 @@
         <v>300</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>358</v>
@@ -27575,8 +27571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="A15:B17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -27592,7 +27588,7 @@
     <col min="12" max="12" width="8.85546875" style="14" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="14" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34" style="14" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" style="14" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" style="14" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="14" customWidth="1"/>
     <col min="18" max="18" width="74.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -27600,62 +27596,62 @@
     <col min="20" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="53" customFormat="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:20" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>602</v>
-      </c>
-      <c r="C1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>661</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>663</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>664</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>654</v>
-      </c>
-      <c r="J1" s="53" t="s">
+      <c r="H1" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>651</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="K1" s="53" t="s">
-        <v>634</v>
-      </c>
-      <c r="L1" s="53" t="s">
+      <c r="K1" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="Q1" s="53" t="s">
-        <v>655</v>
-      </c>
-      <c r="R1" s="53" t="s">
+      <c r="Q1" s="52" t="s">
+        <v>652</v>
+      </c>
+      <c r="R1" s="52" t="s">
         <v>594</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="52" t="s">
         <v>592</v>
       </c>
     </row>
@@ -27681,10 +27677,10 @@
       <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="50">
         <v>50</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="50">
         <v>50</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -27695,11 +27691,12 @@
       </c>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
-      <c r="N2" s="48">
+      <c r="N2" s="61">
+        <f>epo_overview!G2*epo_overview!K2</f>
         <v>50</v>
       </c>
-      <c r="O2" s="63" t="s">
-        <v>631</v>
+      <c r="O2" s="62" t="s">
+        <v>630</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
@@ -27720,44 +27717,44 @@
       <c r="E3" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="I3" s="68">
         <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>629</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="57">
         <f>I3*P3</f>
-        <v>20.25</v>
-      </c>
-      <c r="L3" s="61"/>
+        <v>13.5</v>
+      </c>
+      <c r="L3" s="60"/>
       <c r="M3" s="48" t="s">
         <v>574</v>
       </c>
-      <c r="N3" s="62">
-        <f>I3*P3</f>
+      <c r="N3" s="61">
+        <f>epo_overview!G3*epo_overview!K3</f>
         <v>20.25</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="P3" s="33">
         <v>13.5</v>
       </c>
       <c r="Q3" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>632</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>633</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="33"/>
@@ -27784,10 +27781,10 @@
       <c r="G4" s="33">
         <v>1</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="55">
         <v>22.5</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="55">
         <v>22.5</v>
       </c>
       <c r="J4" s="33" t="s">
@@ -27796,15 +27793,16 @@
       <c r="K4" s="33">
         <v>22.5</v>
       </c>
-      <c r="L4" s="61"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="48" t="s">
         <v>577</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="61">
+        <f>epo_overview!G4*epo_overview!K4</f>
         <v>22.5</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -27823,17 +27821,17 @@
       <c r="E5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>612</v>
       </c>
       <c r="G5" s="49">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="55">
         <v>150</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="55">
         <v>150</v>
       </c>
       <c r="J5" s="36" t="s">
@@ -27847,8 +27845,8 @@
         <v>300</v>
       </c>
       <c r="M5" s="48"/>
-      <c r="N5" s="50">
-        <f>G5*K5</f>
+      <c r="N5" s="74">
+        <f>epo_overview!G5*epo_overview!K5</f>
         <v>42.857142857142854</v>
       </c>
       <c r="O5" s="14" t="s">
@@ -27871,17 +27869,17 @@
       <c r="E6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>613</v>
       </c>
       <c r="G6" s="49">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="55">
         <v>1</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>1</v>
       </c>
       <c r="J6" s="36" t="s">
@@ -27895,12 +27893,12 @@
         <v>174</v>
       </c>
       <c r="M6" s="48"/>
-      <c r="N6" s="50">
-        <f>K6*G6</f>
+      <c r="N6" s="74">
+        <f>epo_overview!G6*epo_overview!K6</f>
         <v>24.857142857142854</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P6" s="14">
         <v>58</v>
@@ -27931,37 +27929,37 @@
       <c r="E7" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
         <v>613</v>
       </c>
       <c r="G7" s="49">
-        <f>3/7</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="H7" s="51">
-        <v>150</v>
-      </c>
-      <c r="I7" s="51">
-        <v>150</v>
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>704</v>
+      </c>
+      <c r="I7" s="50">
+        <v>125</v>
       </c>
       <c r="J7" s="36" t="s">
         <v>623</v>
       </c>
       <c r="K7" s="36">
         <f>I7</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="L7" s="48">
-        <f>I7*3</f>
-        <v>450</v>
+        <f>I7*2</f>
+        <v>250</v>
       </c>
       <c r="M7" s="48"/>
-      <c r="N7" s="50">
-        <f>K7*G7</f>
-        <v>64.285714285714278</v>
+      <c r="N7" s="74">
+        <f>epo_overview!G7*epo_overview!K7</f>
+        <v>35.714285714285715</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -27980,37 +27978,37 @@
       <c r="E8" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="G8" s="59">
+      <c r="F8" s="55" t="s">
+        <v>635</v>
+      </c>
+      <c r="G8" s="58">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H8" s="60">
-        <v>150</v>
-      </c>
-      <c r="I8" s="60">
-        <v>150</v>
+      <c r="H8" s="50" t="s">
+        <v>704</v>
+      </c>
+      <c r="I8" s="59">
+        <v>125</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>623</v>
       </c>
       <c r="K8" s="36">
-        <f>H8</f>
-        <v>150</v>
+        <f>I8</f>
+        <v>125</v>
       </c>
       <c r="L8" s="48">
         <f>1*K8</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="M8" s="48"/>
-      <c r="N8" s="50">
-        <f>G8*K8</f>
-        <v>21.428571428571427</v>
+      <c r="N8" s="74">
+        <f>epo_overview!G8*epo_overview!K8</f>
+        <v>17.857142857142858</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -28029,16 +28027,16 @@
       <c r="E9" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <v>4</v>
       </c>
       <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <v>200</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="50">
         <v>200</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -28052,12 +28050,12 @@
       <c r="M9" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="N9" s="48">
-        <f>K9*G9</f>
+      <c r="N9" s="75">
+        <f>epo_overview!G9*epo_overview!K9</f>
         <v>824</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="P9" s="14">
         <v>1.03</v>
@@ -28085,16 +28083,16 @@
       <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="54">
         <v>4</v>
       </c>
       <c r="G10" s="46">
         <v>4</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="50" t="s">
         <v>626</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <v>55</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -28126,16 +28124,16 @@
       <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="54">
         <v>4</v>
       </c>
       <c r="G11" s="46">
         <v>4</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="50" t="s">
         <v>627</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <v>225</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -28151,7 +28149,7 @@
         <v>620</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -28163,7 +28161,7 @@
         <v>587</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>590</v>
@@ -28174,16 +28172,16 @@
       <c r="E12" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="54">
         <v>3</v>
       </c>
       <c r="G12" s="46">
         <v>3</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <v>150</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -28208,7 +28206,7 @@
         <v>587</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>589</v>
@@ -28217,18 +28215,18 @@
         <v>610</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="F13" s="55">
+        <v>655</v>
+      </c>
+      <c r="F13" s="54">
         <v>3</v>
       </c>
       <c r="G13" s="46">
         <v>3</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="50" t="s">
         <v>628</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <f>(70+100)/2</f>
         <v>85</v>
       </c>
@@ -28265,16 +28263,16 @@
       <c r="E14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <v>2</v>
       </c>
       <c r="G14" s="14">
         <v>2</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <f>(125+150)/2</f>
         <v>137.5</v>
       </c>
@@ -28287,12 +28285,12 @@
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-      <c r="N14" s="48">
-        <f>K14*F14</f>
+      <c r="N14" s="75">
+        <f>epo_overview!G14*epo_overview!K14</f>
         <v>275</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -28301,34 +28299,34 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>518</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>358</v>
       </c>
       <c r="H15" s="33">
         <v>1</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="59">
         <v>1</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K15" s="33">
         <v>7</v>
@@ -28336,10 +28334,10 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
@@ -28348,34 +28346,34 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>520</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="F16" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="F16" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="65" t="s">
         <v>358</v>
       </c>
       <c r="H16" s="33">
         <v>1</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="59">
         <v>1</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K16" s="33">
         <v>3</v>
@@ -28383,10 +28381,10 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
@@ -28395,30 +28393,38 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="F17" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F17" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="H17" s="33">
+        <v>1</v>
+      </c>
+      <c r="I17" s="59">
+        <v>1</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="K17" s="59">
+        <v>6</v>
+      </c>
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
@@ -28436,18 +28442,18 @@
         <v>469</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>206</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="F18" s="65" t="s">
+        <v>669</v>
+      </c>
+      <c r="F18" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="65" t="s">
         <v>358</v>
       </c>
       <c r="H18" s="33">
@@ -28465,12 +28471,12 @@
       </c>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
-      <c r="N18" s="48" t="e">
-        <f>K18*G18</f>
+      <c r="N18" s="75" t="e">
+        <f>epo_overview!G18*epo_overview!K18</f>
         <v>#VALUE!</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P18" s="14">
         <v>1.01</v>
@@ -28498,10 +28504,10 @@
       <c r="E19" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="65" t="s">
         <v>358</v>
       </c>
       <c r="H19" s="33">
@@ -28519,12 +28525,12 @@
       </c>
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
-      <c r="N19" s="48" t="e">
-        <f>K19*G18</f>
+      <c r="N19" s="75" t="e">
+        <f>epo_overview!G19*epo_overview!K19</f>
         <v>#VALUE!</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P19" s="14">
         <v>0.99</v>
@@ -28544,25 +28550,25 @@
         <v>469</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>206</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="F20" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="F20" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="66">
         <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="66">
         <f>H20*1000</f>
         <v>60</v>
       </c>
@@ -28575,12 +28581,12 @@
       </c>
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
-      <c r="N20" s="48" t="e">
-        <f>K20*G19</f>
+      <c r="N20" s="75" t="e">
+        <f>epo_overview!G20*epo_overview!K20</f>
         <v>#VALUE!</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="P20" s="14">
         <v>0.95</v>
@@ -28594,13 +28600,13 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>383</v>
@@ -28608,22 +28614,25 @@
       <c r="E21" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="65" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G6 K9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -28632,7 +28641,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -28643,15 +28652,15 @@
     <col min="4" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="53" customFormat="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:3" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>635</v>
+      <c r="C1" s="52" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28662,6 +28671,7 @@
         <v>298</v>
       </c>
       <c r="C2" s="14">
+        <f>epo_overview!G2</f>
         <v>1</v>
       </c>
     </row>
@@ -28673,7 +28683,8 @@
         <v>608</v>
       </c>
       <c r="C3" s="14">
-        <v>1</v>
+        <f>epo_overview!G3</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -28683,7 +28694,8 @@
       <c r="B4" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="73">
+        <f>epo_overview!G4</f>
         <v>1</v>
       </c>
     </row>
@@ -28695,7 +28707,7 @@
         <v>283</v>
       </c>
       <c r="C5" s="49">
-        <f>2/7</f>
+        <f>epo_overview!G5</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -28707,7 +28719,7 @@
         <v>255</v>
       </c>
       <c r="C6" s="49">
-        <f>3/7</f>
+        <f>epo_overview!G6</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -28719,8 +28731,8 @@
         <v>606</v>
       </c>
       <c r="C7" s="49">
-        <f>3/7</f>
-        <v>0.42857142857142855</v>
+        <f>epo_overview!G7</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -28730,8 +28742,8 @@
       <c r="B8" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="C8" s="59">
-        <f>1/7</f>
+      <c r="C8" s="49">
+        <f>epo_overview!G8</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -28742,7 +28754,8 @@
       <c r="B9" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="73">
+        <f>epo_overview!G9</f>
         <v>4</v>
       </c>
     </row>
@@ -28753,18 +28766,20 @@
       <c r="B10" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="73">
+        <f>epo_overview!G10</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="73">
+        <f>epo_overview!G12</f>
         <v>3</v>
       </c>
     </row>
@@ -28775,18 +28790,19 @@
       <c r="B12" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="73">
+        <f>epo_overview!G14</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="C13" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>358</v>
       </c>
     </row>
@@ -28797,7 +28813,7 @@
       <c r="B14" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>358</v>
       </c>
     </row>
@@ -28813,8 +28829,8 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28827,7 +28843,7 @@
   <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -28842,36 +28858,36 @@
     <col min="11" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="53" customFormat="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" s="52" customFormat="1">
+      <c r="A1" s="52" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>661</v>
-      </c>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>601</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>665</v>
-      </c>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>654</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="E1" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="H1" s="53" t="s">
-        <v>634</v>
-      </c>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="J1" s="53" t="s">
-        <v>655</v>
+      <c r="J1" s="52" t="s">
+        <v>652</v>
       </c>
       <c r="L1" s="33"/>
     </row>
@@ -28888,18 +28904,23 @@
       <c r="D2" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
+        <f>epo_overview!H2</f>
         <v>50</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="50">
+        <f>epo_overview!I2</f>
         <v>50</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="G2" s="50" t="str">
+        <f>epo_overview!J2</f>
+        <v>g</v>
+      </c>
+      <c r="H2" s="50">
+        <f>epo_overview!K2</f>
         <v>50</v>
       </c>
+      <c r="I2" s="50"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
@@ -28916,24 +28937,27 @@
       <c r="D3" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="F3" s="70">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>615</v>
-      </c>
-      <c r="H3" s="58">
-        <f>F3*I3</f>
-        <v>20.25</v>
+      <c r="E3" s="50" t="str">
+        <f>epo_overview!H3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="50">
+        <f>epo_overview!I3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="50" t="str">
+        <f>epo_overview!J3</f>
+        <v>tablespoon</v>
+      </c>
+      <c r="H3" s="50">
+        <f>epo_overview!K3</f>
+        <v>13.5</v>
       </c>
       <c r="I3" s="33">
         <v>13.5</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="36"/>
@@ -28951,16 +28975,20 @@
       <c r="D4" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="50">
+        <f>epo_overview!H4</f>
         <v>22.5</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="50">
+        <f>epo_overview!I4</f>
         <v>22.5</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="H4" s="33">
+      <c r="G4" s="50" t="str">
+        <f>epo_overview!J4</f>
+        <v>g</v>
+      </c>
+      <c r="H4" s="50">
+        <f>epo_overview!K4</f>
         <v>22.5</v>
       </c>
       <c r="L4" s="33"/>
@@ -28978,17 +29006,20 @@
       <c r="D5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="50">
+        <f>epo_overview!H5</f>
         <v>150</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="50">
+        <f>epo_overview!I5</f>
         <v>150</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>623</v>
-      </c>
-      <c r="H5" s="36">
-        <f>E5</f>
+      <c r="G5" s="50" t="str">
+        <f>epo_overview!J5</f>
+        <v>g</v>
+      </c>
+      <c r="H5" s="50">
+        <f>epo_overview!K5</f>
         <v>150</v>
       </c>
       <c r="L5" s="33"/>
@@ -29006,16 +29037,20 @@
       <c r="D6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="50">
+        <f>epo_overview!H6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="50">
+        <f>epo_overview!I6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>624</v>
-      </c>
-      <c r="H6" s="36">
+      <c r="G6" s="50" t="str">
+        <f>epo_overview!J6</f>
+        <v>egg</v>
+      </c>
+      <c r="H6" s="50">
+        <f>epo_overview!K6</f>
         <v>58</v>
       </c>
       <c r="I6" s="14">
@@ -29039,18 +29074,21 @@
       <c r="D7" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="E7" s="51">
-        <v>150</v>
-      </c>
-      <c r="F7" s="51">
-        <v>150</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>623</v>
-      </c>
-      <c r="H7" s="36">
-        <f>F7</f>
-        <v>150</v>
+      <c r="E7" s="50" t="str">
+        <f>epo_overview!H7</f>
+        <v>100-150</v>
+      </c>
+      <c r="F7" s="50">
+        <f>epo_overview!I7</f>
+        <v>125</v>
+      </c>
+      <c r="G7" s="50" t="str">
+        <f>epo_overview!J7</f>
+        <v>g</v>
+      </c>
+      <c r="H7" s="50">
+        <f>epo_overview!K7</f>
+        <v>125</v>
       </c>
       <c r="L7" s="33"/>
     </row>
@@ -29067,18 +29105,21 @@
       <c r="D8" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="E8" s="60">
-        <v>150</v>
-      </c>
-      <c r="F8" s="60">
-        <v>150</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="H8" s="36">
-        <f>E8</f>
-        <v>150</v>
+      <c r="E8" s="50" t="str">
+        <f>epo_overview!H8</f>
+        <v>100-150</v>
+      </c>
+      <c r="F8" s="50">
+        <f>epo_overview!I8</f>
+        <v>125</v>
+      </c>
+      <c r="G8" s="50" t="str">
+        <f>epo_overview!J8</f>
+        <v>g</v>
+      </c>
+      <c r="H8" s="50">
+        <f>epo_overview!K8</f>
+        <v>125</v>
       </c>
       <c r="L8" s="36"/>
     </row>
@@ -29095,17 +29136,20 @@
       <c r="D9" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
+        <f>epo_overview!H9</f>
         <v>200</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
+        <f>epo_overview!I9</f>
         <v>200</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="H9" s="14">
-        <f>F9*I9</f>
+      <c r="G9" s="50" t="str">
+        <f>epo_overview!J9</f>
+        <v>ml</v>
+      </c>
+      <c r="H9" s="50">
+        <f>epo_overview!K9</f>
         <v>206</v>
       </c>
       <c r="I9" s="14">
@@ -29129,17 +29173,20 @@
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>626</v>
-      </c>
-      <c r="F10" s="51">
+      <c r="E10" s="50" t="str">
+        <f>epo_overview!H10</f>
+        <v>50-60</v>
+      </c>
+      <c r="F10" s="50">
+        <f>epo_overview!I10</f>
         <v>55</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H10" s="14">
-        <f>F10</f>
+      <c r="G10" s="50" t="str">
+        <f>epo_overview!J10</f>
+        <v>g</v>
+      </c>
+      <c r="H10" s="50">
+        <f>epo_overview!K10</f>
         <v>55</v>
       </c>
       <c r="L10" s="33"/>
@@ -29157,17 +29204,20 @@
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>693</v>
-      </c>
-      <c r="F11" s="51">
+      <c r="E11" s="50" t="str">
+        <f>epo_overview!H11</f>
+        <v>200 - 250</v>
+      </c>
+      <c r="F11" s="50">
+        <f>epo_overview!I11</f>
         <v>225</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" ref="H11:H14" si="0">F11</f>
+      <c r="G11" s="50" t="str">
+        <f>epo_overview!J11</f>
+        <v>g</v>
+      </c>
+      <c r="H11" s="50">
+        <f>epo_overview!K11</f>
         <v>225</v>
       </c>
       <c r="I11" s="33"/>
@@ -29176,7 +29226,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>590</v>
@@ -29187,17 +29237,20 @@
       <c r="D12" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>694</v>
-      </c>
-      <c r="F12" s="51">
+      <c r="E12" s="50" t="str">
+        <f>epo_overview!H12</f>
+        <v>100 - 200</v>
+      </c>
+      <c r="F12" s="50">
+        <f>epo_overview!I12</f>
         <v>150</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
+      <c r="G12" s="50" t="str">
+        <f>epo_overview!J12</f>
+        <v>g</v>
+      </c>
+      <c r="H12" s="50">
+        <f>epo_overview!K12</f>
         <v>150</v>
       </c>
       <c r="I12" s="33"/>
@@ -29206,7 +29259,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>589</v>
@@ -29215,20 +29268,22 @@
         <v>610</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>695</v>
-      </c>
-      <c r="F13" s="51">
-        <f>(70+100)/2</f>
+        <v>655</v>
+      </c>
+      <c r="E13" s="50" t="str">
+        <f>epo_overview!H13</f>
+        <v>70 - 100</v>
+      </c>
+      <c r="F13" s="50">
+        <f>epo_overview!I13</f>
         <v>85</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
+      <c r="G13" s="50" t="str">
+        <f>epo_overview!J13</f>
+        <v>g</v>
+      </c>
+      <c r="H13" s="50">
+        <f>epo_overview!K13</f>
         <v>85</v>
       </c>
       <c r="I13" s="33"/>
@@ -29248,18 +29303,20 @@
       <c r="D14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>696</v>
-      </c>
-      <c r="F14" s="51">
-        <f>(125+150)/2</f>
+      <c r="E14" s="50" t="str">
+        <f>epo_overview!H14</f>
+        <v>125 - 150</v>
+      </c>
+      <c r="F14" s="50">
+        <f>epo_overview!I14</f>
         <v>137.5</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
+      <c r="G14" s="50" t="str">
+        <f>epo_overview!J14</f>
+        <v>g</v>
+      </c>
+      <c r="H14" s="50">
+        <f>epo_overview!K14</f>
         <v>137.5</v>
       </c>
       <c r="I14" s="33"/>
@@ -29268,27 +29325,31 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>518</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="50">
+        <f>epo_overview!H15</f>
         <v>1</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="50">
+        <f>epo_overview!I15</f>
         <v>1</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="G15" s="50" t="str">
+        <f>epo_overview!J15</f>
+        <v>cup</v>
+      </c>
+      <c r="H15" s="50">
+        <f>epo_overview!K15</f>
         <v>7</v>
       </c>
       <c r="I15" s="33"/>
@@ -29297,27 +29358,31 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>520</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="E16" s="33">
+        <v>656</v>
+      </c>
+      <c r="E16" s="50">
+        <f>epo_overview!H16</f>
         <v>1</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="50">
+        <f>epo_overview!I16</f>
         <v>1</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="50" t="str">
+        <f>epo_overview!J16</f>
+        <v>cup</v>
+      </c>
+      <c r="H16" s="50">
+        <f>epo_overview!K16</f>
         <v>3</v>
       </c>
       <c r="I16" s="33"/>
@@ -29326,28 +29391,32 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>358</v>
+        <v>685</v>
+      </c>
+      <c r="E17" s="50">
+        <f>epo_overview!H17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="50">
+        <f>epo_overview!I17</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="50" t="str">
+        <f>epo_overview!J17</f>
+        <v>cup</v>
+      </c>
+      <c r="H17" s="50">
+        <f>epo_overview!K17</f>
+        <v>6</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
@@ -29358,25 +29427,28 @@
         <v>469</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>206</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="E18" s="33">
+        <v>669</v>
+      </c>
+      <c r="E18" s="50">
+        <f>epo_overview!H18</f>
         <v>0.5</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="50">
+        <f>epo_overview!I18</f>
         <v>500</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="H18" s="33">
-        <f>F18*I18</f>
+      <c r="G18" s="50" t="str">
+        <f>epo_overview!J18</f>
+        <v>ml</v>
+      </c>
+      <c r="H18" s="50">
+        <f>epo_overview!K18</f>
         <v>505</v>
       </c>
       <c r="I18" s="14">
@@ -29400,17 +29472,20 @@
       <c r="D19" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="50">
+        <f>epo_overview!H19</f>
         <v>0.25</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="50">
+        <f>epo_overview!I19</f>
         <v>250</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="H19" s="33">
-        <f>F19*I19</f>
+      <c r="G19" s="50" t="str">
+        <f>epo_overview!J19</f>
+        <v>ml</v>
+      </c>
+      <c r="H19" s="50">
+        <f>epo_overview!K19</f>
         <v>247.5</v>
       </c>
       <c r="I19" s="14">
@@ -29426,24 +29501,28 @@
         <v>469</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>206</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="E20" s="67">
+        <v>667</v>
+      </c>
+      <c r="E20" s="50">
+        <f>epo_overview!H20</f>
         <v>0.06</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="50">
+        <f>epo_overview!I20</f>
         <v>60</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="H20" s="59">
+      <c r="G20" s="50" t="str">
+        <f>epo_overview!J20</f>
+        <v>ml</v>
+      </c>
+      <c r="H20" s="50">
+        <f>epo_overview!K20</f>
         <v>57</v>
       </c>
       <c r="I20" s="14">
@@ -29456,10 +29535,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>383</v>
@@ -29467,24 +29546,24 @@
       <c r="D21" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="59" t="s">
         <v>358</v>
       </c>
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12">
@@ -29804,7 +29883,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -30585,7 +30664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -30612,13 +30691,13 @@
         <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -30639,7 +30718,7 @@
         <v>0.30699999999999994</v>
       </c>
       <c r="F2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -30967,10 +31046,10 @@
         <v>0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -31007,7 +31086,7 @@
         <v>0.3</v>
       </c>
       <c r="F23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -31159,10 +31238,10 @@
         <v>0.27</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G32" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -31182,10 +31261,10 @@
         <v>0.27</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -31205,10 +31284,10 @@
         <v>0.27</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -31228,7 +31307,7 @@
         <v>0.27</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -31248,7 +31327,7 @@
         <v>0.27</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -31268,7 +31347,7 @@
         <v>0.27</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -31288,7 +31367,7 @@
         <v>0.27</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -31308,7 +31387,7 @@
         <v>0.27</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -31328,7 +31407,7 @@
         <v>0.27</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -31348,7 +31427,7 @@
         <v>0.27</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -31368,7 +31447,7 @@
         <v>0.27</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -31388,7 +31467,7 @@
         <v>0.27</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -31408,7 +31487,7 @@
         <v>0.27</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -31428,7 +31507,7 @@
         <v>0.27</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -31448,7 +31527,7 @@
         <v>0.3</v>
       </c>
       <c r="F46" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -31468,7 +31547,7 @@
         <v>0.2</v>
       </c>
       <c r="F47" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -32538,9 +32617,9 @@
         <v>0.34</v>
       </c>
       <c r="F114" t="s">
-        <v>652</v>
-      </c>
-      <c r="G114" s="52"/>
+        <v>649</v>
+      </c>
+      <c r="G114" s="51"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="14" t="s">
@@ -32559,7 +32638,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -32579,7 +32658,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -32599,7 +32678,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -32619,7 +32698,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -32639,7 +32718,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -32722,11 +32801,11 @@
       <c r="E124" s="14">
         <v>0.45</v>
       </c>
-      <c r="F124" s="52" t="s">
-        <v>691</v>
+      <c r="F124" s="51" t="s">
+        <v>688</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -32752,11 +32831,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
@@ -35138,10 +35217,10 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35178,7 +35257,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>321</v>
@@ -35187,7 +35266,7 @@
         <v>601</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>364</v>
@@ -35215,19 +35294,19 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>604</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
@@ -36093,19 +36172,19 @@
       <c r="G23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="56" t="s">
         <v>608</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="56" t="s">
         <v>608</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="56" t="s">
         <v>381</v>
       </c>
     </row>
@@ -36405,11 +36484,11 @@
       </c>
       <c r="J31" s="14" t="str">
         <f>VLOOKUP(B31,concordance!$B$2:$R$124,15,FALSE)</f>
-        <v>Vegetables and legumes</v>
+        <v>Vegetable oils, nuts and seeds</v>
       </c>
       <c r="K31" s="14" t="str">
         <f>VLOOKUP(B31,concordance!$B$2:$R$124,16,FALSE)</f>
-        <v>Vegetables</v>
+        <v>Vegetable oils, nuts and seeds</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>381</v>
@@ -37742,19 +37821,19 @@
       <c r="G67" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H67" s="57" t="s">
+      <c r="H67" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="I67" s="57" t="s">
+      <c r="I67" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="J67" s="57" t="s">
+      <c r="J67" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="K67" s="57" t="s">
+      <c r="K67" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="L67" s="57" t="s">
+      <c r="L67" s="56" t="s">
         <v>153</v>
       </c>
     </row>
@@ -37780,19 +37859,19 @@
       <c r="G68" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="57" t="s">
+      <c r="H68" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="I68" s="57" t="s">
+      <c r="I68" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="J68" s="57" t="s">
+      <c r="J68" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="K68" s="57" t="s">
+      <c r="K68" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="L68" s="57" t="s">
+      <c r="L68" s="56" t="s">
         <v>153</v>
       </c>
     </row>
@@ -39696,19 +39775,19 @@
       <c r="G123" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H123" s="57" t="s">
+      <c r="H123" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="I123" s="57" t="s">
+      <c r="I123" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="J123" s="57" t="s">
+      <c r="J123" s="56" t="s">
         <v>607</v>
       </c>
-      <c r="K123" s="57" t="s">
+      <c r="K123" s="56" t="s">
         <v>607</v>
       </c>
-      <c r="L123" s="57" t="s">
+      <c r="L123" s="56" t="s">
         <v>261</v>
       </c>
     </row>
